--- a/utility/Formules.xlsx
+++ b/utility/Formules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theophile.mounier\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\cycle\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E88D5EBB-9278-488E-86A0-AF17E905A8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F934A-4AD1-4C44-8978-1C8CCD69BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{605857FF-E55C-4FBE-B00C-46346AF3406F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{605857FF-E55C-4FBE-B00C-46346AF3406F}"/>
   </bookViews>
   <sheets>
     <sheet name="Formules et facteurs d'émission" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9516D06F-8433-41C3-B396-3F559E3C3353}</author>
-    <author>tc={31977781-10DA-4603-AA02-064CD4A00EEE}</author>
+    <author>tc={D67EEFF9-602F-4704-A63D-A6984FE9EB83}</author>
+    <author>tc={85318BFB-39B4-435D-B639-808ABC4F3D13}</author>
   </authors>
   <commentList>
-    <comment ref="H335" authorId="0" shapeId="0" xr:uid="{9516D06F-8433-41C3-B396-3F559E3C3353}">
+    <comment ref="H335" authorId="0" shapeId="0" xr:uid="{D67EEFF9-602F-4704-A63D-A6984FE9EB83}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +51,7 @@
     Faudra voir si on sépare de FPR pour l’eau, de toute façon données d’origine vienne de ceux sur l’eau</t>
       </text>
     </comment>
-    <comment ref="P343" authorId="1" shapeId="0" xr:uid="{31977781-10DA-4603-AA02-064CD4A00EEE}">
+    <comment ref="P343" authorId="1" shapeId="0" xr:uid="{85318BFB-39B4-435D-B639-808ABC4F3D13}">
       <text>
         <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="856">
   <si>
     <t>Valeur de calcul</t>
   </si>
@@ -2448,18 +2448,12 @@
     <t xml:space="preserve">Usine </t>
   </si>
   <si>
-    <t>FEtraitement_c*Qe*Nbjour/d_vie</t>
-  </si>
-  <si>
     <t>FEtraitement_e*Qe*Nbjour</t>
   </si>
   <si>
     <t xml:space="preserve">Déconstruction </t>
   </si>
   <si>
-    <t>FEdec_surface*S</t>
-  </si>
-  <si>
     <t>tbet</t>
   </si>
   <si>
@@ -2578,6 +2572,66 @@
   </si>
   <si>
     <t>Je le prend pour le moment pour simplifier la déconstruction, mais leur serveur est mort donc à terme faudra essayer de retrouver le chiffre autre part</t>
+  </si>
+  <si>
+    <t>methode_2 (Biofiltres)</t>
+  </si>
+  <si>
+    <t>kgN2O/NTK eliminé [2]</t>
+  </si>
+  <si>
+    <t>methode_2 (Boues activées)</t>
+  </si>
+  <si>
+    <t>methode_2 (Autres)</t>
+  </si>
+  <si>
+    <t>FEfile_eau</t>
+  </si>
+  <si>
+    <t>kgCH4/DCO eliminé [2]</t>
+  </si>
+  <si>
+    <t>Comme pour les bassins, fautdra peut être revoir la valeur</t>
+  </si>
+  <si>
+    <t>J'ai juste mis beaucoup, et le 100 est un peu aléatoire (le bloc n'est pas si important)</t>
+  </si>
+  <si>
+    <t>Voir si il ne faut pas ajouter des trucs sur entretien des pompes</t>
+  </si>
+  <si>
+    <t>ntkelim</t>
+  </si>
+  <si>
+    <t>methode_2</t>
+  </si>
+  <si>
+    <t>Faudra trouver un moyen de tout mettre dans méthode mais pour l'instant c'est impossible</t>
+  </si>
+  <si>
+    <t>dcoelim*FEfile_eau</t>
+  </si>
+  <si>
+    <t>dcoelim</t>
+  </si>
+  <si>
+    <t>Peut être qu'il faudra le réécrire avec les abatDCO et NGL pour que ce soit plus clair</t>
+  </si>
+  <si>
+    <t>ntkelim*methode_2</t>
+  </si>
+  <si>
+    <t>FEtraitement_c*Qe*Nbjour*d_vie</t>
+  </si>
+  <si>
+    <t>Pas sûr du *d_vie</t>
+  </si>
+  <si>
+    <t>FEdec_surface*S/d_vie</t>
+  </si>
+  <si>
+    <t>Ici durée entre deux démolition du site</t>
   </si>
 </sst>
 </file>
@@ -2866,15 +2920,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -2882,15 +2927,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2899,9 +2935,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2913,9 +2946,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2936,7 +2966,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2948,16 +2994,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3299,10 +3353,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H335" dT="2024-11-04T13:53:37.32" personId="{F9EA7727-ABA4-4848-BE5F-49C6795AE211}" id="{9516D06F-8433-41C3-B396-3F559E3C3353}">
+  <threadedComment ref="H335" dT="2024-11-04T13:53:37.32" personId="{F9EA7727-ABA4-4848-BE5F-49C6795AE211}" id="{D67EEFF9-602F-4704-A63D-A6984FE9EB83}">
     <text>Faudra voir si on sépare de FPR pour l’eau, de toute façon données d’origine vienne de ceux sur l’eau</text>
   </threadedComment>
-  <threadedComment ref="P343" dT="2024-11-04T15:03:54.88" personId="{F9EA7727-ABA4-4848-BE5F-49C6795AE211}" id="{31977781-10DA-4603-AA02-064CD4A00EEE}">
+  <threadedComment ref="P343" dT="2024-11-04T15:03:54.88" personId="{F9EA7727-ABA4-4848-BE5F-49C6795AE211}" id="{85318BFB-39B4-435D-B639-808ABC4F3D13}">
     <text>Demander pour être sûr quand même</text>
   </threadedComment>
 </ThreadedComments>
@@ -3312,8 +3366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E440E27A-1047-42A1-8493-00B00BFBDD0D}">
   <dimension ref="B2:Q555"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3329,24 +3383,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="L2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="3" t="s">
@@ -3421,17 +3475,17 @@
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
       <c r="Q5" t="s">
         <v>17</v>
       </c>
@@ -3440,23 +3494,23 @@
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="9"/>
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="L6" s="14" t="s">
+      <c r="J6" s="10"/>
+      <c r="L6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13">
+      <c r="M6" s="10"/>
+      <c r="N6" s="10">
         <v>3</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="4" t="s">
@@ -3638,7 +3692,7 @@
       <c r="D13" s="4">
         <v>50</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -3664,7 +3718,7 @@
       <c r="D14" s="4">
         <v>50</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>56</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -3711,10 +3765,10 @@
       <c r="E16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>64</v>
       </c>
       <c r="J16" s="4"/>
@@ -3735,7 +3789,7 @@
       <c r="E17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -3763,12 +3817,12 @@
       <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1">
       <c r="B19" s="4" t="s">
@@ -3783,17 +3837,17 @@
       <c r="E19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="21"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="4" t="s">
@@ -3814,21 +3868,21 @@
       <c r="I20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24" t="s">
+      <c r="K20" s="17"/>
+      <c r="L20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25">
+      <c r="M20" s="19"/>
+      <c r="N20" s="19">
         <v>1</v>
       </c>
-      <c r="O20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="25"/>
+      <c r="O20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="4" t="s">
@@ -3852,18 +3906,18 @@
       <c r="J21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="26" t="s">
+      <c r="K21" s="17"/>
+      <c r="L21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
         <v>2</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="26" t="s">
+      <c r="O21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3889,18 +3943,18 @@
       <c r="J22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="26" t="s">
+      <c r="K22" s="17"/>
+      <c r="L22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
         <v>2</v>
       </c>
-      <c r="O22" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="26" t="s">
+      <c r="O22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3918,18 +3972,18 @@
       <c r="J23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="26" t="s">
+      <c r="K23" s="17"/>
+      <c r="L23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
         <v>2</v>
       </c>
-      <c r="O23" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="26" t="s">
+      <c r="O23" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3955,18 +4009,18 @@
       <c r="J24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="26" t="s">
+      <c r="K24" s="17"/>
+      <c r="L24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
         <v>2</v>
       </c>
-      <c r="O24" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P24" s="26" t="s">
+      <c r="O24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3992,18 +4046,18 @@
       <c r="J25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="26" t="s">
+      <c r="K25" s="17"/>
+      <c r="L25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
         <v>2</v>
       </c>
-      <c r="O25" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" s="26" t="s">
+      <c r="O25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4022,19 +4076,19 @@
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="26" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2">
         <v>3</v>
       </c>
-      <c r="O26" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="26"/>
+      <c r="O26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="4" t="s">
@@ -4058,18 +4112,18 @@
       <c r="J27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="26" t="s">
+      <c r="K27" s="17"/>
+      <c r="L27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
         <v>3</v>
       </c>
-      <c r="O27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="26"/>
+      <c r="O27" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="4" t="s">
@@ -4090,19 +4144,19 @@
       <c r="I28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="26" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O28" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" s="26"/>
+      <c r="O28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="4" t="s">
@@ -4117,29 +4171,29 @@
       <c r="E29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="26" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="2">
         <v>50</v>
       </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="26" t="s">
+      <c r="N29" s="2"/>
+      <c r="O29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="20">
         <v>5</v>
       </c>
       <c r="D30" s="4">
@@ -4151,11 +4205,11 @@
       <c r="H30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="23"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -4175,15 +4229,15 @@
       <c r="E31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" ht="15" thickBot="1">
       <c r="B32" s="4" t="s">
@@ -4198,15 +4252,15 @@
       <c r="E32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1">
       <c r="B33" s="4" t="s">
@@ -4221,17 +4275,17 @@
       <c r="E33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="11"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="41"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="4" t="s">
@@ -4246,14 +4300,14 @@
       <c r="E34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="4" t="s">
         <v>111</v>
       </c>
@@ -4284,22 +4338,22 @@
       <c r="H35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="26" t="s">
+      <c r="J35" s="24"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
         <v>3</v>
       </c>
-      <c r="O35" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="26"/>
+      <c r="O35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="4" t="s">
@@ -4313,22 +4367,22 @@
       <c r="H36" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="I36" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="32"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="33" t="s">
+      <c r="J36" s="24"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
         <v>3</v>
       </c>
-      <c r="O36" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P36" s="26"/>
+      <c r="O36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="4" t="s">
@@ -4339,27 +4393,27 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="33" t="s">
+      <c r="K37" s="17"/>
+      <c r="L37" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
         <v>3</v>
       </c>
-      <c r="O37" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P37" s="26"/>
+      <c r="O37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="4" t="s">
@@ -4374,40 +4428,40 @@
       <c r="E38" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="33" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="H39" s="34" t="s">
+      <c r="H39" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="32" t="s">
+      <c r="J39" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="33" t="s">
+      <c r="K39" s="17"/>
+      <c r="L39" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4" t="s">
@@ -4422,17 +4476,17 @@
       <c r="E40" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="33" t="s">
+      <c r="H40" s="22"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16">
       <c r="B41" s="4" t="s">
@@ -4447,15 +4501,15 @@
       <c r="E41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H41" s="29"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16">
       <c r="B42" s="4" t="s">
@@ -4468,21 +4522,21 @@
         <v>0</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="33" t="s">
+      <c r="H42" s="22"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26">
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
         <v>6</v>
       </c>
-      <c r="O42" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P42" s="26" t="s">
+      <c r="O42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4499,21 +4553,21 @@
       <c r="E43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="33" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26">
+      <c r="M43" s="2"/>
+      <c r="N43" s="2">
         <v>6</v>
       </c>
-      <c r="O43" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P43" s="26"/>
+      <c r="O43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16">
       <c r="B44" s="4" t="s">
@@ -4528,21 +4582,21 @@
       <c r="E44" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="33" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26">
+      <c r="M44" s="2"/>
+      <c r="N44" s="2">
         <v>6</v>
       </c>
-      <c r="O44" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P44" s="26"/>
+      <c r="O44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16">
       <c r="B45" s="4" t="s">
@@ -4557,42 +4611,42 @@
       <c r="E45" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="33" t="s">
+      <c r="H45" s="22"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26">
+      <c r="M45" s="2"/>
+      <c r="N45" s="2">
         <v>6</v>
       </c>
-      <c r="O45" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P45" s="26"/>
+      <c r="O45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="33" t="s">
+      <c r="H46" s="22"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26">
+      <c r="M46" s="2"/>
+      <c r="N46" s="2">
         <v>6</v>
       </c>
-      <c r="O46" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P46" s="26"/>
+      <c r="O46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16">
       <c r="B47" s="4" t="s">
@@ -4607,21 +4661,21 @@
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="33" t="s">
+      <c r="H47" s="22"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26">
+      <c r="M47" s="2"/>
+      <c r="N47" s="2">
         <v>6</v>
       </c>
-      <c r="O47" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" s="26"/>
+      <c r="O47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16">
       <c r="B48" s="4" t="s">
@@ -4636,21 +4690,21 @@
       <c r="E48" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="33" t="s">
+      <c r="H48" s="22"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2">
         <v>6</v>
       </c>
-      <c r="O48" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P48" s="26"/>
+      <c r="O48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" s="4" t="s">
@@ -4665,21 +4719,21 @@
       <c r="E49" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="33" t="s">
+      <c r="H49" s="22"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26">
+      <c r="M49" s="2"/>
+      <c r="N49" s="2">
         <v>6</v>
       </c>
-      <c r="O49" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P49" s="26"/>
+      <c r="O49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" s="2"/>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" s="4" t="s">
@@ -4694,21 +4748,21 @@
       <c r="E50" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="33" t="s">
+      <c r="H50" s="22"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26">
+      <c r="M50" s="2"/>
+      <c r="N50" s="2">
         <v>6</v>
       </c>
-      <c r="O50" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" s="26"/>
+      <c r="O50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" s="4" t="s">
@@ -4723,21 +4777,21 @@
       <c r="E51" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="33" t="s">
+      <c r="H51" s="22"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26">
+      <c r="M51" s="2"/>
+      <c r="N51" s="2">
         <v>6</v>
       </c>
-      <c r="O51" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P51" s="26"/>
+      <c r="O51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" s="2"/>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" s="4" t="s">
@@ -4752,21 +4806,21 @@
       <c r="E52" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="29"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="33" t="s">
+      <c r="H52" s="22"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26">
+      <c r="M52" s="2"/>
+      <c r="N52" s="2">
         <v>6</v>
       </c>
-      <c r="O52" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P52" s="26"/>
+      <c r="O52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" s="4" t="s">
@@ -4781,21 +4835,21 @@
       <c r="E53" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H53" s="29"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="33" t="s">
+      <c r="H53" s="22"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26">
+      <c r="M53" s="2"/>
+      <c r="N53" s="2">
         <v>6</v>
       </c>
-      <c r="O53" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P53" s="26"/>
+      <c r="O53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P53" s="2"/>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" s="4" t="s">
@@ -4810,21 +4864,21 @@
       <c r="E54" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="29"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="33" t="s">
+      <c r="H54" s="22"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26">
+      <c r="M54" s="2"/>
+      <c r="N54" s="2">
         <v>6</v>
       </c>
-      <c r="O54" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P54" s="26"/>
+      <c r="O54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" s="4" t="s">
@@ -4839,21 +4893,21 @@
       <c r="E55" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="33" t="s">
+      <c r="H55" s="22"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26">
+      <c r="M55" s="2"/>
+      <c r="N55" s="2">
         <v>6</v>
       </c>
-      <c r="O55" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P55" s="26"/>
+      <c r="O55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="2"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="4" t="s">
@@ -4868,42 +4922,42 @@
       <c r="E56" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="33" t="s">
+      <c r="H56" s="22"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26">
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
         <v>6</v>
       </c>
-      <c r="O56" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P56" s="26"/>
+      <c r="O56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="33" t="s">
+      <c r="H57" s="22"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26">
+      <c r="M57" s="2"/>
+      <c r="N57" s="2">
         <v>6</v>
       </c>
-      <c r="O57" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P57" s="26"/>
+      <c r="O57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="2"/>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" s="4" t="s">
@@ -4918,21 +4972,21 @@
       <c r="E58" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H58" s="29"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="33" t="s">
+      <c r="H58" s="22"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26">
+      <c r="M58" s="2"/>
+      <c r="N58" s="2">
         <v>6</v>
       </c>
-      <c r="O58" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P58" s="26"/>
+      <c r="O58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" s="4" t="s">
@@ -4947,21 +5001,21 @@
       <c r="E59" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="33" t="s">
+      <c r="H59" s="22"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26">
+      <c r="M59" s="2"/>
+      <c r="N59" s="2">
         <v>6</v>
       </c>
-      <c r="O59" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P59" s="26"/>
+      <c r="O59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" s="2"/>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" s="4" t="s">
@@ -4976,21 +5030,21 @@
       <c r="E60" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H60" s="29"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="33" t="s">
+      <c r="H60" s="22"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26">
+      <c r="M60" s="2"/>
+      <c r="N60" s="2">
         <v>6</v>
       </c>
-      <c r="O60" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P60" s="26"/>
+      <c r="O60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16">
       <c r="B61" s="4" t="s">
@@ -5005,21 +5059,21 @@
       <c r="E61" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="33" t="s">
+      <c r="H61" s="22"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26">
+      <c r="M61" s="2"/>
+      <c r="N61" s="2">
         <v>6</v>
       </c>
-      <c r="O61" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P61" s="26"/>
+      <c r="O61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" s="2"/>
     </row>
     <row r="62" spans="2:16">
       <c r="B62" s="4" t="s">
@@ -5034,21 +5088,21 @@
       <c r="E62" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H62" s="29"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="33" t="s">
+      <c r="H62" s="22"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26">
+      <c r="M62" s="2"/>
+      <c r="N62" s="2">
         <v>6</v>
       </c>
-      <c r="O62" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P62" s="26"/>
+      <c r="O62" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16">
       <c r="B63" s="4" t="s">
@@ -5064,21 +5118,21 @@
       <c r="E63" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H63" s="29"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="33" t="s">
+      <c r="H63" s="22"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26">
+      <c r="M63" s="2"/>
+      <c r="N63" s="2">
         <v>6</v>
       </c>
-      <c r="O63" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P63" s="26"/>
+      <c r="O63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16">
       <c r="B64" s="4" t="s">
@@ -5093,42 +5147,42 @@
       <c r="E64" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H64" s="29"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="33" t="s">
+      <c r="H64" s="22"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26">
+      <c r="M64" s="2"/>
+      <c r="N64" s="2">
         <v>6</v>
       </c>
-      <c r="O64" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P64" s="26"/>
+      <c r="O64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" s="2"/>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="33" t="s">
+      <c r="H65" s="22"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26">
+      <c r="M65" s="2"/>
+      <c r="N65" s="2">
         <v>6</v>
       </c>
-      <c r="O65" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P65" s="26"/>
+      <c r="O65" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" s="2"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="4" t="s">
@@ -5143,21 +5197,21 @@
       <c r="E66" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H66" s="29"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="33" t="s">
+      <c r="H66" s="22"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26">
+      <c r="M66" s="2"/>
+      <c r="N66" s="2">
         <v>6</v>
       </c>
-      <c r="O66" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P66" s="26"/>
+      <c r="O66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16">
       <c r="B67" s="4" t="s">
@@ -5172,21 +5226,21 @@
       <c r="E67" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H67" s="29"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="33" t="s">
+      <c r="H67" s="22"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26">
+      <c r="M67" s="2"/>
+      <c r="N67" s="2">
         <v>6</v>
       </c>
-      <c r="O67" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P67" s="26"/>
+      <c r="O67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" s="2"/>
     </row>
     <row r="68" spans="2:16">
       <c r="B68" s="4" t="s">
@@ -5201,21 +5255,21 @@
       <c r="E68" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H68" s="29"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="33" t="s">
+      <c r="H68" s="22"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26">
+      <c r="M68" s="2"/>
+      <c r="N68" s="2">
         <v>6</v>
       </c>
-      <c r="O68" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P68" s="26"/>
+      <c r="O68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16">
       <c r="B69" s="4" t="s">
@@ -5230,21 +5284,21 @@
       <c r="E69" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H69" s="29"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="33" t="s">
+      <c r="H69" s="22"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26">
+      <c r="M69" s="2"/>
+      <c r="N69" s="2">
         <v>6</v>
       </c>
-      <c r="O69" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P69" s="26"/>
+      <c r="O69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P69" s="2"/>
     </row>
     <row r="70" spans="2:16">
       <c r="B70" s="4" t="s">
@@ -5259,21 +5313,21 @@
       <c r="E70" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H70" s="29"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="33" t="s">
+      <c r="H70" s="22"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26">
+      <c r="M70" s="2"/>
+      <c r="N70" s="2">
         <v>6</v>
       </c>
-      <c r="O70" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P70" s="26"/>
+      <c r="O70" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16">
       <c r="B71" s="4" t="s">
@@ -5288,21 +5342,21 @@
       <c r="E71" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H71" s="29"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="33" t="s">
+      <c r="H71" s="22"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26">
+      <c r="M71" s="2"/>
+      <c r="N71" s="2">
         <v>6</v>
       </c>
-      <c r="O71" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P71" s="26"/>
+      <c r="O71" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" s="2"/>
     </row>
     <row r="72" spans="2:16">
       <c r="B72" s="4" t="s">
@@ -5317,21 +5371,21 @@
       <c r="E72" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H72" s="29"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="33" t="s">
+      <c r="H72" s="22"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26">
+      <c r="M72" s="2"/>
+      <c r="N72" s="2">
         <v>6</v>
       </c>
-      <c r="O72" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P72" s="26"/>
+      <c r="O72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16">
       <c r="B73" s="4" t="s">
@@ -5346,21 +5400,21 @@
       <c r="E73" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="33" t="s">
+      <c r="H73" s="22"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26">
+      <c r="M73" s="2"/>
+      <c r="N73" s="2">
         <v>6</v>
       </c>
-      <c r="O73" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P73" s="26"/>
+      <c r="O73" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P73" s="2"/>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="4" t="s">
@@ -5373,21 +5427,21 @@
         <v>50</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="33" t="s">
+      <c r="H74" s="22"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26">
+      <c r="M74" s="2"/>
+      <c r="N74" s="2">
         <v>6</v>
       </c>
-      <c r="O74" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P74" s="26"/>
+      <c r="O74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16">
       <c r="B75" s="4" t="s">
@@ -5402,21 +5456,21 @@
       <c r="E75" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H75" s="29"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="33" t="s">
+      <c r="H75" s="22"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26">
+      <c r="M75" s="2"/>
+      <c r="N75" s="2">
         <v>6</v>
       </c>
-      <c r="O75" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P75" s="26"/>
+      <c r="O75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" s="2"/>
     </row>
     <row r="76" spans="2:16">
       <c r="B76" s="4" t="s">
@@ -5431,21 +5485,21 @@
       <c r="E76" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="33" t="s">
+      <c r="H76" s="22"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26">
+      <c r="M76" s="2"/>
+      <c r="N76" s="2">
         <v>6</v>
       </c>
-      <c r="O76" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P76" s="26"/>
+      <c r="O76" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16">
       <c r="B77" s="4" t="s">
@@ -5460,15 +5514,15 @@
       <c r="E77" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
     </row>
     <row r="78" spans="2:16">
       <c r="B78" s="4" t="s">
@@ -5483,36 +5537,36 @@
       <c r="E78" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="23"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="17"/>
       <c r="L79" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="M79" s="26">
+      <c r="M79" s="2">
         <v>50</v>
       </c>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P79" s="26"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P79" s="2"/>
     </row>
     <row r="80" spans="2:16">
       <c r="B80" s="4" t="s">
@@ -5527,21 +5581,21 @@
       <c r="E80" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="23"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="17"/>
       <c r="L80" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="M80" s="26">
+      <c r="M80" s="2">
         <v>50</v>
       </c>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P80" s="26"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="4" t="s">
@@ -5556,42 +5610,42 @@
       <c r="E81" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H81" s="29"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="23"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="17"/>
       <c r="L81" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="M81" s="26">
+      <c r="M81" s="2">
         <v>50</v>
       </c>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P81" s="26"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P81" s="2"/>
     </row>
     <row r="82" spans="2:16">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="23"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="17"/>
       <c r="L82" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M82" s="26">
+      <c r="M82" s="2">
         <v>50</v>
       </c>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P82" s="26"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16">
       <c r="B83" s="4" t="s">
@@ -5606,21 +5660,21 @@
       <c r="E83" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H83" s="29"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="23"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="17"/>
       <c r="L83" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="M83" s="26">
+      <c r="M83" s="2">
         <v>50</v>
       </c>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P83" s="26"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P83" s="2"/>
     </row>
     <row r="84" spans="2:16">
       <c r="B84" s="4" t="s">
@@ -5633,21 +5687,21 @@
         <v>0</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="23"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="17"/>
       <c r="L84" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="M84" s="26">
+      <c r="M84" s="2">
         <v>50</v>
       </c>
-      <c r="N84" s="26"/>
-      <c r="O84" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P84" s="26"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" s="2"/>
     </row>
     <row r="85" spans="2:16">
       <c r="B85" s="4" t="s">
@@ -5660,21 +5714,21 @@
         <v>0</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="23"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="17"/>
       <c r="L85" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="M85" s="26">
+      <c r="M85" s="2">
         <v>50</v>
       </c>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P85" s="26"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P85" s="2"/>
     </row>
     <row r="86" spans="2:16">
       <c r="B86" s="4" t="s">
@@ -5689,21 +5743,21 @@
       <c r="E86" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H86" s="29"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="23"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="17"/>
       <c r="L86" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="M86" s="26">
+      <c r="M86" s="2">
         <v>50</v>
       </c>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P86" s="26"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16">
       <c r="B87" s="4" t="s">
@@ -5718,21 +5772,21 @@
       <c r="E87" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H87" s="29"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="23"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="17"/>
       <c r="L87" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M87" s="26">
+      <c r="M87" s="2">
         <v>50</v>
       </c>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P87" s="26"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P87" s="2"/>
     </row>
     <row r="88" spans="2:16">
       <c r="B88" s="4" t="s">
@@ -5747,21 +5801,21 @@
       <c r="E88" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H88" s="29"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="23"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="17"/>
       <c r="L88" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="M88" s="26">
+      <c r="M88" s="2">
         <v>50</v>
       </c>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P88" s="26"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16">
       <c r="B89" s="4" t="s">
@@ -5776,21 +5830,21 @@
       <c r="E89" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H89" s="29"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="23"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="17"/>
       <c r="L89" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M89" s="26">
+      <c r="M89" s="2">
         <v>50</v>
       </c>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P89" s="26"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" s="2"/>
     </row>
     <row r="90" spans="2:16">
       <c r="B90" s="4" t="s">
@@ -5805,42 +5859,42 @@
       <c r="E90" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H90" s="29"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="23"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="17"/>
       <c r="L90" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="M90" s="26">
+      <c r="M90" s="2">
         <v>50</v>
       </c>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P90" s="26"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="23"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="17"/>
       <c r="L91" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="M91" s="26">
+      <c r="M91" s="2">
         <v>50</v>
       </c>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P91" s="26"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P91" s="2"/>
     </row>
     <row r="92" spans="2:16">
       <c r="B92" s="4" t="s">
@@ -5855,21 +5909,21 @@
       <c r="E92" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H92" s="29"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="23"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="17"/>
       <c r="L92" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="M92" s="26">
+      <c r="M92" s="2">
         <v>50</v>
       </c>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P92" s="26"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="4" t="s">
@@ -5884,21 +5938,21 @@
       <c r="E93" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="H93" s="29"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="23"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="17"/>
       <c r="L93" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M93" s="26">
+      <c r="M93" s="2">
         <v>50</v>
       </c>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P93" s="26"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P93" s="2"/>
     </row>
     <row r="94" spans="2:16">
       <c r="B94" s="4" t="s">
@@ -5913,42 +5967,42 @@
       <c r="E94" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="H94" s="29"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="23"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="17"/>
       <c r="L94" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="M94" s="26">
+      <c r="M94" s="2">
         <v>50</v>
       </c>
-      <c r="N94" s="26"/>
-      <c r="O94" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P94" s="26"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="23"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="17"/>
       <c r="L95" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="M95" s="26">
+      <c r="M95" s="2">
         <v>50</v>
       </c>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P95" s="26"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P95" s="2"/>
     </row>
     <row r="96" spans="2:16">
       <c r="B96" s="4" t="s">
@@ -5963,21 +6017,21 @@
       <c r="E96" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="H96" s="29"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="23"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="17"/>
       <c r="L96" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M96" s="26">
+      <c r="M96" s="2">
         <v>50</v>
       </c>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P96" s="26"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P96" s="2"/>
     </row>
     <row r="97" spans="2:16">
       <c r="B97" s="4" t="s">
@@ -5990,21 +6044,21 @@
         <v>0</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="23"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="17"/>
       <c r="L97" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="M97" s="26">
+      <c r="M97" s="2">
         <v>50</v>
       </c>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P97" s="26"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P97" s="2"/>
     </row>
     <row r="98" spans="2:16">
       <c r="B98" s="4" t="s">
@@ -6017,21 +6071,21 @@
         <v>0</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="23"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="17"/>
       <c r="L98" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="M98" s="26">
+      <c r="M98" s="2">
         <v>50</v>
       </c>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P98" s="26"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:16">
       <c r="B99" s="4" t="s">
@@ -6046,21 +6100,21 @@
       <c r="E99" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H99" s="29"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="23"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="17"/>
       <c r="L99" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="M99" s="26">
+      <c r="M99" s="2">
         <v>50</v>
       </c>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P99" s="26"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P99" s="2"/>
     </row>
     <row r="100" spans="2:16">
       <c r="B100" s="4"/>
@@ -6069,21 +6123,21 @@
         <v>0</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="23"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="17"/>
       <c r="L100" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="M100" s="26">
+      <c r="M100" s="2">
         <v>50</v>
       </c>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P100" s="26"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:16">
       <c r="B101" s="4" t="s">
@@ -6096,21 +6150,21 @@
         <v>0</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="23"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="17"/>
       <c r="L101" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="M101" s="26">
+      <c r="M101" s="2">
         <v>50</v>
       </c>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P101" s="26"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P101" s="2"/>
     </row>
     <row r="102" spans="2:16">
       <c r="B102" s="4" t="s">
@@ -6123,21 +6177,21 @@
         <v>0</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="23"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="17"/>
       <c r="L102" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="M102" s="26">
+      <c r="M102" s="2">
         <v>50</v>
       </c>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P102" s="26"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:16">
       <c r="B103" s="4" t="s">
@@ -6150,21 +6204,21 @@
         <v>0</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="23"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="17"/>
       <c r="L103" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="M103" s="26">
+      <c r="M103" s="2">
         <v>50</v>
       </c>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P103" s="26"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P103" s="2"/>
     </row>
     <row r="104" spans="2:16">
       <c r="B104" s="4" t="s">
@@ -6179,42 +6233,42 @@
       <c r="E104" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="23"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="17"/>
       <c r="L104" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="M104" s="26">
+      <c r="M104" s="2">
         <v>50</v>
       </c>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P104" s="26"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P104" s="2"/>
     </row>
     <row r="105" spans="2:16">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="5"/>
       <c r="E105" s="4"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="23"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="17"/>
       <c r="L105" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="M105" s="26">
+      <c r="M105" s="2">
         <v>50</v>
       </c>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P105" s="26"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P105" s="2"/>
     </row>
     <row r="106" spans="2:16">
       <c r="B106" s="4" t="s">
@@ -6227,21 +6281,21 @@
         <v>0</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="23"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="17"/>
       <c r="L106" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="M106" s="26">
+      <c r="M106" s="2">
         <v>50</v>
       </c>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P106" s="26"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P106" s="2"/>
     </row>
     <row r="107" spans="2:16">
       <c r="B107" s="4" t="s">
@@ -6254,21 +6308,21 @@
         <v>0</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="23"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="17"/>
       <c r="L107" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="M107" s="26">
+      <c r="M107" s="2">
         <v>50</v>
       </c>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P107" s="26"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" s="2"/>
     </row>
     <row r="108" spans="2:16">
       <c r="B108" s="4" t="s">
@@ -6281,21 +6335,21 @@
         <v>0</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="23"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="17"/>
       <c r="L108" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="M108" s="26">
+      <c r="M108" s="2">
         <v>50</v>
       </c>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P108" s="26"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P108" s="2"/>
     </row>
     <row r="109" spans="2:16">
       <c r="B109" s="4" t="s">
@@ -6310,19 +6364,19 @@
       <c r="E109" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H109" s="29"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="33" t="s">
+      <c r="H109" s="22"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="M109" s="26"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26" t="s">
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P109" s="26" t="s">
+      <c r="P109" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -6333,21 +6387,21 @@
         <v>0</v>
       </c>
       <c r="E110" s="4"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="33" t="s">
+      <c r="H110" s="22"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="M110" s="26">
+      <c r="M110" s="2">
         <v>50</v>
       </c>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P110" s="26"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P110" s="2"/>
     </row>
     <row r="111" spans="2:16">
       <c r="B111" s="4" t="s">
@@ -6360,21 +6414,21 @@
         <v>0</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="33" t="s">
+      <c r="H111" s="22"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="M111" s="26">
+      <c r="M111" s="2">
         <v>50</v>
       </c>
-      <c r="N111" s="26"/>
-      <c r="O111" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P111" s="26"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P111" s="2"/>
     </row>
     <row r="112" spans="2:16">
       <c r="B112" s="4" t="s">
@@ -6387,21 +6441,21 @@
         <v>0</v>
       </c>
       <c r="E112" s="4"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="33" t="s">
+      <c r="H112" s="22"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="M112" s="26">
+      <c r="M112" s="2">
         <v>50</v>
       </c>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P112" s="26"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P112" s="2"/>
     </row>
     <row r="113" spans="2:17">
       <c r="B113" s="4" t="s">
@@ -6414,21 +6468,21 @@
         <v>0</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="33" t="s">
+      <c r="H113" s="22"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="M113" s="26">
+      <c r="M113" s="2">
         <v>50</v>
       </c>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P113" s="26"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P113" s="2"/>
     </row>
     <row r="114" spans="2:17">
       <c r="B114" s="4" t="s">
@@ -6443,21 +6497,21 @@
       <c r="E114" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="H114" s="29"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="33" t="s">
+      <c r="H114" s="22"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="M114" s="26">
+      <c r="M114" s="2">
         <v>50</v>
       </c>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P114" s="26"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P114" s="2"/>
     </row>
     <row r="115" spans="2:17" ht="15" thickBot="1">
       <c r="B115" s="4" t="s">
@@ -6486,17 +6540,17 @@
       <c r="E116" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="10"/>
-      <c r="P116" s="11"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="40"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="40"/>
+      <c r="O116" s="40"/>
+      <c r="P116" s="41"/>
     </row>
     <row r="117" spans="2:17">
       <c r="B117" s="4"/>
@@ -6509,15 +6563,15 @@
       <c r="I117" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="J117" s="25"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="25" t="s">
+      <c r="J117" s="19"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="25"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
     </row>
     <row r="118" spans="2:17">
       <c r="B118" s="4" t="s">
@@ -6566,18 +6620,18 @@
       <c r="I119" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J119" s="14"/>
-      <c r="L119" s="14" t="s">
+      <c r="J119" s="11"/>
+      <c r="L119" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="M119" s="14">
+      <c r="M119" s="11">
         <v>0</v>
       </c>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14" t="s">
+      <c r="N119" s="11"/>
+      <c r="O119" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="P119" s="14"/>
+      <c r="P119" s="11"/>
     </row>
     <row r="120" spans="2:17">
       <c r="B120" s="4" t="s">
@@ -6689,7 +6743,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="L124" s="36"/>
+      <c r="L124" s="28"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -6720,17 +6774,17 @@
       <c r="E126" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="H126" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="11"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="41"/>
       <c r="Q126" t="s">
         <v>17</v>
       </c>
@@ -6748,23 +6802,23 @@
       <c r="E127" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H127" s="37" t="s">
+      <c r="H127" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="38"/>
-      <c r="L127" s="25" t="s">
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="M127" s="25">
+      <c r="M127" s="19">
         <v>0</v>
       </c>
-      <c r="N127" s="25"/>
-      <c r="O127" s="25" t="s">
+      <c r="N127" s="19"/>
+      <c r="O127" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="P127" s="25" t="s">
+      <c r="P127" s="19" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6784,20 +6838,20 @@
       <c r="H128" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I128" s="39"/>
-      <c r="J128" s="39"/>
-      <c r="K128" s="38"/>
-      <c r="L128" s="26" t="s">
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M128" s="14"/>
-      <c r="N128" s="26">
+      <c r="M128" s="11"/>
+      <c r="N128" s="2">
         <v>2</v>
       </c>
-      <c r="O128" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P128" s="26"/>
+      <c r="O128" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P128" s="2"/>
     </row>
     <row r="129" spans="2:17">
       <c r="B129" s="4" t="s">
@@ -6812,26 +6866,26 @@
       <c r="E129" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="I129" s="14" t="s">
+      <c r="I129" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="J129" s="14" t="s">
+      <c r="J129" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="L129" s="14" t="s">
+      <c r="L129" s="11" t="s">
         <v>119</v>
       </c>
       <c r="M129">
         <v>210</v>
       </c>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P129" s="14" t="s">
+      <c r="N129" s="11"/>
+      <c r="O129" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P129" s="11" t="s">
         <v>368</v>
       </c>
     </row>
@@ -6849,7 +6903,7 @@
         <v>370</v>
       </c>
       <c r="J130" s="4"/>
-      <c r="L130" s="36" t="s">
+      <c r="L130" s="28" t="s">
         <v>371</v>
       </c>
       <c r="M130" s="4">
@@ -6949,11 +7003,11 @@
       <c r="E134" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
     </row>
     <row r="135" spans="2:17" ht="15" thickBot="1">
       <c r="B135" s="4" t="s">
@@ -6966,17 +7020,17 @@
         <v>0</v>
       </c>
       <c r="E135" s="4"/>
-      <c r="H135" s="9" t="s">
+      <c r="H135" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="11"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="40"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40"/>
+      <c r="O135" s="40"/>
+      <c r="P135" s="41"/>
       <c r="Q135" t="s">
         <v>17</v>
       </c>
@@ -6992,22 +7046,22 @@
         <v>0</v>
       </c>
       <c r="E136" s="4"/>
-      <c r="H136" s="13" t="s">
+      <c r="H136" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14"/>
-      <c r="L136" s="26" t="s">
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="L136" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M136" s="14"/>
-      <c r="N136" s="26">
+      <c r="M136" s="11"/>
+      <c r="N136" s="2">
         <v>2</v>
       </c>
-      <c r="O136" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P136" s="26"/>
+      <c r="O136" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P136" s="2"/>
     </row>
     <row r="137" spans="2:17">
       <c r="B137" s="4" t="s">
@@ -7027,17 +7081,17 @@
         <v>350</v>
       </c>
       <c r="J137" s="4"/>
-      <c r="L137" s="14" t="s">
+      <c r="L137" s="11" t="s">
         <v>117</v>
       </c>
       <c r="M137">
         <v>1500</v>
       </c>
-      <c r="N137" s="14"/>
-      <c r="O137" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P137" s="14" t="s">
+      <c r="N137" s="11"/>
+      <c r="O137" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P137" s="11" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7080,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="E139" s="4"/>
-      <c r="H139" s="14" t="s">
+      <c r="H139" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="I139" s="14" t="s">
+      <c r="I139" s="11" t="s">
         <v>392</v>
       </c>
       <c r="J139" s="4"/>
@@ -7194,17 +7248,17 @@
         <v>0</v>
       </c>
       <c r="E144" s="4"/>
-      <c r="H144" s="9" t="s">
+      <c r="H144" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="10"/>
-      <c r="P144" s="11"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="40"/>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="40"/>
+      <c r="P144" s="41"/>
       <c r="Q144" t="s">
         <v>17</v>
       </c>
@@ -7220,13 +7274,13 @@
         <v>0</v>
       </c>
       <c r="E145" s="4"/>
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="I145" s="14" t="s">
+      <c r="I145" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="J145" s="14"/>
+      <c r="J145" s="11"/>
       <c r="L145" s="4" t="s">
         <v>136</v>
       </c>
@@ -7392,17 +7446,17 @@
       <c r="C151" s="4"/>
       <c r="D151" s="5"/>
       <c r="E151" s="4"/>
-      <c r="L151" s="18" t="s">
+      <c r="L151" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18">
+      <c r="M151" s="15"/>
+      <c r="N151" s="15">
         <v>1</v>
       </c>
-      <c r="O151" s="18" t="s">
+      <c r="O151" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="P151" s="18"/>
+      <c r="P151" s="15"/>
     </row>
     <row r="152" spans="2:17" ht="15" thickBot="1">
       <c r="B152" s="4"/>
@@ -7411,17 +7465,17 @@
         <v>0</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="H152" s="40" t="s">
+      <c r="H152" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="I152" s="41"/>
-      <c r="J152" s="41"/>
-      <c r="K152" s="41"/>
-      <c r="L152" s="41"/>
-      <c r="M152" s="41"/>
-      <c r="N152" s="41"/>
-      <c r="O152" s="41"/>
-      <c r="P152" s="42"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
+      <c r="O152" s="43"/>
+      <c r="P152" s="44"/>
       <c r="Q152" t="s">
         <v>17</v>
       </c>
@@ -7437,22 +7491,22 @@
         <v>0</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="H153" s="14" t="s">
+      <c r="H153" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I153" s="14"/>
-      <c r="J153" s="14"/>
-      <c r="L153" s="14" t="s">
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="L153" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M153" s="14">
+      <c r="M153" s="11">
         <v>3</v>
       </c>
-      <c r="N153" s="14"/>
-      <c r="O153" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P153" s="14" t="s">
+      <c r="N153" s="11"/>
+      <c r="O153" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P153" s="11" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7557,13 +7611,13 @@
         <v>0</v>
       </c>
       <c r="E157" s="4"/>
-      <c r="H157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="18"/>
+      <c r="H157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
     </row>
     <row r="158" spans="2:17" ht="15" thickBot="1">
       <c r="B158" s="4" t="s">
@@ -7576,17 +7630,17 @@
         <v>0</v>
       </c>
       <c r="E158" s="4"/>
-      <c r="H158" s="9" t="s">
+      <c r="H158" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="11"/>
+      <c r="I158" s="40"/>
+      <c r="J158" s="40"/>
+      <c r="K158" s="40"/>
+      <c r="L158" s="40"/>
+      <c r="M158" s="40"/>
+      <c r="N158" s="40"/>
+      <c r="O158" s="40"/>
+      <c r="P158" s="41"/>
       <c r="Q158" t="s">
         <v>17</v>
       </c>
@@ -7604,22 +7658,22 @@
       <c r="E159" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="H159" s="14" t="s">
+      <c r="H159" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="L159" s="43" t="s">
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="L159" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="M159" s="14"/>
-      <c r="N159" s="14">
+      <c r="M159" s="11"/>
+      <c r="N159" s="11">
         <v>1</v>
       </c>
-      <c r="O159" s="14" t="s">
+      <c r="O159" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="P159" s="14"/>
+      <c r="P159" s="11"/>
     </row>
     <row r="160" spans="2:17">
       <c r="B160" s="4" t="s">
@@ -7712,17 +7766,17 @@
       <c r="C163" s="4"/>
       <c r="D163" s="5"/>
       <c r="E163" s="4"/>
-      <c r="H163" s="9" t="s">
+      <c r="H163" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="10"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="11"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="40"/>
+      <c r="L163" s="40"/>
+      <c r="M163" s="40"/>
+      <c r="N163" s="40"/>
+      <c r="O163" s="40"/>
+      <c r="P163" s="41"/>
       <c r="Q163" t="s">
         <v>17</v>
       </c>
@@ -7736,22 +7790,22 @@
         <v>0</v>
       </c>
       <c r="E164" s="4"/>
-      <c r="H164" s="14" t="s">
+      <c r="H164" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I164" s="14"/>
-      <c r="J164" s="14"/>
-      <c r="L164" s="43" t="s">
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="L164" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="M164" s="14"/>
-      <c r="N164" s="14">
+      <c r="M164" s="11"/>
+      <c r="N164" s="11">
         <v>2</v>
       </c>
-      <c r="O164" s="14" t="s">
+      <c r="O164" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="P164" s="14"/>
+      <c r="P164" s="11"/>
     </row>
     <row r="165" spans="2:17">
       <c r="B165" s="4" t="s">
@@ -7890,16 +7944,16 @@
       <c r="I169" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J169" s="13"/>
-      <c r="L169" s="14" t="s">
+      <c r="J169" s="10"/>
+      <c r="L169" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="M169" s="14">
+      <c r="M169" s="11">
         <v>20</v>
       </c>
-      <c r="N169" s="14"/>
-      <c r="O169" s="14"/>
-      <c r="P169" s="14" t="s">
+      <c r="N169" s="11"/>
+      <c r="O169" s="11"/>
+      <c r="P169" s="11" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8070,17 +8124,17 @@
         <v>0</v>
       </c>
       <c r="E177" s="4"/>
-      <c r="H177" s="9" t="s">
+      <c r="H177" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="10"/>
-      <c r="M177" s="10"/>
-      <c r="N177" s="10"/>
-      <c r="O177" s="10"/>
-      <c r="P177" s="11"/>
+      <c r="I177" s="40"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="40"/>
+      <c r="L177" s="40"/>
+      <c r="M177" s="40"/>
+      <c r="N177" s="40"/>
+      <c r="O177" s="40"/>
+      <c r="P177" s="41"/>
       <c r="Q177" t="s">
         <v>17</v>
       </c>
@@ -8096,22 +8150,22 @@
         <v>0</v>
       </c>
       <c r="E178" s="4"/>
-      <c r="H178" s="14" t="s">
+      <c r="H178" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I178" s="14"/>
-      <c r="J178" s="14"/>
-      <c r="L178" s="43" t="s">
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="L178" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="M178" s="14"/>
-      <c r="N178" s="14">
+      <c r="M178" s="11"/>
+      <c r="N178" s="11">
         <v>3</v>
       </c>
-      <c r="O178" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P178" s="14" t="s">
+      <c r="O178" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P178" s="11" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8258,17 +8312,17 @@
         <v>70</v>
       </c>
       <c r="E184" s="4"/>
-      <c r="H184" s="9" t="s">
+      <c r="H184" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="10"/>
-      <c r="M184" s="10"/>
-      <c r="N184" s="10"/>
-      <c r="O184" s="10"/>
-      <c r="P184" s="11"/>
+      <c r="I184" s="40"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="40"/>
+      <c r="L184" s="40"/>
+      <c r="M184" s="40"/>
+      <c r="N184" s="40"/>
+      <c r="O184" s="40"/>
+      <c r="P184" s="41"/>
       <c r="Q184" t="s">
         <v>17</v>
       </c>
@@ -8278,22 +8332,22 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
-      <c r="H185" s="14" t="s">
+      <c r="H185" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
-      <c r="L185" s="43" t="s">
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="L185" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="M185" s="14">
+      <c r="M185" s="11">
         <v>1</v>
       </c>
-      <c r="N185" s="14"/>
-      <c r="O185" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P185" s="14" t="s">
+      <c r="N185" s="11"/>
+      <c r="O185" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P185" s="11" t="s">
         <v>486</v>
       </c>
     </row>
@@ -8404,17 +8458,17 @@
       <c r="E190" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H190" s="9" t="s">
+      <c r="H190" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
-      <c r="L190" s="10"/>
-      <c r="M190" s="10"/>
-      <c r="N190" s="10"/>
-      <c r="O190" s="10"/>
-      <c r="P190" s="11"/>
+      <c r="I190" s="40"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="40"/>
+      <c r="M190" s="40"/>
+      <c r="N190" s="40"/>
+      <c r="O190" s="40"/>
+      <c r="P190" s="41"/>
       <c r="Q190" t="s">
         <v>17</v>
       </c>
@@ -8432,22 +8486,22 @@
       <c r="E191" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H191" s="14" t="s">
+      <c r="H191" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="L191" s="43" t="s">
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="L191" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="M191" s="14"/>
-      <c r="N191" s="14">
+      <c r="M191" s="11"/>
+      <c r="N191" s="11">
         <v>3</v>
       </c>
-      <c r="O191" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P191" s="14" t="s">
+      <c r="O191" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P191" s="11" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8556,7 +8610,7 @@
       </c>
     </row>
     <row r="196" spans="2:17">
-      <c r="B196" s="44" t="s">
+      <c r="B196" s="32" t="s">
         <v>508</v>
       </c>
       <c r="C196" s="4"/>
@@ -8586,7 +8640,7 @@
       </c>
     </row>
     <row r="197" spans="2:17">
-      <c r="B197" s="44" t="s">
+      <c r="B197" s="32" t="s">
         <v>513</v>
       </c>
       <c r="C197" s="4"/>
@@ -8606,7 +8660,7 @@
       <c r="P197" s="4"/>
     </row>
     <row r="198" spans="2:17">
-      <c r="B198" s="44" t="s">
+      <c r="B198" s="32" t="s">
         <v>515</v>
       </c>
       <c r="C198" s="4"/>
@@ -8626,7 +8680,7 @@
       <c r="P198" s="4"/>
     </row>
     <row r="199" spans="2:17">
-      <c r="B199" s="44" t="s">
+      <c r="B199" s="32" t="s">
         <v>518</v>
       </c>
       <c r="C199" s="4"/>
@@ -8642,7 +8696,7 @@
       <c r="P199" s="4"/>
     </row>
     <row r="200" spans="2:17" ht="15" thickBot="1">
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="32" t="s">
         <v>519</v>
       </c>
       <c r="C200" s="4"/>
@@ -8658,53 +8712,53 @@
       <c r="P200" s="4"/>
     </row>
     <row r="201" spans="2:17" ht="15" thickBot="1">
-      <c r="B201" s="44" t="s">
+      <c r="B201" s="32" t="s">
         <v>520</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
-      <c r="H201" s="9" t="s">
+      <c r="H201" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="10"/>
-      <c r="M201" s="10"/>
-      <c r="N201" s="10"/>
-      <c r="O201" s="10"/>
-      <c r="P201" s="11"/>
+      <c r="I201" s="40"/>
+      <c r="J201" s="40"/>
+      <c r="K201" s="40"/>
+      <c r="L201" s="40"/>
+      <c r="M201" s="40"/>
+      <c r="N201" s="40"/>
+      <c r="O201" s="40"/>
+      <c r="P201" s="41"/>
       <c r="Q201" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="202" spans="2:17">
-      <c r="B202" s="44" t="s">
+      <c r="B202" s="32" t="s">
         <v>522</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
-      <c r="H202" s="14" t="s">
+      <c r="H202" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="L202" s="43" t="s">
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="L202" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M202" s="14">
+      <c r="M202" s="11">
         <v>4</v>
       </c>
-      <c r="N202" s="14"/>
-      <c r="O202" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P202" s="14"/>
+      <c r="N202" s="11"/>
+      <c r="O202" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P202" s="11"/>
     </row>
     <row r="203" spans="2:17">
-      <c r="B203" s="44" t="s">
+      <c r="B203" s="32" t="s">
         <v>523</v>
       </c>
       <c r="C203" s="4"/>
@@ -8728,7 +8782,7 @@
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="2:17">
-      <c r="B204" s="44" t="s">
+      <c r="B204" s="32" t="s">
         <v>525</v>
       </c>
       <c r="C204" s="4"/>
@@ -8746,15 +8800,13 @@
       <c r="P204" s="4"/>
     </row>
     <row r="205" spans="2:17">
-      <c r="B205" s="44" t="s">
+      <c r="B205" s="32" t="s">
         <v>526</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
-      <c r="H205" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="L205" s="4"/>
@@ -8764,7 +8816,7 @@
       <c r="P205" s="4"/>
     </row>
     <row r="206" spans="2:17">
-      <c r="B206" s="44" t="s">
+      <c r="B206" s="32" t="s">
         <v>527</v>
       </c>
       <c r="C206" s="4"/>
@@ -8784,7 +8836,7 @@
       <c r="P206" s="4"/>
     </row>
     <row r="207" spans="2:17">
-      <c r="B207" s="44" t="s">
+      <c r="B207" s="32" t="s">
         <v>530</v>
       </c>
       <c r="C207" s="4"/>
@@ -8804,7 +8856,7 @@
       <c r="P207" s="4"/>
     </row>
     <row r="208" spans="2:17" ht="15" thickBot="1">
-      <c r="B208" s="44" t="s">
+      <c r="B208" s="32" t="s">
         <v>532</v>
       </c>
       <c r="C208" s="4"/>
@@ -8820,53 +8872,53 @@
       <c r="P208" s="4"/>
     </row>
     <row r="209" spans="2:17" ht="15" thickBot="1">
-      <c r="B209" s="44" t="s">
+      <c r="B209" s="32" t="s">
         <v>533</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
-      <c r="H209" s="9" t="s">
+      <c r="H209" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="I209" s="10"/>
-      <c r="J209" s="10"/>
-      <c r="K209" s="10"/>
-      <c r="L209" s="10"/>
-      <c r="M209" s="10"/>
-      <c r="N209" s="10"/>
-      <c r="O209" s="10"/>
-      <c r="P209" s="11"/>
+      <c r="I209" s="40"/>
+      <c r="J209" s="40"/>
+      <c r="K209" s="40"/>
+      <c r="L209" s="40"/>
+      <c r="M209" s="40"/>
+      <c r="N209" s="40"/>
+      <c r="O209" s="40"/>
+      <c r="P209" s="41"/>
       <c r="Q209" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="210" spans="2:17">
-      <c r="B210" s="44" t="s">
+      <c r="B210" s="32" t="s">
         <v>535</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
-      <c r="H210" s="14" t="s">
+      <c r="H210" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="I210" s="14"/>
-      <c r="J210" s="14"/>
-      <c r="L210" s="43" t="s">
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="L210" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="M210" s="14">
+      <c r="M210" s="11">
         <v>60</v>
       </c>
-      <c r="N210" s="14" t="s">
+      <c r="N210" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O210" s="14"/>
-      <c r="P210" s="14"/>
+      <c r="O210" s="11"/>
+      <c r="P210" s="11"/>
     </row>
     <row r="211" spans="2:17">
-      <c r="B211" s="44" t="s">
+      <c r="B211" s="32" t="s">
         <v>536</v>
       </c>
       <c r="C211" s="4"/>
@@ -8884,7 +8936,7 @@
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="2:17">
-      <c r="B212" s="44" t="s">
+      <c r="B212" s="32" t="s">
         <v>537</v>
       </c>
       <c r="C212" s="4"/>
@@ -8908,7 +8960,7 @@
       <c r="P212" s="4"/>
     </row>
     <row r="213" spans="2:17" ht="15" thickBot="1">
-      <c r="B213" s="44" t="s">
+      <c r="B213" s="32" t="s">
         <v>538</v>
       </c>
       <c r="C213" s="4"/>
@@ -8924,58 +8976,58 @@
       <c r="P213" s="4"/>
     </row>
     <row r="214" spans="2:17" ht="15" thickBot="1">
-      <c r="B214" s="44" t="s">
+      <c r="B214" s="32" t="s">
         <v>539</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
-      <c r="H214" s="9" t="s">
+      <c r="H214" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="I214" s="10"/>
-      <c r="J214" s="10"/>
-      <c r="K214" s="10"/>
-      <c r="L214" s="10"/>
-      <c r="M214" s="10"/>
-      <c r="N214" s="10"/>
-      <c r="O214" s="10"/>
-      <c r="P214" s="11"/>
+      <c r="I214" s="40"/>
+      <c r="J214" s="40"/>
+      <c r="K214" s="40"/>
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="41"/>
       <c r="Q214" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="215" spans="2:17">
-      <c r="B215" s="44" t="s">
+      <c r="B215" s="32" t="s">
         <v>541</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
-      <c r="H215" s="14" t="s">
+      <c r="H215" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I215" s="25" t="s">
+      <c r="I215" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="J215" s="25"/>
-      <c r="K215" s="23"/>
-      <c r="L215" s="25" t="s">
+      <c r="J215" s="19"/>
+      <c r="K215" s="17"/>
+      <c r="L215" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="M215" s="25">
+      <c r="M215" s="19">
         <v>1.5</v>
       </c>
-      <c r="N215" s="25"/>
-      <c r="O215" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P215" s="25" t="s">
+      <c r="N215" s="19"/>
+      <c r="O215" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P215" s="19" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="216" spans="2:17">
-      <c r="B216" s="44" t="s">
+      <c r="B216" s="32" t="s">
         <v>545</v>
       </c>
       <c r="C216" s="4"/>
@@ -8984,27 +9036,27 @@
       <c r="H216" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I216" s="26" t="s">
+      <c r="I216" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="J216" s="26"/>
-      <c r="K216" s="23"/>
-      <c r="L216" s="26" t="s">
+      <c r="J216" s="2"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M216" s="26">
+      <c r="M216" s="2">
         <v>2</v>
       </c>
-      <c r="N216" s="26"/>
-      <c r="O216" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="P216" s="26" t="s">
+      <c r="N216" s="2"/>
+      <c r="O216" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P216" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="217" spans="2:17">
-      <c r="B217" s="44" t="s">
+      <c r="B217" s="32" t="s">
         <v>547</v>
       </c>
       <c r="C217" s="4"/>
@@ -9024,7 +9076,7 @@
       <c r="P217" s="4"/>
     </row>
     <row r="218" spans="2:17">
-      <c r="B218" s="44" t="s">
+      <c r="B218" s="32" t="s">
         <v>550</v>
       </c>
       <c r="C218" s="4"/>
@@ -9042,7 +9094,7 @@
       <c r="P218" s="4"/>
     </row>
     <row r="219" spans="2:17">
-      <c r="B219" s="44" t="s">
+      <c r="B219" s="32" t="s">
         <v>551</v>
       </c>
       <c r="C219" s="4"/>
@@ -9060,7 +9112,7 @@
       <c r="P219" s="4"/>
     </row>
     <row r="220" spans="2:17" ht="15" thickBot="1">
-      <c r="B220" s="44" t="s">
+      <c r="B220" s="32" t="s">
         <v>552</v>
       </c>
       <c r="C220" s="4"/>
@@ -9080,57 +9132,57 @@
       <c r="P220" s="4"/>
     </row>
     <row r="221" spans="2:17" ht="15" thickBot="1">
-      <c r="B221" s="44" t="s">
+      <c r="B221" s="32" t="s">
         <v>554</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
-      <c r="H221" s="9" t="s">
+      <c r="H221" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10"/>
-      <c r="K221" s="10"/>
-      <c r="L221" s="10"/>
-      <c r="M221" s="10"/>
-      <c r="N221" s="10"/>
-      <c r="O221" s="10"/>
-      <c r="P221" s="11"/>
+      <c r="I221" s="40"/>
+      <c r="J221" s="40"/>
+      <c r="K221" s="40"/>
+      <c r="L221" s="40"/>
+      <c r="M221" s="40"/>
+      <c r="N221" s="40"/>
+      <c r="O221" s="40"/>
+      <c r="P221" s="41"/>
       <c r="Q221" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="222" spans="2:17">
-      <c r="B222" s="44" t="s">
+      <c r="B222" s="32" t="s">
         <v>556</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
-      <c r="H222" s="14" t="s">
+      <c r="H222" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I222" s="14" t="s">
+      <c r="I222" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="J222" s="14"/>
-      <c r="L222" s="14" t="s">
+      <c r="J222" s="11"/>
+      <c r="L222" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="M222" s="14">
+      <c r="M222" s="11">
         <v>9</v>
       </c>
-      <c r="N222" s="14"/>
-      <c r="O222" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P222" s="14" t="s">
+      <c r="N222" s="11"/>
+      <c r="O222" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P222" s="11" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="223" spans="2:17">
-      <c r="B223" s="44" t="s">
+      <c r="B223" s="32" t="s">
         <v>559</v>
       </c>
       <c r="C223" s="4"/>
@@ -9158,7 +9210,7 @@
       </c>
     </row>
     <row r="224" spans="2:17">
-      <c r="B224" s="44" t="s">
+      <c r="B224" s="32" t="s">
         <v>563</v>
       </c>
       <c r="C224" s="4"/>
@@ -9186,7 +9238,7 @@
       </c>
     </row>
     <row r="225" spans="2:17">
-      <c r="B225" s="44" t="s">
+      <c r="B225" s="32" t="s">
         <v>567</v>
       </c>
       <c r="C225" s="4"/>
@@ -9214,7 +9266,7 @@
       </c>
     </row>
     <row r="226" spans="2:17">
-      <c r="B226" s="44" t="s">
+      <c r="B226" s="32" t="s">
         <v>571</v>
       </c>
       <c r="C226" s="4"/>
@@ -9242,7 +9294,7 @@
       </c>
     </row>
     <row r="227" spans="2:17">
-      <c r="B227" s="44" t="s">
+      <c r="B227" s="32" t="s">
         <v>574</v>
       </c>
       <c r="C227" s="4"/>
@@ -9270,7 +9322,7 @@
       </c>
     </row>
     <row r="228" spans="2:17">
-      <c r="B228" s="44" t="s">
+      <c r="B228" s="32" t="s">
         <v>577</v>
       </c>
       <c r="C228" s="4"/>
@@ -9298,7 +9350,7 @@
       </c>
     </row>
     <row r="229" spans="2:17">
-      <c r="B229" s="44" t="s">
+      <c r="B229" s="32" t="s">
         <v>581</v>
       </c>
       <c r="C229" s="4"/>
@@ -9326,7 +9378,7 @@
       </c>
     </row>
     <row r="230" spans="2:17">
-      <c r="B230" s="44" t="s">
+      <c r="B230" s="32" t="s">
         <v>585</v>
       </c>
       <c r="C230" s="4"/>
@@ -9354,7 +9406,7 @@
       </c>
     </row>
     <row r="231" spans="2:17">
-      <c r="B231" s="44"/>
+      <c r="B231" s="32"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -9372,7 +9424,7 @@
       <c r="P231" s="4"/>
     </row>
     <row r="232" spans="2:17">
-      <c r="B232" s="44"/>
+      <c r="B232" s="32"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -9388,7 +9440,7 @@
       <c r="P232" s="4"/>
     </row>
     <row r="233" spans="2:17">
-      <c r="B233" s="44"/>
+      <c r="B233" s="32"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -9404,7 +9456,7 @@
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="2:17" ht="15" thickBot="1">
-      <c r="B234" s="44"/>
+      <c r="B234" s="32"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -9418,24 +9470,24 @@
       <c r="P234" s="4"/>
     </row>
     <row r="235" spans="2:17" ht="15" thickBot="1">
-      <c r="B235" s="44"/>
+      <c r="B235" s="32"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
-      <c r="H235" s="9" t="s">
+      <c r="H235" s="39" t="s">
         <v>591</v>
       </c>
-      <c r="I235" s="10"/>
-      <c r="J235" s="10"/>
-      <c r="K235" s="10"/>
-      <c r="L235" s="10"/>
-      <c r="M235" s="10"/>
-      <c r="N235" s="10"/>
-      <c r="O235" s="10"/>
-      <c r="P235" s="11"/>
+      <c r="I235" s="40"/>
+      <c r="J235" s="40"/>
+      <c r="K235" s="40"/>
+      <c r="L235" s="40"/>
+      <c r="M235" s="40"/>
+      <c r="N235" s="40"/>
+      <c r="O235" s="40"/>
+      <c r="P235" s="41"/>
     </row>
     <row r="236" spans="2:17">
-      <c r="B236" s="44"/>
+      <c r="B236" s="32"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -9445,23 +9497,23 @@
       <c r="I236" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="J236" s="14"/>
-      <c r="L236" s="43" t="s">
+      <c r="J236" s="11"/>
+      <c r="L236" s="31" t="s">
         <v>594</v>
       </c>
-      <c r="M236" s="14">
+      <c r="M236" s="11">
         <v>1</v>
       </c>
-      <c r="N236" s="14"/>
-      <c r="O236" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P236" s="14" t="s">
+      <c r="N236" s="11"/>
+      <c r="O236" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P236" s="11" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="237" spans="2:17">
-      <c r="B237" s="44"/>
+      <c r="B237" s="32"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -9483,7 +9535,7 @@
       <c r="P237" s="4"/>
     </row>
     <row r="238" spans="2:17">
-      <c r="B238" s="44"/>
+      <c r="B238" s="32"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -9505,7 +9557,7 @@
       <c r="P238" s="4"/>
     </row>
     <row r="239" spans="2:17" ht="15" thickBot="1">
-      <c r="B239" s="44"/>
+      <c r="B239" s="32"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -9519,27 +9571,27 @@
       <c r="P239" s="4"/>
     </row>
     <row r="240" spans="2:17" ht="15" thickBot="1">
-      <c r="B240" s="44"/>
+      <c r="B240" s="32"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
-      <c r="H240" s="9" t="s">
+      <c r="H240" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="I240" s="10"/>
-      <c r="J240" s="10"/>
-      <c r="K240" s="10"/>
-      <c r="L240" s="10"/>
-      <c r="M240" s="10"/>
-      <c r="N240" s="10"/>
-      <c r="O240" s="10"/>
-      <c r="P240" s="11"/>
+      <c r="I240" s="40"/>
+      <c r="J240" s="40"/>
+      <c r="K240" s="40"/>
+      <c r="L240" s="40"/>
+      <c r="M240" s="40"/>
+      <c r="N240" s="40"/>
+      <c r="O240" s="40"/>
+      <c r="P240" s="41"/>
       <c r="Q240" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="241" spans="2:17">
-      <c r="B241" s="44"/>
+      <c r="B241" s="32"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -9561,7 +9613,7 @@
       <c r="P241" s="4"/>
     </row>
     <row r="242" spans="2:17">
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="27" t="s">
         <v>602</v>
       </c>
       <c r="C242" s="4">
@@ -9593,7 +9645,7 @@
       </c>
     </row>
     <row r="243" spans="2:17">
-      <c r="B243" s="35" t="s">
+      <c r="B243" s="27" t="s">
         <v>607</v>
       </c>
       <c r="C243" s="4">
@@ -9623,7 +9675,7 @@
       <c r="P243" s="4"/>
     </row>
     <row r="244" spans="2:17">
-      <c r="B244" s="35" t="s">
+      <c r="B244" s="27" t="s">
         <v>609</v>
       </c>
       <c r="C244" s="4">
@@ -9655,7 +9707,7 @@
       </c>
     </row>
     <row r="245" spans="2:17">
-      <c r="B245" s="35" t="s">
+      <c r="B245" s="27" t="s">
         <v>613</v>
       </c>
       <c r="C245" s="4">
@@ -9683,7 +9735,7 @@
       <c r="P245" s="4"/>
     </row>
     <row r="246" spans="2:17">
-      <c r="B246" s="35" t="s">
+      <c r="B246" s="27" t="s">
         <v>615</v>
       </c>
       <c r="C246" s="4">
@@ -9703,7 +9755,7 @@
       <c r="P246" s="4"/>
     </row>
     <row r="247" spans="2:17" ht="15" thickBot="1">
-      <c r="B247" s="35" t="s">
+      <c r="B247" s="27" t="s">
         <v>616</v>
       </c>
       <c r="C247" s="4">
@@ -9721,7 +9773,7 @@
       <c r="P247" s="4"/>
     </row>
     <row r="248" spans="2:17" ht="15" thickBot="1">
-      <c r="B248" s="35" t="s">
+      <c r="B248" s="27" t="s">
         <v>617</v>
       </c>
       <c r="C248" s="4">
@@ -9731,23 +9783,23 @@
         <v>30</v>
       </c>
       <c r="E248" s="4"/>
-      <c r="H248" s="9" t="s">
+      <c r="H248" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10"/>
-      <c r="K248" s="10"/>
-      <c r="L248" s="10"/>
-      <c r="M248" s="10"/>
-      <c r="N248" s="10"/>
-      <c r="O248" s="10"/>
-      <c r="P248" s="11"/>
+      <c r="I248" s="40"/>
+      <c r="J248" s="40"/>
+      <c r="K248" s="40"/>
+      <c r="L248" s="40"/>
+      <c r="M248" s="40"/>
+      <c r="N248" s="40"/>
+      <c r="O248" s="40"/>
+      <c r="P248" s="41"/>
       <c r="Q248" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="249" spans="2:17">
-      <c r="B249" s="35" t="s">
+      <c r="B249" s="27" t="s">
         <v>619</v>
       </c>
       <c r="C249" s="4">
@@ -9773,7 +9825,7 @@
       <c r="P249" s="4"/>
     </row>
     <row r="250" spans="2:17">
-      <c r="B250" s="35" t="s">
+      <c r="B250" s="27" t="s">
         <v>620</v>
       </c>
       <c r="C250" s="4">
@@ -9801,7 +9853,7 @@
       <c r="P250" s="4"/>
     </row>
     <row r="251" spans="2:17">
-      <c r="B251" s="35" t="s">
+      <c r="B251" s="27" t="s">
         <v>621</v>
       </c>
       <c r="C251" s="4">
@@ -9827,7 +9879,7 @@
       <c r="P251" s="4"/>
     </row>
     <row r="252" spans="2:17">
-      <c r="B252" s="35" t="s">
+      <c r="B252" s="27" t="s">
         <v>622</v>
       </c>
       <c r="C252" s="4">
@@ -9853,7 +9905,7 @@
       <c r="P252" s="4"/>
     </row>
     <row r="253" spans="2:17">
-      <c r="B253" s="35" t="s">
+      <c r="B253" s="27" t="s">
         <v>623</v>
       </c>
       <c r="C253" s="4">
@@ -9883,7 +9935,7 @@
       <c r="P253" s="4"/>
     </row>
     <row r="254" spans="2:17">
-      <c r="B254" s="35" t="s">
+      <c r="B254" s="27" t="s">
         <v>625</v>
       </c>
       <c r="C254" s="4">
@@ -9913,7 +9965,7 @@
       <c r="P254" s="4"/>
     </row>
     <row r="255" spans="2:17">
-      <c r="B255" s="35" t="s">
+      <c r="B255" s="27" t="s">
         <v>627</v>
       </c>
       <c r="C255" s="4">
@@ -9939,7 +9991,7 @@
       <c r="P255" s="4"/>
     </row>
     <row r="256" spans="2:17">
-      <c r="B256" s="35" t="s">
+      <c r="B256" s="27" t="s">
         <v>628</v>
       </c>
       <c r="C256" s="4">
@@ -9969,7 +10021,7 @@
       <c r="P256" s="4"/>
     </row>
     <row r="257" spans="2:17">
-      <c r="B257" s="35" t="s">
+      <c r="B257" s="27" t="s">
         <v>630</v>
       </c>
       <c r="C257" s="4">
@@ -9999,7 +10051,7 @@
       <c r="P257" s="4"/>
     </row>
     <row r="258" spans="2:17" ht="15" thickBot="1">
-      <c r="B258" s="35" t="s">
+      <c r="B258" s="27" t="s">
         <v>632</v>
       </c>
       <c r="C258" s="4">
@@ -10029,7 +10081,7 @@
       <c r="P258" s="4"/>
     </row>
     <row r="259" spans="2:17" ht="15" thickBot="1">
-      <c r="B259" s="35" t="s">
+      <c r="B259" s="27" t="s">
         <v>635</v>
       </c>
       <c r="C259" s="4">
@@ -10039,23 +10091,23 @@
         <v>50</v>
       </c>
       <c r="E259" s="4"/>
-      <c r="H259" s="9" t="s">
+      <c r="H259" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="I259" s="10"/>
-      <c r="J259" s="10"/>
-      <c r="K259" s="10"/>
-      <c r="L259" s="10"/>
-      <c r="M259" s="10"/>
-      <c r="N259" s="10"/>
-      <c r="O259" s="10"/>
-      <c r="P259" s="11"/>
+      <c r="I259" s="40"/>
+      <c r="J259" s="40"/>
+      <c r="K259" s="40"/>
+      <c r="L259" s="40"/>
+      <c r="M259" s="40"/>
+      <c r="N259" s="40"/>
+      <c r="O259" s="40"/>
+      <c r="P259" s="41"/>
       <c r="Q259" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="260" spans="2:17">
-      <c r="B260" s="35" t="s">
+      <c r="B260" s="27" t="s">
         <v>637</v>
       </c>
       <c r="C260" s="4">
@@ -10085,7 +10137,7 @@
       </c>
     </row>
     <row r="261" spans="2:17">
-      <c r="B261" s="35" t="s">
+      <c r="B261" s="27" t="s">
         <v>639</v>
       </c>
       <c r="C261" s="4">
@@ -10115,7 +10167,7 @@
       </c>
     </row>
     <row r="262" spans="2:17">
-      <c r="B262" s="35" t="s">
+      <c r="B262" s="27" t="s">
         <v>641</v>
       </c>
       <c r="C262" s="4">
@@ -10139,7 +10191,7 @@
       <c r="P262" s="4"/>
     </row>
     <row r="263" spans="2:17">
-      <c r="B263" s="35" t="s">
+      <c r="B263" s="27" t="s">
         <v>643</v>
       </c>
       <c r="C263" s="4">
@@ -10163,7 +10215,7 @@
       <c r="P263" s="4"/>
     </row>
     <row r="264" spans="2:17">
-      <c r="B264" s="35" t="s">
+      <c r="B264" s="27" t="s">
         <v>644</v>
       </c>
       <c r="C264" s="4">
@@ -10187,7 +10239,7 @@
       <c r="P264" s="4"/>
     </row>
     <row r="265" spans="2:17">
-      <c r="B265" s="35" t="s">
+      <c r="B265" s="27" t="s">
         <v>645</v>
       </c>
       <c r="C265" s="4">
@@ -10211,7 +10263,7 @@
       <c r="P265" s="4"/>
     </row>
     <row r="266" spans="2:17" ht="15" thickBot="1">
-      <c r="B266" s="35" t="s">
+      <c r="B266" s="27" t="s">
         <v>647</v>
       </c>
       <c r="C266" s="4">
@@ -10231,7 +10283,7 @@
       <c r="P266" s="4"/>
     </row>
     <row r="267" spans="2:17" ht="15" thickBot="1">
-      <c r="B267" s="35" t="s">
+      <c r="B267" s="27" t="s">
         <v>648</v>
       </c>
       <c r="C267" s="4">
@@ -10241,23 +10293,23 @@
         <v>30</v>
       </c>
       <c r="E267" s="4"/>
-      <c r="H267" s="9" t="s">
+      <c r="H267" s="39" t="s">
         <v>649</v>
       </c>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="10"/>
-      <c r="P267" s="11"/>
+      <c r="I267" s="40"/>
+      <c r="J267" s="40"/>
+      <c r="K267" s="40"/>
+      <c r="L267" s="40"/>
+      <c r="M267" s="40"/>
+      <c r="N267" s="40"/>
+      <c r="O267" s="40"/>
+      <c r="P267" s="41"/>
       <c r="Q267" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="268" spans="2:17">
-      <c r="B268" s="35" t="s">
+      <c r="B268" s="27" t="s">
         <v>650</v>
       </c>
       <c r="C268" s="4">
@@ -10287,7 +10339,7 @@
       </c>
     </row>
     <row r="269" spans="2:17">
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="27" t="s">
         <v>652</v>
       </c>
       <c r="C269" s="4">
@@ -10317,7 +10369,7 @@
       </c>
     </row>
     <row r="270" spans="2:17">
-      <c r="B270" s="35" t="s">
+      <c r="B270" s="27" t="s">
         <v>654</v>
       </c>
       <c r="C270" s="4">
@@ -10347,7 +10399,7 @@
       <c r="P270" s="4"/>
     </row>
     <row r="271" spans="2:17">
-      <c r="B271" s="35" t="s">
+      <c r="B271" s="27" t="s">
         <v>655</v>
       </c>
       <c r="C271" s="4">
@@ -10373,7 +10425,7 @@
       <c r="P271" s="4"/>
     </row>
     <row r="272" spans="2:17">
-      <c r="B272" s="35" t="s">
+      <c r="B272" s="27" t="s">
         <v>657</v>
       </c>
       <c r="C272" s="4">
@@ -10397,7 +10449,7 @@
       <c r="P272" s="4"/>
     </row>
     <row r="273" spans="2:17">
-      <c r="B273" s="35" t="s">
+      <c r="B273" s="27" t="s">
         <v>658</v>
       </c>
       <c r="C273" s="4">
@@ -10421,7 +10473,7 @@
       <c r="P273" s="4"/>
     </row>
     <row r="274" spans="2:17" ht="15" thickBot="1">
-      <c r="B274" s="35" t="s">
+      <c r="B274" s="27" t="s">
         <v>660</v>
       </c>
       <c r="C274" s="4">
@@ -10445,7 +10497,7 @@
       <c r="P274" s="4"/>
     </row>
     <row r="275" spans="2:17" ht="15" thickBot="1">
-      <c r="B275" s="35" t="s">
+      <c r="B275" s="27" t="s">
         <v>662</v>
       </c>
       <c r="C275" s="4">
@@ -10455,23 +10507,23 @@
         <v>100</v>
       </c>
       <c r="E275" s="4"/>
-      <c r="H275" s="9" t="s">
+      <c r="H275" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-      <c r="K275" s="10"/>
-      <c r="L275" s="10"/>
-      <c r="M275" s="10"/>
-      <c r="N275" s="10"/>
-      <c r="O275" s="10"/>
-      <c r="P275" s="11"/>
+      <c r="I275" s="40"/>
+      <c r="J275" s="40"/>
+      <c r="K275" s="40"/>
+      <c r="L275" s="40"/>
+      <c r="M275" s="40"/>
+      <c r="N275" s="40"/>
+      <c r="O275" s="40"/>
+      <c r="P275" s="41"/>
       <c r="Q275" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="276" spans="2:17">
-      <c r="B276" s="35" t="s">
+      <c r="B276" s="27" t="s">
         <v>664</v>
       </c>
       <c r="C276" s="4">
@@ -10503,7 +10555,7 @@
       </c>
     </row>
     <row r="277" spans="2:17">
-      <c r="B277" s="35"/>
+      <c r="B277" s="27"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -10527,7 +10579,7 @@
       </c>
     </row>
     <row r="278" spans="2:17">
-      <c r="B278" s="35"/>
+      <c r="B278" s="27"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
@@ -10551,7 +10603,7 @@
       <c r="P278" s="4"/>
     </row>
     <row r="279" spans="2:17">
-      <c r="B279" s="35"/>
+      <c r="B279" s="27"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -10569,7 +10621,7 @@
       <c r="P279" s="4"/>
     </row>
     <row r="280" spans="2:17">
-      <c r="B280" s="35"/>
+      <c r="B280" s="27"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
@@ -10643,17 +10695,17 @@
       <c r="E283" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="H283" s="9" t="s">
+      <c r="H283" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="I283" s="10"/>
-      <c r="J283" s="10"/>
-      <c r="K283" s="10"/>
-      <c r="L283" s="10"/>
-      <c r="M283" s="10"/>
-      <c r="N283" s="10"/>
-      <c r="O283" s="10"/>
-      <c r="P283" s="11"/>
+      <c r="I283" s="40"/>
+      <c r="J283" s="40"/>
+      <c r="K283" s="40"/>
+      <c r="L283" s="40"/>
+      <c r="M283" s="40"/>
+      <c r="N283" s="40"/>
+      <c r="O283" s="40"/>
+      <c r="P283" s="41"/>
       <c r="Q283" t="s">
         <v>17</v>
       </c>
@@ -10847,17 +10899,17 @@
       <c r="E291" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="H291" s="9" t="s">
+      <c r="H291" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-      <c r="K291" s="10"/>
-      <c r="L291" s="10"/>
-      <c r="M291" s="10"/>
-      <c r="N291" s="10"/>
-      <c r="O291" s="10"/>
-      <c r="P291" s="11"/>
+      <c r="I291" s="40"/>
+      <c r="J291" s="40"/>
+      <c r="K291" s="40"/>
+      <c r="L291" s="40"/>
+      <c r="M291" s="40"/>
+      <c r="N291" s="40"/>
+      <c r="O291" s="40"/>
+      <c r="P291" s="41"/>
       <c r="Q291" t="s">
         <v>17</v>
       </c>
@@ -11051,30 +11103,46 @@
       <c r="P298" s="4"/>
     </row>
     <row r="299" spans="2:17" ht="15" thickBot="1">
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="H299" s="9" t="s">
+      <c r="B299" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C299" s="4">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D299" s="4">
+        <v>15</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="H299" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="I299" s="10"/>
-      <c r="J299" s="10"/>
-      <c r="K299" s="10"/>
-      <c r="L299" s="10"/>
-      <c r="M299" s="10"/>
-      <c r="N299" s="10"/>
-      <c r="O299" s="10"/>
-      <c r="P299" s="11"/>
+      <c r="I299" s="40"/>
+      <c r="J299" s="40"/>
+      <c r="K299" s="40"/>
+      <c r="L299" s="40"/>
+      <c r="M299" s="40"/>
+      <c r="N299" s="40"/>
+      <c r="O299" s="40"/>
+      <c r="P299" s="41"/>
       <c r="Q299" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="300" spans="2:17">
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
+      <c r="B300" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C300" s="4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D300" s="4">
+        <v>50</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>837</v>
+      </c>
       <c r="H300" s="4" t="s">
         <v>362</v>
       </c>
@@ -11095,10 +11163,18 @@
       </c>
     </row>
     <row r="301" spans="2:17">
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
+      <c r="B301" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C301" s="4">
+        <v>0</v>
+      </c>
+      <c r="D301" s="4">
+        <v>0</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>837</v>
+      </c>
       <c r="H301" s="4" t="s">
         <v>604</v>
       </c>
@@ -11143,10 +11219,18 @@
       <c r="P302" s="4"/>
     </row>
     <row r="303" spans="2:17">
-      <c r="B303" s="4"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
+      <c r="B303" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C303" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D303" s="4">
+        <v>30</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>841</v>
+      </c>
       <c r="H303" s="4" t="s">
         <v>631</v>
       </c>
@@ -11233,17 +11317,17 @@
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
-      <c r="H308" s="9" t="s">
+      <c r="H308" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="I308" s="10"/>
-      <c r="J308" s="10"/>
-      <c r="K308" s="10"/>
-      <c r="L308" s="10"/>
-      <c r="M308" s="10"/>
-      <c r="N308" s="10"/>
-      <c r="O308" s="10"/>
-      <c r="P308" s="11"/>
+      <c r="I308" s="40"/>
+      <c r="J308" s="40"/>
+      <c r="K308" s="40"/>
+      <c r="L308" s="40"/>
+      <c r="M308" s="40"/>
+      <c r="N308" s="40"/>
+      <c r="O308" s="40"/>
+      <c r="P308" s="41"/>
       <c r="Q308" t="s">
         <v>17</v>
       </c>
@@ -11419,17 +11503,17 @@
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
-      <c r="H317" s="9" t="s">
+      <c r="H317" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="I317" s="10"/>
-      <c r="J317" s="10"/>
-      <c r="K317" s="10"/>
-      <c r="L317" s="10"/>
-      <c r="M317" s="10"/>
-      <c r="N317" s="10"/>
-      <c r="O317" s="10"/>
-      <c r="P317" s="11"/>
+      <c r="I317" s="40"/>
+      <c r="J317" s="40"/>
+      <c r="K317" s="40"/>
+      <c r="L317" s="40"/>
+      <c r="M317" s="40"/>
+      <c r="N317" s="40"/>
+      <c r="O317" s="40"/>
+      <c r="P317" s="41"/>
       <c r="Q317" t="s">
         <v>17</v>
       </c>
@@ -11597,17 +11681,17 @@
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
-      <c r="H326" s="9" t="s">
+      <c r="H326" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="I326" s="10"/>
-      <c r="J326" s="10"/>
-      <c r="K326" s="10"/>
-      <c r="L326" s="10"/>
-      <c r="M326" s="10"/>
-      <c r="N326" s="10"/>
-      <c r="O326" s="10"/>
-      <c r="P326" s="11"/>
+      <c r="I326" s="40"/>
+      <c r="J326" s="40"/>
+      <c r="K326" s="40"/>
+      <c r="L326" s="40"/>
+      <c r="M326" s="40"/>
+      <c r="N326" s="40"/>
+      <c r="O326" s="40"/>
+      <c r="P326" s="41"/>
       <c r="Q326" t="s">
         <v>17</v>
       </c>
@@ -11801,17 +11885,17 @@
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
-      <c r="H335" s="9" t="s">
+      <c r="H335" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="I335" s="10"/>
-      <c r="J335" s="10"/>
-      <c r="K335" s="10"/>
-      <c r="L335" s="10"/>
-      <c r="M335" s="10"/>
-      <c r="N335" s="10"/>
-      <c r="O335" s="10"/>
-      <c r="P335" s="11"/>
+      <c r="I335" s="40"/>
+      <c r="J335" s="40"/>
+      <c r="K335" s="40"/>
+      <c r="L335" s="40"/>
+      <c r="M335" s="40"/>
+      <c r="N335" s="40"/>
+      <c r="O335" s="40"/>
+      <c r="P335" s="41"/>
       <c r="Q335" t="s">
         <v>17</v>
       </c>
@@ -11911,17 +11995,17 @@
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
-      <c r="H341" s="9" t="s">
+      <c r="H341" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="I341" s="10"/>
-      <c r="J341" s="10"/>
-      <c r="K341" s="10"/>
-      <c r="L341" s="10"/>
-      <c r="M341" s="10"/>
-      <c r="N341" s="10"/>
-      <c r="O341" s="10"/>
-      <c r="P341" s="11"/>
+      <c r="I341" s="40"/>
+      <c r="J341" s="40"/>
+      <c r="K341" s="40"/>
+      <c r="L341" s="40"/>
+      <c r="M341" s="40"/>
+      <c r="N341" s="40"/>
+      <c r="O341" s="40"/>
+      <c r="P341" s="41"/>
       <c r="Q341" t="s">
         <v>17</v>
       </c>
@@ -12083,17 +12167,17 @@
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
-      <c r="H350" s="9" t="s">
+      <c r="H350" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="I350" s="10"/>
-      <c r="J350" s="10"/>
-      <c r="K350" s="10"/>
-      <c r="L350" s="10"/>
-      <c r="M350" s="10"/>
-      <c r="N350" s="10"/>
-      <c r="O350" s="10"/>
-      <c r="P350" s="11"/>
+      <c r="I350" s="40"/>
+      <c r="J350" s="40"/>
+      <c r="K350" s="40"/>
+      <c r="L350" s="40"/>
+      <c r="M350" s="40"/>
+      <c r="N350" s="40"/>
+      <c r="O350" s="40"/>
+      <c r="P350" s="41"/>
       <c r="Q350" t="s">
         <v>17</v>
       </c>
@@ -12259,17 +12343,17 @@
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
-      <c r="H360" s="9" t="s">
+      <c r="H360" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="I360" s="10"/>
-      <c r="J360" s="10"/>
-      <c r="K360" s="10"/>
-      <c r="L360" s="10"/>
-      <c r="M360" s="10"/>
-      <c r="N360" s="10"/>
-      <c r="O360" s="10"/>
-      <c r="P360" s="11"/>
+      <c r="I360" s="40"/>
+      <c r="J360" s="40"/>
+      <c r="K360" s="40"/>
+      <c r="L360" s="40"/>
+      <c r="M360" s="40"/>
+      <c r="N360" s="40"/>
+      <c r="O360" s="40"/>
+      <c r="P360" s="41"/>
       <c r="Q360" t="s">
         <v>17</v>
       </c>
@@ -12475,17 +12559,17 @@
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="H371" s="9" t="s">
+      <c r="H371" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="I371" s="10"/>
-      <c r="J371" s="10"/>
-      <c r="K371" s="10"/>
-      <c r="L371" s="10"/>
-      <c r="M371" s="10"/>
-      <c r="N371" s="10"/>
-      <c r="O371" s="10"/>
-      <c r="P371" s="11"/>
+      <c r="I371" s="40"/>
+      <c r="J371" s="40"/>
+      <c r="K371" s="40"/>
+      <c r="L371" s="40"/>
+      <c r="M371" s="40"/>
+      <c r="N371" s="40"/>
+      <c r="O371" s="40"/>
+      <c r="P371" s="41"/>
       <c r="Q371" t="s">
         <v>17</v>
       </c>
@@ -12639,17 +12723,17 @@
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
-      <c r="H380" s="9" t="s">
+      <c r="H380" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="I380" s="10"/>
-      <c r="J380" s="10"/>
-      <c r="K380" s="10"/>
-      <c r="L380" s="10"/>
-      <c r="M380" s="10"/>
-      <c r="N380" s="10"/>
-      <c r="O380" s="10"/>
-      <c r="P380" s="11"/>
+      <c r="I380" s="40"/>
+      <c r="J380" s="40"/>
+      <c r="K380" s="40"/>
+      <c r="L380" s="40"/>
+      <c r="M380" s="40"/>
+      <c r="N380" s="40"/>
+      <c r="O380" s="40"/>
+      <c r="P380" s="41"/>
       <c r="Q380" t="s">
         <v>17</v>
       </c>
@@ -12869,17 +12953,17 @@
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
-      <c r="H392" s="9" t="s">
+      <c r="H392" s="39" t="s">
         <v>743</v>
       </c>
-      <c r="I392" s="10"/>
-      <c r="J392" s="10"/>
-      <c r="K392" s="10"/>
-      <c r="L392" s="10"/>
-      <c r="M392" s="10"/>
-      <c r="N392" s="10"/>
-      <c r="O392" s="10"/>
-      <c r="P392" s="11"/>
+      <c r="I392" s="40"/>
+      <c r="J392" s="40"/>
+      <c r="K392" s="40"/>
+      <c r="L392" s="40"/>
+      <c r="M392" s="40"/>
+      <c r="N392" s="40"/>
+      <c r="O392" s="40"/>
+      <c r="P392" s="41"/>
       <c r="Q392" t="s">
         <v>17</v>
       </c>
@@ -13041,17 +13125,17 @@
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
-      <c r="H401" s="9" t="s">
+      <c r="H401" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="I401" s="10"/>
-      <c r="J401" s="10"/>
-      <c r="K401" s="10"/>
-      <c r="L401" s="10"/>
-      <c r="M401" s="10"/>
-      <c r="N401" s="10"/>
-      <c r="O401" s="10"/>
-      <c r="P401" s="11"/>
+      <c r="I401" s="40"/>
+      <c r="J401" s="40"/>
+      <c r="K401" s="40"/>
+      <c r="L401" s="40"/>
+      <c r="M401" s="40"/>
+      <c r="N401" s="40"/>
+      <c r="O401" s="40"/>
+      <c r="P401" s="41"/>
       <c r="Q401" t="s">
         <v>746</v>
       </c>
@@ -13104,7 +13188,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="404" spans="2:17" ht="15" thickBot="1">
+    <row r="404" spans="2:17">
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -13113,117 +13197,119 @@
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="L404" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="M404" s="4"/>
-      <c r="N404" s="4">
-        <v>6</v>
-      </c>
-      <c r="O404" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P404" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="M404" s="5">
+        <v>50</v>
+      </c>
+      <c r="N404" s="4"/>
+      <c r="O404" s="4"/>
+      <c r="P404" s="4" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="405" spans="2:17" ht="15" thickBot="1">
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
-      <c r="H405" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="I405" s="10"/>
-      <c r="J405" s="10"/>
-      <c r="K405" s="10"/>
-      <c r="L405" s="10"/>
-      <c r="M405" s="10"/>
-      <c r="N405" s="10"/>
-      <c r="O405" s="10"/>
-      <c r="P405" s="11"/>
-      <c r="Q405" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="406" spans="2:17">
+      <c r="H405" s="4"/>
+      <c r="I405" s="4"/>
+      <c r="J405" s="4"/>
+      <c r="L405" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="M405" s="4"/>
+      <c r="N405" s="4">
+        <v>6</v>
+      </c>
+      <c r="O405" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P405" s="4"/>
+    </row>
+    <row r="406" spans="2:17" ht="15" thickBot="1">
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
-      <c r="H406" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I406" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="J406" s="4"/>
-      <c r="L406" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="M406" s="4"/>
-      <c r="N406" s="4">
-        <v>2</v>
-      </c>
-      <c r="O406" s="4"/>
-      <c r="P406" s="4" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="407" spans="2:17" ht="15" thickBot="1">
+      <c r="H406" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="I406" s="40"/>
+      <c r="J406" s="40"/>
+      <c r="K406" s="40"/>
+      <c r="L406" s="40"/>
+      <c r="M406" s="40"/>
+      <c r="N406" s="40"/>
+      <c r="O406" s="40"/>
+      <c r="P406" s="41"/>
+      <c r="Q406" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="407" spans="2:17">
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
-      <c r="H407" s="4"/>
-      <c r="I407" s="4"/>
+      <c r="H407" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I407" s="4" t="s">
+        <v>752</v>
+      </c>
       <c r="J407" s="4"/>
-      <c r="L407" s="4"/>
+      <c r="L407" s="4" t="s">
+        <v>753</v>
+      </c>
       <c r="M407" s="4"/>
-      <c r="N407" s="4"/>
+      <c r="N407" s="4">
+        <v>2</v>
+      </c>
       <c r="O407" s="4"/>
-      <c r="P407" s="4"/>
+      <c r="P407" s="4" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="408" spans="2:17" ht="15" thickBot="1">
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
-      <c r="H408" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="I408" s="10"/>
-      <c r="J408" s="10"/>
-      <c r="K408" s="10"/>
-      <c r="L408" s="10"/>
-      <c r="M408" s="10"/>
-      <c r="N408" s="10"/>
-      <c r="O408" s="10"/>
-      <c r="P408" s="11"/>
-      <c r="Q408" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="409" spans="2:17">
+      <c r="H408" s="4"/>
+      <c r="I408" s="4"/>
+      <c r="J408" s="4"/>
+      <c r="L408" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M408" s="5">
+        <v>100</v>
+      </c>
+      <c r="N408" s="4"/>
+      <c r="O408" s="4"/>
+      <c r="P408" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="409" spans="2:17" ht="15" thickBot="1">
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
-      <c r="H409" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I409" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="J409" s="4"/>
-      <c r="L409" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M409" s="4"/>
-      <c r="N409" s="4">
-        <v>2</v>
-      </c>
-      <c r="O409" s="4"/>
-      <c r="P409" s="4" t="s">
-        <v>570</v>
+      <c r="H409" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="I409" s="40"/>
+      <c r="J409" s="40"/>
+      <c r="K409" s="40"/>
+      <c r="L409" s="40"/>
+      <c r="M409" s="40"/>
+      <c r="N409" s="40"/>
+      <c r="O409" s="40"/>
+      <c r="P409" s="41"/>
+      <c r="Q409" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="410" spans="2:17">
@@ -13232,22 +13318,22 @@
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="H410" s="4" t="s">
-        <v>757</v>
+        <v>63</v>
       </c>
       <c r="I410" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J410" s="4"/>
       <c r="L410" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="M410" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="N410" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="M410" s="4"/>
+      <c r="N410" s="4">
+        <v>2</v>
+      </c>
       <c r="O410" s="4"/>
       <c r="P410" s="4" t="s">
-        <v>419</v>
+        <v>570</v>
       </c>
     </row>
     <row r="411" spans="2:17">
@@ -13255,16 +13341,26 @@
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
-      <c r="H411" s="4"/>
-      <c r="I411" s="4"/>
+      <c r="H411" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="I411" s="4" t="s">
+        <v>758</v>
+      </c>
       <c r="J411" s="4"/>
-      <c r="L411" s="4"/>
-      <c r="M411" s="4"/>
+      <c r="L411" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="M411" s="4">
+        <v>0.08</v>
+      </c>
       <c r="N411" s="4"/>
       <c r="O411" s="4"/>
-      <c r="P411" s="4"/>
-    </row>
-    <row r="412" spans="2:17" ht="15" thickBot="1">
+      <c r="P411" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="412" spans="2:17">
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -13272,8 +13368,12 @@
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="L412" s="4"/>
-      <c r="M412" s="4"/>
+      <c r="L412" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M412" s="4">
+        <v>20</v>
+      </c>
       <c r="N412" s="4"/>
       <c r="O412" s="4"/>
       <c r="P412" s="4"/>
@@ -13283,44 +13383,34 @@
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
-      <c r="H413" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="I413" s="10"/>
-      <c r="J413" s="10"/>
-      <c r="K413" s="10"/>
-      <c r="L413" s="10"/>
-      <c r="M413" s="10"/>
-      <c r="N413" s="10"/>
-      <c r="O413" s="10"/>
-      <c r="P413" s="11"/>
-      <c r="Q413" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="414" spans="2:17">
+      <c r="H413" s="4"/>
+      <c r="I413" s="4"/>
+      <c r="J413" s="4"/>
+      <c r="L413" s="4"/>
+      <c r="M413" s="4"/>
+      <c r="N413" s="4"/>
+      <c r="O413" s="4"/>
+      <c r="P413" s="4"/>
+    </row>
+    <row r="414" spans="2:17" ht="15" thickBot="1">
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
-      <c r="H414" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I414" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="J414" s="4"/>
-      <c r="L414" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="M414" s="4"/>
-      <c r="N414" s="4">
-        <v>1</v>
-      </c>
-      <c r="O414" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P414" s="4"/>
+      <c r="H414" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="I414" s="40"/>
+      <c r="J414" s="40"/>
+      <c r="K414" s="40"/>
+      <c r="L414" s="40"/>
+      <c r="M414" s="40"/>
+      <c r="N414" s="40"/>
+      <c r="O414" s="40"/>
+      <c r="P414" s="41"/>
+      <c r="Q414" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="415" spans="2:17">
       <c r="B415" s="4"/>
@@ -13328,19 +13418,21 @@
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="H415" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I415" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="I415" s="4" t="s">
+        <v>761</v>
+      </c>
       <c r="J415" s="4"/>
       <c r="L415" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M415" s="4"/>
       <c r="N415" s="4">
         <v>1</v>
       </c>
       <c r="O415" s="4" t="s">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="P415" s="4"/>
     </row>
@@ -13349,18 +13441,20 @@
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
-      <c r="H416" s="4"/>
+      <c r="H416" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
       <c r="L416" s="4" t="s">
-        <v>109</v>
+        <v>763</v>
       </c>
       <c r="M416" s="4"/>
       <c r="N416" s="4">
         <v>1</v>
       </c>
       <c r="O416" s="4" t="s">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="P416" s="4"/>
     </row>
@@ -13372,10 +13466,16 @@
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="L417" s="4"/>
+      <c r="L417" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="M417" s="4"/>
-      <c r="N417" s="4"/>
-      <c r="O417" s="4"/>
+      <c r="N417" s="4">
+        <v>1</v>
+      </c>
+      <c r="O417" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="P417" s="4"/>
     </row>
     <row r="418" spans="2:17">
@@ -13400,16 +13500,10 @@
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="L419" s="4" t="s">
-        <v>764</v>
-      </c>
+      <c r="L419" s="4"/>
       <c r="M419" s="4"/>
-      <c r="N419" s="4">
-        <v>5</v>
-      </c>
-      <c r="O419" s="4" t="s">
-        <v>315</v>
-      </c>
+      <c r="N419" s="4"/>
+      <c r="O419" s="4"/>
       <c r="P419" s="4"/>
     </row>
     <row r="420" spans="2:17">
@@ -13421,11 +13515,11 @@
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="L420" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M420" s="4"/>
       <c r="N420" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O420" s="4" t="s">
         <v>315</v>
@@ -13441,7 +13535,7 @@
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="L421" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M421" s="4"/>
       <c r="N421" s="4">
@@ -13452,7 +13546,7 @@
       </c>
       <c r="P421" s="4"/>
     </row>
-    <row r="422" spans="2:17" ht="15" thickBot="1">
+    <row r="422" spans="2:17">
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -13460,10 +13554,16 @@
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="L422" s="4"/>
+      <c r="L422" s="4" t="s">
+        <v>766</v>
+      </c>
       <c r="M422" s="4"/>
-      <c r="N422" s="4"/>
-      <c r="O422" s="4"/>
+      <c r="N422" s="4">
+        <v>1</v>
+      </c>
+      <c r="O422" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="P422" s="4"/>
     </row>
     <row r="423" spans="2:17" ht="15" thickBot="1">
@@ -13471,45 +13571,33 @@
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
-      <c r="H423" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="I423" s="10"/>
-      <c r="J423" s="10"/>
-      <c r="K423" s="10"/>
-      <c r="L423" s="10"/>
-      <c r="M423" s="10"/>
-      <c r="N423" s="10"/>
-      <c r="O423" s="10"/>
-      <c r="P423" s="11"/>
-      <c r="Q423" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="424" spans="2:17">
+      <c r="H423" s="4"/>
+      <c r="I423" s="4"/>
+      <c r="J423" s="4"/>
+      <c r="L423" s="4"/>
+      <c r="M423" s="4"/>
+      <c r="N423" s="4"/>
+      <c r="O423" s="4"/>
+      <c r="P423" s="4"/>
+    </row>
+    <row r="424" spans="2:17" ht="15" thickBot="1">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
-      <c r="H424" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I424" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="J424" s="4"/>
-      <c r="L424" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="M424" s="4"/>
-      <c r="N424" s="4">
-        <v>5</v>
-      </c>
-      <c r="O424" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P424" s="4" t="s">
-        <v>770</v>
+      <c r="H424" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="I424" s="40"/>
+      <c r="J424" s="40"/>
+      <c r="K424" s="40"/>
+      <c r="L424" s="40"/>
+      <c r="M424" s="40"/>
+      <c r="N424" s="40"/>
+      <c r="O424" s="40"/>
+      <c r="P424" s="41"/>
+      <c r="Q424" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="425" spans="2:17">
@@ -13518,84 +13606,88 @@
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="H425" s="4" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I425" s="4" t="s">
-        <v>114</v>
+        <v>768</v>
       </c>
       <c r="J425" s="4"/>
       <c r="L425" s="4" t="s">
-        <v>106</v>
+        <v>769</v>
       </c>
       <c r="M425" s="4"/>
       <c r="N425" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O425" s="4" t="s">
         <v>80</v>
       </c>
       <c r="P425" s="4" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="426" spans="2:17" ht="15" thickBot="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="426" spans="2:17">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
-      <c r="H426" s="4"/>
-      <c r="I426" s="4"/>
+      <c r="H426" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I426" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="J426" s="4"/>
-      <c r="L426" s="4"/>
+      <c r="L426" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M426" s="4"/>
-      <c r="N426" s="4"/>
-      <c r="O426" s="4"/>
-      <c r="P426" s="4"/>
+      <c r="N426" s="4">
+        <v>6</v>
+      </c>
+      <c r="O426" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P426" s="4" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="427" spans="2:17" ht="15" thickBot="1">
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
-      <c r="H427" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="I427" s="10"/>
-      <c r="J427" s="10"/>
-      <c r="K427" s="10"/>
-      <c r="L427" s="10"/>
-      <c r="M427" s="10"/>
-      <c r="N427" s="10"/>
-      <c r="O427" s="10"/>
-      <c r="P427" s="11"/>
-      <c r="Q427" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="428" spans="2:17">
+      <c r="H427" s="4"/>
+      <c r="I427" s="4"/>
+      <c r="J427" s="4"/>
+      <c r="L427" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M427" s="4">
+        <v>15</v>
+      </c>
+      <c r="N427" s="4"/>
+      <c r="O427" s="4"/>
+      <c r="P427" s="4"/>
+    </row>
+    <row r="428" spans="2:17" ht="15" thickBot="1">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
-      <c r="H428" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I428" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="J428" s="4"/>
-      <c r="L428" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="M428" s="4"/>
-      <c r="N428" s="4">
-        <v>5</v>
-      </c>
-      <c r="O428" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P428" s="4" t="s">
-        <v>770</v>
+      <c r="H428" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="I428" s="40"/>
+      <c r="J428" s="40"/>
+      <c r="K428" s="40"/>
+      <c r="L428" s="40"/>
+      <c r="M428" s="40"/>
+      <c r="N428" s="40"/>
+      <c r="O428" s="40"/>
+      <c r="P428" s="41"/>
+      <c r="Q428" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="2:17">
@@ -13604,81 +13696,89 @@
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="H429" s="4" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I429" s="4" t="s">
-        <v>114</v>
+        <v>768</v>
       </c>
       <c r="J429" s="4"/>
       <c r="L429" s="4" t="s">
-        <v>106</v>
+        <v>769</v>
       </c>
       <c r="M429" s="4"/>
       <c r="N429" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O429" s="4" t="s">
         <v>80</v>
       </c>
       <c r="P429" s="4" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="430" spans="2:17" ht="15" thickBot="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="430" spans="2:17">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
-      <c r="H430" s="4"/>
-      <c r="I430" s="4"/>
+      <c r="H430" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I430" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="J430" s="4"/>
-      <c r="L430" s="4"/>
+      <c r="L430" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M430" s="4"/>
-      <c r="N430" s="4"/>
-      <c r="O430" s="4"/>
-      <c r="P430" s="4"/>
+      <c r="N430" s="4">
+        <v>6</v>
+      </c>
+      <c r="O430" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P430" s="4" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="431" spans="2:17" ht="15" thickBot="1">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
-      <c r="H431" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="I431" s="10"/>
-      <c r="J431" s="10"/>
-      <c r="K431" s="10"/>
-      <c r="L431" s="10"/>
-      <c r="M431" s="10"/>
-      <c r="N431" s="10"/>
-      <c r="O431" s="10"/>
-      <c r="P431" s="11"/>
-      <c r="Q431" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="432" spans="2:17">
+      <c r="H431" s="4"/>
+      <c r="I431" s="4"/>
+      <c r="J431" s="4"/>
+      <c r="L431" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M431" s="4">
+        <v>15</v>
+      </c>
+      <c r="N431" s="4"/>
+      <c r="O431" s="4"/>
+      <c r="P431" s="4"/>
+    </row>
+    <row r="432" spans="2:17" ht="15" thickBot="1">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
-      <c r="H432" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I432" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="J432" s="4"/>
-      <c r="L432" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="M432" s="4"/>
-      <c r="N432" s="4"/>
-      <c r="O432" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="P432" s="4"/>
+      <c r="H432" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="I432" s="40"/>
+      <c r="J432" s="40"/>
+      <c r="K432" s="40"/>
+      <c r="L432" s="40"/>
+      <c r="M432" s="40"/>
+      <c r="N432" s="40"/>
+      <c r="O432" s="40"/>
+      <c r="P432" s="41"/>
+      <c r="Q432" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="433" spans="2:17">
       <c r="B433" s="4"/>
@@ -13686,213 +13786,231 @@
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="H433" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="I433" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="I433" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="J433" s="4"/>
       <c r="L433" s="4" t="s">
-        <v>106</v>
+        <v>775</v>
       </c>
       <c r="M433" s="4"/>
-      <c r="N433" s="4">
-        <v>6</v>
-      </c>
+      <c r="N433" s="4"/>
       <c r="O433" s="4" t="s">
-        <v>80</v>
+        <v>776</v>
       </c>
       <c r="P433" s="4"/>
     </row>
-    <row r="434" spans="2:17" ht="15" thickBot="1">
+    <row r="434" spans="2:17">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
-      <c r="H434" s="4"/>
+      <c r="H434" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="L434" s="4"/>
+      <c r="L434" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="M434" s="4"/>
-      <c r="N434" s="4"/>
-      <c r="O434" s="4"/>
+      <c r="N434" s="4">
+        <v>6</v>
+      </c>
+      <c r="O434" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="P434" s="4"/>
     </row>
-    <row r="435" spans="2:17" ht="15" thickBot="1">
+    <row r="435" spans="2:17">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
-      <c r="H435" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="I435" s="10"/>
-      <c r="J435" s="10"/>
-      <c r="K435" s="10"/>
-      <c r="L435" s="10"/>
-      <c r="M435" s="10"/>
-      <c r="N435" s="10"/>
-      <c r="O435" s="10"/>
-      <c r="P435" s="11"/>
-      <c r="Q435" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="436" spans="2:17">
+      <c r="H435" s="4"/>
+      <c r="I435" s="4"/>
+      <c r="J435" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="L435" s="4"/>
+      <c r="M435" s="4"/>
+      <c r="N435" s="4"/>
+      <c r="O435" s="4"/>
+      <c r="P435" s="4"/>
+    </row>
+    <row r="436" spans="2:17" ht="15" thickBot="1">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
-      <c r="H436" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I436" s="4" t="s">
-        <v>778</v>
-      </c>
+      <c r="H436" s="4"/>
+      <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="L436" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="M436" s="4"/>
-      <c r="N436" s="4">
-        <v>5</v>
-      </c>
-      <c r="O436" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M436" s="4">
+        <v>30</v>
+      </c>
+      <c r="N436" s="4"/>
+      <c r="O436" s="4"/>
       <c r="P436" s="4"/>
     </row>
-    <row r="437" spans="2:17">
+    <row r="437" spans="2:17" ht="15" thickBot="1">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
-      <c r="H437" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I437" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="J437" s="4"/>
-      <c r="L437" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M437" s="4"/>
-      <c r="N437" s="4">
-        <v>5</v>
-      </c>
-      <c r="O437" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P437" s="4"/>
+      <c r="H437" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="I437" s="40"/>
+      <c r="J437" s="40"/>
+      <c r="K437" s="40"/>
+      <c r="L437" s="40"/>
+      <c r="M437" s="40"/>
+      <c r="N437" s="40"/>
+      <c r="O437" s="40"/>
+      <c r="P437" s="41"/>
+      <c r="Q437" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="438" spans="2:17">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
-      <c r="H438" s="4"/>
-      <c r="I438" s="4"/>
+      <c r="H438" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I438" s="4" t="s">
+        <v>778</v>
+      </c>
       <c r="J438" s="4"/>
       <c r="L438" s="4" t="s">
-        <v>106</v>
+        <v>769</v>
       </c>
       <c r="M438" s="4"/>
       <c r="N438" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O438" s="4" t="s">
         <v>80</v>
       </c>
       <c r="P438" s="4"/>
     </row>
-    <row r="439" spans="2:17" ht="15" thickBot="1">
+    <row r="439" spans="2:17">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
-      <c r="H439" s="4"/>
-      <c r="I439" s="4"/>
+      <c r="H439" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I439" s="4" t="s">
+        <v>774</v>
+      </c>
       <c r="J439" s="4"/>
-      <c r="L439" s="4"/>
+      <c r="L439" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="M439" s="4"/>
-      <c r="N439" s="4"/>
-      <c r="O439" s="4"/>
+      <c r="N439" s="4">
+        <v>5</v>
+      </c>
+      <c r="O439" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="P439" s="4"/>
     </row>
-    <row r="440" spans="2:17" ht="15" thickBot="1">
+    <row r="440" spans="2:17">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
-      <c r="H440" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="I440" s="10"/>
-      <c r="J440" s="10"/>
-      <c r="K440" s="10"/>
-      <c r="L440" s="10"/>
-      <c r="M440" s="10"/>
-      <c r="N440" s="10"/>
-      <c r="O440" s="10"/>
-      <c r="P440" s="11"/>
-      <c r="Q440" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="441" spans="2:17">
+      <c r="H440" s="4"/>
+      <c r="I440" s="4"/>
+      <c r="J440" s="4"/>
+      <c r="L440" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M440" s="4"/>
+      <c r="N440" s="4">
+        <v>6</v>
+      </c>
+      <c r="O440" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P440" s="4"/>
+    </row>
+    <row r="441" spans="2:17" ht="15" thickBot="1">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
-      <c r="H441" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I441" s="4" t="s">
-        <v>542</v>
-      </c>
+      <c r="H441" s="4"/>
+      <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="L441" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M441" s="4"/>
-      <c r="N441" s="4">
-        <v>5</v>
-      </c>
-      <c r="O441" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P441" s="4" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="442" spans="2:17">
+        <v>109</v>
+      </c>
+      <c r="M441" s="5">
+        <v>90</v>
+      </c>
+      <c r="N441" s="4"/>
+      <c r="O441" s="4"/>
+      <c r="P441" s="4"/>
+    </row>
+    <row r="442" spans="2:17" ht="15" thickBot="1">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
-      <c r="H442" s="4"/>
-      <c r="I442" s="4"/>
-      <c r="J442" s="4"/>
-      <c r="L442" s="4"/>
-      <c r="M442" s="4"/>
-      <c r="N442" s="4"/>
-      <c r="O442" s="4"/>
-      <c r="P442" s="4"/>
+      <c r="H442" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="I442" s="40"/>
+      <c r="J442" s="40"/>
+      <c r="K442" s="40"/>
+      <c r="L442" s="40"/>
+      <c r="M442" s="40"/>
+      <c r="N442" s="40"/>
+      <c r="O442" s="40"/>
+      <c r="P442" s="41"/>
+      <c r="Q442" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="443" spans="2:17">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
-      <c r="H443" s="4"/>
-      <c r="I443" s="4"/>
+      <c r="H443" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I443" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="J443" s="4"/>
-      <c r="L443" s="4"/>
+      <c r="L443" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="M443" s="4"/>
-      <c r="N443" s="4"/>
-      <c r="O443" s="4"/>
-      <c r="P443" s="4"/>
-    </row>
-    <row r="444" spans="2:17" ht="15" thickBot="1">
+      <c r="N443" s="4">
+        <v>5</v>
+      </c>
+      <c r="O443" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P443" s="4" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="444" spans="2:17">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -13900,76 +14018,62 @@
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="L444" s="4"/>
-      <c r="M444" s="4"/>
+      <c r="L444" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M444" s="5">
+        <v>80</v>
+      </c>
       <c r="N444" s="4"/>
       <c r="O444" s="4"/>
       <c r="P444" s="4"/>
     </row>
-    <row r="445" spans="2:17" ht="15" thickBot="1">
+    <row r="445" spans="2:17">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
-      <c r="H445" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="I445" s="10"/>
-      <c r="J445" s="10"/>
-      <c r="K445" s="10"/>
-      <c r="L445" s="10"/>
-      <c r="M445" s="10"/>
-      <c r="N445" s="10"/>
-      <c r="O445" s="10"/>
-      <c r="P445" s="11"/>
-      <c r="Q445" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="446" spans="2:17">
+      <c r="H445" s="4"/>
+      <c r="I445" s="4"/>
+      <c r="J445" s="4"/>
+      <c r="L445" s="4"/>
+      <c r="M445" s="4"/>
+      <c r="N445" s="4"/>
+      <c r="O445" s="4"/>
+      <c r="P445" s="4"/>
+    </row>
+    <row r="446" spans="2:17" ht="15" thickBot="1">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
-      <c r="H446" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I446" s="4" t="s">
-        <v>782</v>
-      </c>
+      <c r="H446" s="4"/>
+      <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="L446" s="4" t="s">
-        <v>763</v>
-      </c>
+      <c r="L446" s="4"/>
       <c r="M446" s="4"/>
-      <c r="N446" s="4">
-        <v>1</v>
-      </c>
+      <c r="N446" s="4"/>
       <c r="O446" s="4"/>
       <c r="P446" s="4"/>
     </row>
-    <row r="447" spans="2:17">
+    <row r="447" spans="2:17" ht="15" thickBot="1">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
-      <c r="H447" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I447" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="J447" s="4"/>
-      <c r="L447" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="M447" s="4"/>
-      <c r="N447" s="4">
-        <v>1</v>
-      </c>
-      <c r="O447" s="4"/>
-      <c r="P447" s="4" t="s">
-        <v>785</v>
+      <c r="H447" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="I447" s="40"/>
+      <c r="J447" s="40"/>
+      <c r="K447" s="40"/>
+      <c r="L447" s="40"/>
+      <c r="M447" s="40"/>
+      <c r="N447" s="40"/>
+      <c r="O447" s="40"/>
+      <c r="P447" s="41"/>
+      <c r="Q447" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="448" spans="2:17">
@@ -13977,38 +14081,48 @@
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="H448" s="4"/>
-      <c r="I448" s="4"/>
+      <c r="H448" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I448" s="4" t="s">
+        <v>782</v>
+      </c>
       <c r="J448" s="4"/>
       <c r="L448" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="M448" s="4">
+        <v>763</v>
+      </c>
+      <c r="M448" s="4"/>
+      <c r="N448" s="4">
         <v>1</v>
       </c>
-      <c r="N448" s="4"/>
-      <c r="O448" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="P448" s="4" t="s">
-        <v>788</v>
-      </c>
+      <c r="O448" s="4"/>
+      <c r="P448" s="4"/>
     </row>
     <row r="449" spans="2:17">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
-      <c r="H449" s="4"/>
-      <c r="I449" s="4"/>
+      <c r="H449" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I449" s="4" t="s">
+        <v>783</v>
+      </c>
       <c r="J449" s="4"/>
-      <c r="L449" s="4"/>
+      <c r="L449" s="4" t="s">
+        <v>784</v>
+      </c>
       <c r="M449" s="4"/>
-      <c r="N449" s="4"/>
+      <c r="N449" s="4">
+        <v>1</v>
+      </c>
       <c r="O449" s="4"/>
-      <c r="P449" s="4"/>
-    </row>
-    <row r="450" spans="2:17" ht="15" thickBot="1">
+      <c r="P449" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="450" spans="2:17">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -14016,40 +14130,44 @@
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="L450" s="4"/>
-      <c r="M450" s="4"/>
+      <c r="L450" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="M450" s="4">
+        <v>1</v>
+      </c>
       <c r="N450" s="4"/>
-      <c r="O450" s="4"/>
-      <c r="P450" s="4"/>
-    </row>
-    <row r="451" spans="2:17" ht="15" thickBot="1">
+      <c r="O450" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="P450" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="451" spans="2:17">
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
-      <c r="H451" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="I451" s="10"/>
-      <c r="J451" s="10"/>
-      <c r="K451" s="10"/>
-      <c r="L451" s="10"/>
-      <c r="M451" s="10"/>
-      <c r="N451" s="10"/>
-      <c r="O451" s="10"/>
-      <c r="P451" s="11"/>
-      <c r="Q451" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="452" spans="2:17">
+      <c r="H451" s="4"/>
+      <c r="I451" s="4"/>
+      <c r="J451" s="4"/>
+      <c r="L451" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M451" s="5">
+        <v>30</v>
+      </c>
+      <c r="N451" s="4"/>
+      <c r="O451" s="4"/>
+      <c r="P451" s="4"/>
+    </row>
+    <row r="452" spans="2:17" ht="15" thickBot="1">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
-      <c r="H452" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="L452" s="4"/>
@@ -14058,28 +14176,34 @@
       <c r="O452" s="4"/>
       <c r="P452" s="4"/>
     </row>
-    <row r="453" spans="2:17">
+    <row r="453" spans="2:17" ht="15" thickBot="1">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
-      <c r="H453" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="I453" s="4"/>
-      <c r="J453" s="4"/>
-      <c r="L453" s="4"/>
-      <c r="M453" s="4"/>
-      <c r="N453" s="4"/>
-      <c r="O453" s="4"/>
-      <c r="P453" s="4"/>
-    </row>
-    <row r="454" spans="2:17" ht="15" thickBot="1">
+      <c r="H453" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="I453" s="40"/>
+      <c r="J453" s="40"/>
+      <c r="K453" s="40"/>
+      <c r="L453" s="40"/>
+      <c r="M453" s="40"/>
+      <c r="N453" s="40"/>
+      <c r="O453" s="40"/>
+      <c r="P453" s="41"/>
+      <c r="Q453" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="454" spans="2:17">
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
-      <c r="H454" s="4"/>
+      <c r="H454" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="L454" s="4"/>
@@ -14088,63 +14212,55 @@
       <c r="O454" s="4"/>
       <c r="P454" s="4"/>
     </row>
-    <row r="455" spans="2:17" ht="15" thickBot="1">
+    <row r="455" spans="2:17">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-      <c r="H455" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="I455" s="10"/>
-      <c r="J455" s="10"/>
-      <c r="K455" s="10"/>
-      <c r="L455" s="10"/>
-      <c r="M455" s="10"/>
-      <c r="N455" s="10"/>
-      <c r="O455" s="10"/>
-      <c r="P455" s="11"/>
-      <c r="Q455" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="456" spans="2:17">
+      <c r="H455" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="I455" s="4"/>
+      <c r="J455" s="4"/>
+      <c r="L455" s="4"/>
+      <c r="M455" s="4"/>
+      <c r="N455" s="4"/>
+      <c r="O455" s="4"/>
+      <c r="P455" s="4"/>
+    </row>
+    <row r="456" spans="2:17" ht="15" thickBot="1">
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
-      <c r="H456" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="L456" s="4" t="s">
-        <v>791</v>
-      </c>
+      <c r="L456" s="4"/>
       <c r="M456" s="4"/>
-      <c r="N456" s="4">
-        <v>1</v>
-      </c>
-      <c r="O456" s="4" t="s">
-        <v>315</v>
-      </c>
+      <c r="N456" s="4"/>
+      <c r="O456" s="4"/>
       <c r="P456" s="4"/>
     </row>
-    <row r="457" spans="2:17">
+    <row r="457" spans="2:17" ht="15" thickBot="1">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
-      <c r="H457" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="I457" s="4"/>
-      <c r="J457" s="4"/>
-      <c r="L457" s="4"/>
-      <c r="M457" s="4"/>
-      <c r="N457" s="4"/>
-      <c r="O457" s="4"/>
-      <c r="P457" s="4"/>
+      <c r="H457" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="I457" s="40"/>
+      <c r="J457" s="40"/>
+      <c r="K457" s="40"/>
+      <c r="L457" s="40"/>
+      <c r="M457" s="40"/>
+      <c r="N457" s="40"/>
+      <c r="O457" s="40"/>
+      <c r="P457" s="41"/>
+      <c r="Q457" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="458" spans="2:17">
       <c r="B458" s="4"/>
@@ -14152,50 +14268,68 @@
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="H458" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I458" s="4" t="s">
-        <v>792</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="L458" s="4"/>
+      <c r="L458" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="M458" s="4"/>
-      <c r="N458" s="4"/>
-      <c r="O458" s="4"/>
+      <c r="N458" s="4">
+        <v>1</v>
+      </c>
+      <c r="O458" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="P458" s="4"/>
     </row>
-    <row r="459" spans="2:17" ht="15" thickBot="1">
+    <row r="459" spans="2:17">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
-      <c r="H459" s="4"/>
+      <c r="H459" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="L459" s="4"/>
+      <c r="L459" s="4" t="s">
+        <v>845</v>
+      </c>
       <c r="M459" s="4"/>
-      <c r="N459" s="4"/>
-      <c r="O459" s="4"/>
+      <c r="N459" s="4">
+        <v>3</v>
+      </c>
+      <c r="O459" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="P459" s="4"/>
     </row>
-    <row r="460" spans="2:17" ht="15" thickBot="1">
+    <row r="460" spans="2:17">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
-      <c r="H460" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="I460" s="10"/>
-      <c r="J460" s="10"/>
-      <c r="K460" s="10"/>
-      <c r="L460" s="10"/>
-      <c r="M460" s="10"/>
-      <c r="N460" s="10"/>
-      <c r="O460" s="10"/>
-      <c r="P460" s="11"/>
-      <c r="Q460" t="s">
-        <v>746</v>
+      <c r="H460" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I460" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="J460" s="4"/>
+      <c r="L460" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="M460" s="4"/>
+      <c r="N460" s="4">
+        <v>1</v>
+      </c>
+      <c r="O460" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P460" s="4" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="461" spans="2:17">
@@ -14204,21 +14338,25 @@
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="H461" s="4" t="s">
-        <v>63</v>
+        <v>401</v>
       </c>
       <c r="I461" s="4" t="s">
-        <v>794</v>
+        <v>848</v>
       </c>
       <c r="J461" s="4"/>
       <c r="L461" s="4" t="s">
-        <v>79</v>
+        <v>849</v>
       </c>
       <c r="M461" s="4"/>
       <c r="N461" s="4">
-        <v>1</v>
-      </c>
-      <c r="O461" s="4"/>
-      <c r="P461" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="O461" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P461" s="4" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="462" spans="2:17">
       <c r="B462" s="4"/>
@@ -14226,10 +14364,10 @@
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="H462" s="4" t="s">
-        <v>113</v>
+        <v>405</v>
       </c>
       <c r="I462" s="4" t="s">
-        <v>795</v>
+        <v>851</v>
       </c>
       <c r="J462" s="4"/>
       <c r="L462" s="4"/>
@@ -14243,17 +14381,11 @@
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
-      <c r="H463" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="H463" s="4"/>
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
-      <c r="L463" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="M463" s="4">
-        <v>1</v>
-      </c>
+      <c r="L463" s="4"/>
+      <c r="M463" s="4"/>
       <c r="N463" s="4"/>
       <c r="O463" s="4"/>
       <c r="P463" s="4"/>
@@ -14263,22 +14395,22 @@
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
-      <c r="H464" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="I464" s="10"/>
-      <c r="J464" s="10"/>
-      <c r="K464" s="10"/>
-      <c r="L464" s="10"/>
-      <c r="M464" s="10"/>
-      <c r="N464" s="10"/>
-      <c r="O464" s="10"/>
-      <c r="P464" s="11"/>
+      <c r="H464" s="39" t="s">
+        <v>793</v>
+      </c>
+      <c r="I464" s="40"/>
+      <c r="J464" s="40"/>
+      <c r="K464" s="40"/>
+      <c r="L464" s="40"/>
+      <c r="M464" s="40"/>
+      <c r="N464" s="40"/>
+      <c r="O464" s="40"/>
+      <c r="P464" s="41"/>
       <c r="Q464" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="465" spans="2:16">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="465" spans="2:17">
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -14287,102 +14419,108 @@
         <v>63</v>
       </c>
       <c r="I465" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="J465" s="4"/>
+        <v>852</v>
+      </c>
+      <c r="J465" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="L465" s="4" t="s">
-        <v>798</v>
+        <v>79</v>
       </c>
       <c r="M465" s="4"/>
       <c r="N465" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O465" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P465" s="4" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="466" spans="2:16">
+      <c r="P465" s="4"/>
+    </row>
+    <row r="466" spans="2:17">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
-      <c r="H466" s="4"/>
-      <c r="I466" s="4"/>
+      <c r="H466" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I466" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="J466" s="4"/>
-      <c r="L466" s="4" t="s">
-        <v>800</v>
-      </c>
+      <c r="L466" s="4"/>
       <c r="M466" s="4"/>
-      <c r="N466" s="4">
-        <v>5</v>
-      </c>
+      <c r="N466" s="4"/>
       <c r="O466" s="4"/>
-      <c r="P466" s="4" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="467" spans="2:16">
+      <c r="P466" s="4"/>
+    </row>
+    <row r="467" spans="2:17" ht="15" thickBot="1">
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
-      <c r="H467" s="4"/>
+      <c r="H467" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
       <c r="L467" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="M467" s="4"/>
-      <c r="N467" s="4">
-        <v>5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M467" s="4">
+        <v>50</v>
+      </c>
+      <c r="N467" s="4"/>
       <c r="O467" s="4"/>
-      <c r="P467" s="4" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="468" spans="2:16">
+      <c r="P467" s="4"/>
+    </row>
+    <row r="468" spans="2:17" ht="15" thickBot="1">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
-      <c r="H468" s="4"/>
-      <c r="I468" s="4"/>
-      <c r="J468" s="4"/>
-      <c r="L468" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="M468" s="4"/>
-      <c r="N468" s="4">
-        <v>5</v>
-      </c>
-      <c r="O468" s="4"/>
-      <c r="P468" s="4" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="469" spans="2:16">
+      <c r="H468" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="I468" s="40"/>
+      <c r="J468" s="40"/>
+      <c r="K468" s="40"/>
+      <c r="L468" s="40"/>
+      <c r="M468" s="40"/>
+      <c r="N468" s="40"/>
+      <c r="O468" s="40"/>
+      <c r="P468" s="41"/>
+      <c r="Q468" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="469" spans="2:17">
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
-      <c r="H469" s="4"/>
-      <c r="I469" s="4"/>
+      <c r="H469" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I469" s="4" t="s">
+        <v>854</v>
+      </c>
       <c r="J469" s="4"/>
       <c r="L469" s="4" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="M469" s="4"/>
       <c r="N469" s="4">
         <v>5</v>
       </c>
-      <c r="O469" s="4"/>
-      <c r="P469" s="4"/>
-    </row>
-    <row r="470" spans="2:16">
+      <c r="O469" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P469" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="470" spans="2:17">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -14391,16 +14529,18 @@
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
       <c r="L470" s="4" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="M470" s="4"/>
       <c r="N470" s="4">
         <v>5</v>
       </c>
       <c r="O470" s="4"/>
-      <c r="P470" s="4"/>
-    </row>
-    <row r="471" spans="2:16">
+      <c r="P470" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="471" spans="2:17">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -14409,14 +14549,18 @@
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
       <c r="L471" s="4" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="M471" s="4"/>
-      <c r="N471" s="4"/>
+      <c r="N471" s="4">
+        <v>5</v>
+      </c>
       <c r="O471" s="4"/>
-      <c r="P471" s="4"/>
-    </row>
-    <row r="472" spans="2:16">
+      <c r="P471" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="472" spans="2:17">
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -14425,14 +14569,18 @@
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
       <c r="L472" s="4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="M472" s="4"/>
-      <c r="N472" s="4"/>
+      <c r="N472" s="4">
+        <v>5</v>
+      </c>
       <c r="O472" s="4"/>
-      <c r="P472" s="4"/>
-    </row>
-    <row r="473" spans="2:16">
+      <c r="P472" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="473" spans="2:17">
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -14441,14 +14589,16 @@
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
       <c r="L473" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="M473" s="4"/>
-      <c r="N473" s="4"/>
+      <c r="N473" s="4">
+        <v>5</v>
+      </c>
       <c r="O473" s="4"/>
       <c r="P473" s="4"/>
     </row>
-    <row r="474" spans="2:16">
+    <row r="474" spans="2:17">
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -14457,14 +14607,16 @@
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
       <c r="L474" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M474" s="4"/>
-      <c r="N474" s="4"/>
+      <c r="N474" s="4">
+        <v>5</v>
+      </c>
       <c r="O474" s="4"/>
       <c r="P474" s="4"/>
     </row>
-    <row r="475" spans="2:16">
+    <row r="475" spans="2:17">
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -14473,95 +14625,106 @@
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
       <c r="L475" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="M475" s="4"/>
       <c r="N475" s="4"/>
       <c r="O475" s="4"/>
       <c r="P475" s="4"/>
     </row>
-    <row r="476" spans="2:16">
+    <row r="476" spans="2:17">
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
       <c r="L476" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M476" s="4"/>
       <c r="N476" s="4"/>
       <c r="O476" s="4"/>
       <c r="P476" s="4"/>
     </row>
-    <row r="477" spans="2:16">
+    <row r="477" spans="2:17">
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
-      <c r="L477" s="4"/>
+      <c r="L477" s="4" t="s">
+        <v>808</v>
+      </c>
       <c r="M477" s="4"/>
       <c r="N477" s="4"/>
       <c r="O477" s="4"/>
       <c r="P477" s="4"/>
     </row>
-    <row r="478" spans="2:16">
+    <row r="478" spans="2:17">
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
       <c r="L478" s="4" t="s">
-        <v>40</v>
+        <v>809</v>
       </c>
       <c r="M478" s="4"/>
-      <c r="N478" s="4">
-        <v>1</v>
-      </c>
-      <c r="O478" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P478" s="4" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="479" spans="2:16">
+      <c r="N478" s="4"/>
+      <c r="O478" s="4"/>
+      <c r="P478" s="4"/>
+    </row>
+    <row r="479" spans="2:17">
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
-      <c r="L479" s="4"/>
+      <c r="L479" s="4" t="s">
+        <v>810</v>
+      </c>
       <c r="M479" s="4"/>
       <c r="N479" s="4"/>
       <c r="O479" s="4"/>
       <c r="P479" s="4"/>
     </row>
-    <row r="480" spans="2:16" ht="15" thickBot="1">
+    <row r="480" spans="2:17">
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
-      <c r="L480" s="4"/>
+      <c r="L480" s="4" t="s">
+        <v>811</v>
+      </c>
       <c r="M480" s="4"/>
       <c r="N480" s="4"/>
       <c r="O480" s="4"/>
       <c r="P480" s="4"/>
     </row>
-    <row r="481" spans="8:16" ht="15" thickBot="1">
-      <c r="H481" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="I481" s="10"/>
-      <c r="J481" s="10"/>
-      <c r="K481" s="10"/>
-      <c r="L481" s="10"/>
-      <c r="M481" s="10"/>
-      <c r="N481" s="10"/>
-      <c r="O481" s="10"/>
-      <c r="P481" s="11"/>
+    <row r="481" spans="8:16">
+      <c r="H481" s="4"/>
+      <c r="I481" s="4"/>
+      <c r="J481" s="4"/>
+      <c r="L481" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M481" s="4">
+        <v>80</v>
+      </c>
+      <c r="N481" s="4"/>
+      <c r="O481" s="4"/>
+      <c r="P481" s="4" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="482" spans="8:16">
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
-      <c r="L482" s="4"/>
+      <c r="L482" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M482" s="4"/>
-      <c r="N482" s="4"/>
-      <c r="O482" s="4"/>
-      <c r="P482" s="4"/>
+      <c r="N482" s="4">
+        <v>1</v>
+      </c>
+      <c r="O482" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P482" s="4" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="483" spans="8:16">
       <c r="H483" s="4"/>
@@ -14573,7 +14736,7 @@
       <c r="O483" s="4"/>
       <c r="P483" s="4"/>
     </row>
-    <row r="484" spans="8:16">
+    <row r="484" spans="8:16" ht="15" thickBot="1">
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
@@ -14583,15 +14746,18 @@
       <c r="O484" s="4"/>
       <c r="P484" s="4"/>
     </row>
-    <row r="485" spans="8:16">
-      <c r="H485" s="4"/>
-      <c r="I485" s="4"/>
-      <c r="J485" s="4"/>
-      <c r="L485" s="4"/>
-      <c r="M485" s="4"/>
-      <c r="N485" s="4"/>
-      <c r="O485" s="4"/>
-      <c r="P485" s="4"/>
+    <row r="485" spans="8:16" ht="15" thickBot="1">
+      <c r="H485" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="I485" s="40"/>
+      <c r="J485" s="40"/>
+      <c r="K485" s="40"/>
+      <c r="L485" s="40"/>
+      <c r="M485" s="40"/>
+      <c r="N485" s="40"/>
+      <c r="O485" s="40"/>
+      <c r="P485" s="41"/>
     </row>
     <row r="486" spans="8:16">
       <c r="H486" s="4"/>
@@ -15295,35 +15461,37 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H445:P445"/>
-    <mergeCell ref="H451:P451"/>
-    <mergeCell ref="H455:P455"/>
-    <mergeCell ref="H460:P460"/>
-    <mergeCell ref="H464:P464"/>
-    <mergeCell ref="H481:P481"/>
-    <mergeCell ref="H413:P413"/>
-    <mergeCell ref="H423:P423"/>
-    <mergeCell ref="H427:P427"/>
-    <mergeCell ref="H431:P431"/>
-    <mergeCell ref="H435:P435"/>
-    <mergeCell ref="H440:P440"/>
-    <mergeCell ref="H371:P371"/>
-    <mergeCell ref="H380:P380"/>
-    <mergeCell ref="H392:P392"/>
-    <mergeCell ref="H401:P401"/>
-    <mergeCell ref="H405:P405"/>
-    <mergeCell ref="H408:P408"/>
-    <mergeCell ref="H317:P317"/>
-    <mergeCell ref="H326:P326"/>
-    <mergeCell ref="H335:P335"/>
-    <mergeCell ref="H341:P341"/>
-    <mergeCell ref="H350:P350"/>
-    <mergeCell ref="H360:P360"/>
-    <mergeCell ref="H267:P267"/>
-    <mergeCell ref="H275:P275"/>
-    <mergeCell ref="H283:P283"/>
-    <mergeCell ref="H291:P291"/>
-    <mergeCell ref="H299:P299"/>
+    <mergeCell ref="H406:P406"/>
+    <mergeCell ref="H409:P409"/>
+    <mergeCell ref="H414:P414"/>
+    <mergeCell ref="H424:P424"/>
+    <mergeCell ref="H428:P428"/>
+    <mergeCell ref="H432:P432"/>
+    <mergeCell ref="H437:P437"/>
+    <mergeCell ref="H442:P442"/>
+    <mergeCell ref="H447:P447"/>
+    <mergeCell ref="H453:P453"/>
+    <mergeCell ref="H457:P457"/>
+    <mergeCell ref="H468:P468"/>
+    <mergeCell ref="H485:P485"/>
+    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="H5:P5"/>
+    <mergeCell ref="H19:P19"/>
+    <mergeCell ref="H209:P209"/>
+    <mergeCell ref="H116:P116"/>
+    <mergeCell ref="H126:P126"/>
+    <mergeCell ref="H135:P135"/>
+    <mergeCell ref="H144:P144"/>
+    <mergeCell ref="H152:P152"/>
+    <mergeCell ref="H158:P158"/>
+    <mergeCell ref="H163:P163"/>
+    <mergeCell ref="H177:P177"/>
+    <mergeCell ref="H184:P184"/>
+    <mergeCell ref="H190:P190"/>
+    <mergeCell ref="H201:P201"/>
     <mergeCell ref="H308:P308"/>
     <mergeCell ref="H214:P214"/>
     <mergeCell ref="H221:P221"/>
@@ -15331,27 +15499,25 @@
     <mergeCell ref="H240:P240"/>
     <mergeCell ref="H248:P248"/>
     <mergeCell ref="H259:P259"/>
-    <mergeCell ref="H163:P163"/>
-    <mergeCell ref="H177:P177"/>
-    <mergeCell ref="H184:P184"/>
-    <mergeCell ref="H190:P190"/>
-    <mergeCell ref="H201:P201"/>
-    <mergeCell ref="H209:P209"/>
-    <mergeCell ref="H116:P116"/>
-    <mergeCell ref="H126:P126"/>
-    <mergeCell ref="H135:P135"/>
-    <mergeCell ref="H144:P144"/>
-    <mergeCell ref="H152:P152"/>
-    <mergeCell ref="H158:P158"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="H5:P5"/>
-    <mergeCell ref="H19:P19"/>
-    <mergeCell ref="H33:P33"/>
+    <mergeCell ref="H267:P267"/>
+    <mergeCell ref="H275:P275"/>
+    <mergeCell ref="H283:P283"/>
+    <mergeCell ref="H291:P291"/>
+    <mergeCell ref="H299:P299"/>
+    <mergeCell ref="H317:P317"/>
+    <mergeCell ref="H326:P326"/>
+    <mergeCell ref="H335:P335"/>
+    <mergeCell ref="H341:P341"/>
+    <mergeCell ref="H350:P350"/>
+    <mergeCell ref="H360:P360"/>
+    <mergeCell ref="H371:P371"/>
+    <mergeCell ref="H380:P380"/>
+    <mergeCell ref="H392:P392"/>
+    <mergeCell ref="H401:P401"/>
+    <mergeCell ref="H464:P464"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="https://www.synteau.com/wp-content/uploads/2011/09/Etude-cemagref_ARTpretraitements-def4.pdf" xr:uid="{775FC8EC-D0BF-468E-B407-94B08F70A37D}"/>
+    <hyperlink ref="E5" r:id="rId1" display="https://www.synteau.com/wp-content/uploads/2011/09/Etude-cemagref_ARTpretraitements-def4.pdf" xr:uid="{2CE61B96-5557-4911-9342-80810C9C6329}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -15362,7 +15528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1295765-7422-4A8D-8284-74E900C11493}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -15375,19 +15541,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1"/>
     <row r="2" spans="1:5" ht="15" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>816</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="D2" s="35" t="s">
         <v>817</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>818</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>819</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -15395,9 +15561,9 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
-        <v>820</v>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15406,7 +15572,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15414,8 +15580,8 @@
         <f t="shared" ref="A5:A23" si="0">A4 +1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>822</v>
+      <c r="C5" s="37" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -15423,11 +15589,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>823</v>
+      <c r="C6" s="37" t="s">
+        <v>821</v>
       </c>
       <c r="E6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -15435,11 +15601,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>825</v>
+      <c r="C7" s="38" t="s">
+        <v>823</v>
       </c>
       <c r="E7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -15448,7 +15614,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -15457,10 +15623,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>828</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>829</v>
+        <v>826</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -15469,7 +15635,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15478,7 +15644,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15487,7 +15653,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15496,7 +15662,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -15505,7 +15671,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -15513,8 +15679,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>835</v>
+      <c r="C15" s="38" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15523,10 +15689,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/utility/Formules.xlsx
+++ b/utility/Formules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theophile.mounier\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\cycle\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BB3FF8-EDAB-45A5-AECC-D24086944CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDAD21F-259E-4A85-BFE2-CB01C51C1219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{605857FF-E55C-4FBE-B00C-46346AF3406F}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="866">
   <si>
     <t>Valeur de calcul</t>
   </si>
@@ -1416,9 +1416,6 @@
     <t>larg</t>
   </si>
   <si>
-    <t>prop_l*l</t>
-  </si>
-  <si>
     <t>Welec_st_nopell</t>
   </si>
   <si>
@@ -1461,15 +1458,9 @@
     <t>Qe/vlam</t>
   </si>
   <si>
-    <t>co2_c_lam</t>
-  </si>
-  <si>
     <t>Vlam*rholam*FElam</t>
   </si>
   <si>
-    <t>co2_c_bassin + co2_c_terrassement + co2_lam</t>
-  </si>
-  <si>
     <t>FEobj10_ss</t>
   </si>
   <si>
@@ -1605,9 +1596,6 @@
     <t>prod_e (Acide citrique)</t>
   </si>
   <si>
-    <t>co2_c_bassin + co2_c_terrassement + co2_pehd</t>
-  </si>
-  <si>
     <t>prod_e (Acide phosphorique)</t>
   </si>
   <si>
@@ -1635,9 +1623,6 @@
     <t>prod_e (Bisulfite de sodium)</t>
   </si>
   <si>
-    <t>Mmebrane</t>
-  </si>
-  <si>
     <t>prod_e (Carbonate de calcium)</t>
   </si>
   <si>
@@ -1656,9 +1641,6 @@
     <t>prod_e (Calcium neuf)</t>
   </si>
   <si>
-    <t>co2_c_bassin + co2_c_terrassement + co2_membrane</t>
-  </si>
-  <si>
     <t>prod_e (Poudre de calcium)</t>
   </si>
   <si>
@@ -1734,9 +1716,6 @@
     <t>prod_e (Soude)</t>
   </si>
   <si>
-    <t>S_geom1*Fegeom1 + co2_terrassement1 + S_geom2*Fegeom2 + co2_terrassement2 +S_geom3*Fegeom3 + co2_terrassement3</t>
-  </si>
-  <si>
     <t>S_geom_eh1</t>
   </si>
   <si>
@@ -2385,15 +2364,6 @@
     <t>Station de pompage</t>
   </si>
   <si>
-    <t>Felec*Welec</t>
-  </si>
-  <si>
-    <t>nbpompe</t>
-  </si>
-  <si>
-    <t>entier</t>
-  </si>
-  <si>
     <t>Chateau d'eau</t>
   </si>
   <si>
@@ -2415,9 +2385,6 @@
     <t>tau_reparation*ml*(FErep_branche_t*terrassement + FErep_branche(1-terrassement)</t>
   </si>
   <si>
-    <t>taux_reparation</t>
-  </si>
-  <si>
     <t>taux de réparation /an</t>
   </si>
   <si>
@@ -2632,6 +2599,69 @@
   </si>
   <si>
     <t>Incertitude %</t>
+  </si>
+  <si>
+    <t>Sterre*FEfonda + co2_pehd</t>
+  </si>
+  <si>
+    <t>Sterre*FEfonda + co2_membrane</t>
+  </si>
+  <si>
+    <t>Mmembrane</t>
+  </si>
+  <si>
+    <t>FErep_cana</t>
+  </si>
+  <si>
+    <t>kgCO2eq/ml[2]</t>
+  </si>
+  <si>
+    <t>nbcur_prev</t>
+  </si>
+  <si>
+    <t>nbcur_cur</t>
+  </si>
+  <si>
+    <t>nbdesob</t>
+  </si>
+  <si>
+    <t>tau_repar</t>
+  </si>
+  <si>
+    <t>nombre de curage préventif par an</t>
+  </si>
+  <si>
+    <t>nombre de curage curatif par an</t>
+  </si>
+  <si>
+    <t>nombre de désobstruction par an</t>
+  </si>
+  <si>
+    <t>tau de réparation de la canalisation par an</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>nbcur_prev*FEcurage_prev + nbcur_cur*FEcurage_cur + nbdesob*FEcurage_desob + tau_repar*FErep_cana*ml</t>
+  </si>
+  <si>
+    <t>Curages et réparation</t>
+  </si>
+  <si>
+    <t>S_geom1*Fegeom + co2_terrassement1 + S_geom2*Fegeom + co2_terrassement2 +S_geom3*Fegeom + co2_terrassement3</t>
+  </si>
+  <si>
+    <t>tau_reparation</t>
+  </si>
+  <si>
+    <t>prop_l*long</t>
+  </si>
+  <si>
+    <t>co2_lam</t>
+  </si>
+  <si>
+    <t>co2_c_bassin + co2_terrassement + co2_lam</t>
   </si>
 </sst>
 </file>
@@ -3358,10 +3388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E440E27A-1047-42A1-8493-00B00BFBDD0D}">
-  <dimension ref="B2:Q555"/>
+  <dimension ref="B2:Q558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="109" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="F150" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3372,6 +3402,7 @@
     <col min="5" max="5" width="96.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63.6640625" customWidth="1"/>
     <col min="10" max="10" width="63.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="82.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3404,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
@@ -7878,7 +7909,7 @@
         <v>449</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>450</v>
+        <v>863</v>
       </c>
       <c r="J167" s="4"/>
       <c r="L167" s="4"/>
@@ -7889,7 +7920,7 @@
     </row>
     <row r="168" spans="2:17">
       <c r="B168" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C168" s="4">
         <v>105</v>
@@ -7901,10 +7932,10 @@
         <v>448</v>
       </c>
       <c r="H168" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="I168" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="I168" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="J168" s="4"/>
       <c r="L168" s="4" t="s">
@@ -7921,7 +7952,7 @@
     </row>
     <row r="169" spans="2:17">
       <c r="B169" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C169" s="4">
         <v>1000</v>
@@ -7930,7 +7961,7 @@
         <v>10</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>17</v>
@@ -7940,7 +7971,7 @@
       </c>
       <c r="J169" s="10"/>
       <c r="L169" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M169" s="11">
         <v>20</v>
@@ -7960,11 +7991,11 @@
         <v>22</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J170" s="3"/>
       <c r="L170" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M170" s="4">
         <v>1</v>
@@ -7974,7 +8005,7 @@
         <v>79</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="2:17">
@@ -7990,7 +8021,7 @@
       </c>
       <c r="J171" s="3"/>
       <c r="L171" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M171" s="4"/>
       <c r="N171" s="4">
@@ -8010,11 +8041,11 @@
         <v>43</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J172" s="4"/>
       <c r="L172" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M172" s="4"/>
       <c r="N172" s="4">
@@ -8031,10 +8062,10 @@
       <c r="D173" s="5"/>
       <c r="E173" s="4"/>
       <c r="H173" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="I173" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="J173" s="4"/>
       <c r="L173" s="4" t="s">
@@ -8055,10 +8086,10 @@
       <c r="D174" s="5"/>
       <c r="E174" s="4"/>
       <c r="H174" s="4" t="s">
-        <v>465</v>
+        <v>864</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J174" s="4"/>
       <c r="L174" s="4"/>
@@ -8078,7 +8109,7 @@
         <v>62</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>467</v>
+        <v>865</v>
       </c>
       <c r="J175" s="4"/>
       <c r="L175" s="4"/>
@@ -8089,7 +8120,7 @@
     </row>
     <row r="176" spans="2:17" ht="15" thickBot="1">
       <c r="B176" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C176" s="4">
         <v>7.6227</v>
@@ -8109,7 +8140,7 @@
     </row>
     <row r="177" spans="2:17" ht="15" thickBot="1">
       <c r="B177" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C177" s="4">
         <v>3.9359000000000002</v>
@@ -8119,7 +8150,7 @@
       </c>
       <c r="E177" s="4"/>
       <c r="H177" s="39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I177" s="40"/>
       <c r="J177" s="40"/>
@@ -8135,7 +8166,7 @@
     </row>
     <row r="178" spans="2:17">
       <c r="B178" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C178" s="4">
         <v>3.3910999999999998</v>
@@ -8160,12 +8191,12 @@
         <v>79</v>
       </c>
       <c r="P178" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="2:17">
       <c r="B179" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C179" s="4">
         <v>50</v>
@@ -8174,7 +8205,7 @@
         <v>40</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>420</v>
@@ -8192,12 +8223,12 @@
         <v>79</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="180" spans="2:17">
       <c r="B180" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C180" s="4">
         <v>85</v>
@@ -8225,7 +8256,7 @@
     </row>
     <row r="181" spans="2:17">
       <c r="B181" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C181" s="4">
         <v>150</v>
@@ -8253,7 +8284,7 @@
     </row>
     <row r="182" spans="2:17">
       <c r="B182" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C182" s="4">
         <v>1000</v>
@@ -8263,10 +8294,10 @@
       </c>
       <c r="E182" s="4"/>
       <c r="H182" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J182" s="4"/>
       <c r="L182" s="4"/>
@@ -8277,7 +8308,7 @@
     </row>
     <row r="183" spans="2:17" ht="15" thickBot="1">
       <c r="B183" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C183" s="4">
         <v>200</v>
@@ -8297,7 +8328,7 @@
     </row>
     <row r="184" spans="2:17" ht="15" thickBot="1">
       <c r="B184" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C184" s="4">
         <v>675</v>
@@ -8307,7 +8338,7 @@
       </c>
       <c r="E184" s="4"/>
       <c r="H184" s="39" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I184" s="40"/>
       <c r="J184" s="40"/>
@@ -8332,7 +8363,7 @@
       <c r="I185" s="11"/>
       <c r="J185" s="11"/>
       <c r="L185" s="31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M185" s="11">
         <v>1</v>
@@ -8342,12 +8373,12 @@
         <v>79</v>
       </c>
       <c r="P185" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="2:17">
       <c r="B186" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C186" s="4">
         <v>420</v>
@@ -8356,7 +8387,7 @@
         <v>95</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>420</v>
@@ -8371,7 +8402,7 @@
     </row>
     <row r="187" spans="2:17">
       <c r="B187" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C187" s="4">
         <v>400</v>
@@ -8380,7 +8411,7 @@
         <v>95</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>427</v>
@@ -8401,7 +8432,7 @@
     </row>
     <row r="188" spans="2:17">
       <c r="B188" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C188" s="4">
         <v>7</v>
@@ -8410,13 +8441,13 @@
         <v>30</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J188" s="4"/>
       <c r="L188" s="4"/>
@@ -8441,7 +8472,7 @@
     </row>
     <row r="190" spans="2:17" ht="15" thickBot="1">
       <c r="B190" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C190" s="4">
         <v>42</v>
@@ -8450,10 +8481,10 @@
         <v>50</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H190" s="39" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I190" s="40"/>
       <c r="J190" s="40"/>
@@ -8469,7 +8500,7 @@
     </row>
     <row r="191" spans="2:17">
       <c r="B191" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C191" s="4">
         <v>53</v>
@@ -8478,7 +8509,7 @@
         <v>50</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H191" s="11" t="s">
         <v>361</v>
@@ -8486,7 +8517,7 @@
       <c r="I191" s="11"/>
       <c r="J191" s="11"/>
       <c r="L191" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M191" s="11"/>
       <c r="N191" s="11">
@@ -8496,12 +8527,12 @@
         <v>79</v>
       </c>
       <c r="P191" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="2:17">
       <c r="B192" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C192" s="4">
         <v>12</v>
@@ -8510,7 +8541,7 @@
         <v>50</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H192" s="4" t="s">
         <v>420</v>
@@ -8518,7 +8549,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="L192" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M192" s="4">
         <v>500</v>
@@ -8528,7 +8559,7 @@
         <v>79</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="193" spans="2:17">
@@ -8554,19 +8585,27 @@
       <c r="P193" s="4"/>
     </row>
     <row r="194" spans="2:17">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C194" s="4">
+        <v>400</v>
+      </c>
+      <c r="D194" s="4">
+        <v>95</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>849</v>
+      </c>
       <c r="H194" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J194" s="4"/>
       <c r="L194" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M194" s="4">
         <v>0.4</v>
@@ -8583,14 +8622,14 @@
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="H195" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J195" s="4"/>
       <c r="L195" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M195" s="4">
         <v>145</v>
@@ -8600,27 +8639,27 @@
         <v>79</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="196" spans="2:17">
       <c r="B196" s="32" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J196" s="4"/>
       <c r="L196" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M196" s="4">
         <v>0.01</v>
@@ -8630,21 +8669,21 @@
         <v>79</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="2:17">
       <c r="B197" s="32" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
-      <c r="H197" s="4" t="s">
-        <v>62</v>
+      <c r="H197" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>513</v>
+        <v>845</v>
       </c>
       <c r="J197" s="4"/>
       <c r="L197" s="4"/>
@@ -8655,16 +8694,16 @@
     </row>
     <row r="198" spans="2:17">
       <c r="B198" s="32" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="H198" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="J198" s="4"/>
       <c r="L198" s="4"/>
@@ -8675,7 +8714,7 @@
     </row>
     <row r="199" spans="2:17">
       <c r="B199" s="32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -8691,7 +8730,7 @@
     </row>
     <row r="200" spans="2:17" ht="15" thickBot="1">
       <c r="B200" s="32" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -8707,13 +8746,13 @@
     </row>
     <row r="201" spans="2:17" ht="15" thickBot="1">
       <c r="B201" s="32" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="H201" s="39" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="I201" s="40"/>
       <c r="J201" s="40"/>
@@ -8729,7 +8768,7 @@
     </row>
     <row r="202" spans="2:17">
       <c r="B202" s="32" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -8753,7 +8792,7 @@
     </row>
     <row r="203" spans="2:17">
       <c r="B203" s="32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -8764,7 +8803,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="L203" s="4" t="s">
-        <v>523</v>
+        <v>847</v>
       </c>
       <c r="M203" s="4"/>
       <c r="N203" s="4">
@@ -8777,7 +8816,7 @@
     </row>
     <row r="204" spans="2:17">
       <c r="B204" s="32" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -8795,7 +8834,7 @@
     </row>
     <row r="205" spans="2:17">
       <c r="B205" s="32" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -8811,16 +8850,16 @@
     </row>
     <row r="206" spans="2:17">
       <c r="B206" s="32" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="H206" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J206" s="4"/>
       <c r="L206" s="4"/>
@@ -8831,16 +8870,16 @@
     </row>
     <row r="207" spans="2:17">
       <c r="B207" s="32" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="H207" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>530</v>
+        <v>846</v>
       </c>
       <c r="J207" s="4"/>
       <c r="L207" s="4"/>
@@ -8851,7 +8890,7 @@
     </row>
     <row r="208" spans="2:17" ht="15" thickBot="1">
       <c r="B208" s="32" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -8867,13 +8906,13 @@
     </row>
     <row r="209" spans="2:17" ht="15" thickBot="1">
       <c r="B209" s="32" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="H209" s="39" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I209" s="40"/>
       <c r="J209" s="40"/>
@@ -8889,7 +8928,7 @@
     </row>
     <row r="210" spans="2:17">
       <c r="B210" s="32" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -8913,7 +8952,7 @@
     </row>
     <row r="211" spans="2:17">
       <c r="B211" s="32" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -8931,7 +8970,7 @@
     </row>
     <row r="212" spans="2:17">
       <c r="B212" s="32" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -8955,7 +8994,7 @@
     </row>
     <row r="213" spans="2:17" ht="15" thickBot="1">
       <c r="B213" s="32" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -8971,13 +9010,13 @@
     </row>
     <row r="214" spans="2:17" ht="15" thickBot="1">
       <c r="B214" s="32" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="H214" s="39" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I214" s="40"/>
       <c r="J214" s="40"/>
@@ -8993,7 +9032,7 @@
     </row>
     <row r="215" spans="2:17">
       <c r="B215" s="32" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -9002,12 +9041,12 @@
         <v>58</v>
       </c>
       <c r="I215" s="19" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J215" s="19"/>
       <c r="K215" s="17"/>
       <c r="L215" s="19" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M215" s="19">
         <v>1.5</v>
@@ -9017,12 +9056,12 @@
         <v>79</v>
       </c>
       <c r="P215" s="19" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="2:17">
       <c r="B216" s="32" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -9031,7 +9070,7 @@
         <v>62</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="J216" s="2"/>
       <c r="K216" s="17"/>
@@ -9051,27 +9090,35 @@
     </row>
     <row r="217" spans="2:17">
       <c r="B217" s="32" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="H217" s="4" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="J217" s="4"/>
-      <c r="L217" s="4"/>
+      <c r="L217" s="4" t="s">
+        <v>541</v>
+      </c>
       <c r="M217" s="4"/>
-      <c r="N217" s="4"/>
-      <c r="O217" s="4"/>
-      <c r="P217" s="4"/>
+      <c r="N217" s="4">
+        <v>3</v>
+      </c>
+      <c r="O217" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P217" s="4" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="218" spans="2:17">
       <c r="B218" s="32" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -9089,7 +9136,7 @@
     </row>
     <row r="219" spans="2:17">
       <c r="B219" s="32" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -9107,7 +9154,7 @@
     </row>
     <row r="220" spans="2:17" ht="15" thickBot="1">
       <c r="B220" s="32" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -9116,7 +9163,7 @@
         <v>17</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J220" s="4"/>
       <c r="L220" s="4"/>
@@ -9127,13 +9174,13 @@
     </row>
     <row r="221" spans="2:17" ht="15" thickBot="1">
       <c r="B221" s="32" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="H221" s="39" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I221" s="40"/>
       <c r="J221" s="40"/>
@@ -9149,7 +9196,7 @@
     </row>
     <row r="222" spans="2:17">
       <c r="B222" s="32" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -9158,11 +9205,11 @@
         <v>62</v>
       </c>
       <c r="I222" s="11" t="s">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="J222" s="11"/>
       <c r="L222" s="11" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M222" s="11">
         <v>9</v>
@@ -9172,25 +9219,25 @@
         <v>79</v>
       </c>
       <c r="P222" s="11" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="223" spans="2:17">
       <c r="B223" s="32" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="H223" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="J223" s="4"/>
       <c r="L223" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M223" s="4">
         <v>4.5</v>
@@ -9200,25 +9247,25 @@
         <v>79</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="224" spans="2:17">
       <c r="B224" s="32" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="H224" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J224" s="4"/>
       <c r="L224" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="M224" s="4">
         <v>4.5</v>
@@ -9228,25 +9275,25 @@
         <v>79</v>
       </c>
       <c r="P224" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="225" spans="2:17">
       <c r="B225" s="32" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="H225" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="J225" s="4"/>
       <c r="L225" s="4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="M225" s="4"/>
       <c r="N225" s="4">
@@ -9256,25 +9303,25 @@
         <v>79</v>
       </c>
       <c r="P225" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="2:17">
       <c r="B226" s="32" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="H226" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="J226" s="4"/>
       <c r="L226" s="4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="M226" s="4"/>
       <c r="N226" s="4">
@@ -9284,25 +9331,25 @@
         <v>79</v>
       </c>
       <c r="P226" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="2:17">
       <c r="B227" s="32" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="H227" s="4" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="J227" s="4"/>
       <c r="L227" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M227" s="4"/>
       <c r="N227" s="4">
@@ -9312,25 +9359,25 @@
         <v>79</v>
       </c>
       <c r="P227" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="2:17">
       <c r="B228" s="32" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="H228" s="4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="J228" s="4"/>
       <c r="L228" s="4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M228" s="4">
         <v>1.8</v>
@@ -9345,20 +9392,20 @@
     </row>
     <row r="229" spans="2:17">
       <c r="B229" s="32" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="H229" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="J229" s="4"/>
       <c r="L229" s="4" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="M229" s="4">
         <v>1.4</v>
@@ -9373,20 +9420,20 @@
     </row>
     <row r="230" spans="2:17">
       <c r="B230" s="32" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="H230" s="4" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="J230" s="4"/>
       <c r="L230" s="4" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M230" s="4">
         <v>1.2</v>
@@ -9405,10 +9452,10 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="H231" s="4" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="J231" s="4"/>
       <c r="L231" s="4"/>
@@ -9469,7 +9516,7 @@
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="H235" s="39" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I235" s="40"/>
       <c r="J235" s="40"/>
@@ -9486,14 +9533,14 @@
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="H236" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="J236" s="11"/>
       <c r="L236" s="31" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M236" s="11">
         <v>1</v>
@@ -9503,7 +9550,7 @@
         <v>79</v>
       </c>
       <c r="P236" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="2:17">
@@ -9515,7 +9562,7 @@
         <v>62</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J237" s="4"/>
       <c r="L237" s="4" t="s">
@@ -9534,16 +9581,16 @@
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="H238" s="4" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
@@ -9570,7 +9617,7 @@
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="H240" s="39" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="I240" s="40"/>
       <c r="J240" s="40"/>
@@ -9595,7 +9642,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="3"/>
       <c r="L241" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="M241" s="4"/>
       <c r="N241" s="4">
@@ -9608,7 +9655,7 @@
     </row>
     <row r="242" spans="2:17">
       <c r="B242" s="27" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C242" s="4">
         <v>1200</v>
@@ -9617,15 +9664,15 @@
         <v>50</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I242" s="4"/>
       <c r="J242" s="3"/>
       <c r="L242" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="M242" s="4">
         <v>0</v>
@@ -9635,12 +9682,12 @@
         <v>336</v>
       </c>
       <c r="P242" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="2:17">
       <c r="B243" s="27" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C243" s="4">
         <v>1000</v>
@@ -9650,14 +9697,14 @@
       </c>
       <c r="E243" s="4"/>
       <c r="H243" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J243" s="4"/>
       <c r="L243" s="4" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M243" s="4"/>
       <c r="N243" s="4">
@@ -9670,7 +9717,7 @@
     </row>
     <row r="244" spans="2:17">
       <c r="B244" s="27" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C244" s="4">
         <v>1420</v>
@@ -9683,11 +9730,11 @@
         <v>400</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="J244" s="4"/>
       <c r="L244" s="4" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="M244" s="4">
         <v>0</v>
@@ -9697,12 +9744,12 @@
         <v>336</v>
       </c>
       <c r="P244" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="2:17">
       <c r="B245" s="27" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C245" s="4">
         <v>3180</v>
@@ -9715,7 +9762,7 @@
         <v>112</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="J245" s="4"/>
       <c r="L245" s="4" t="s">
@@ -9730,7 +9777,7 @@
     </row>
     <row r="246" spans="2:17">
       <c r="B246" s="27" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C246" s="4">
         <v>148</v>
@@ -9750,7 +9797,7 @@
     </row>
     <row r="247" spans="2:17" ht="15" thickBot="1">
       <c r="B247" s="27" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C247" s="4">
         <v>1470</v>
@@ -9768,7 +9815,7 @@
     </row>
     <row r="248" spans="2:17" ht="15" thickBot="1">
       <c r="B248" s="27" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C248" s="4">
         <v>2000</v>
@@ -9778,7 +9825,7 @@
       </c>
       <c r="E248" s="4"/>
       <c r="H248" s="39" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="I248" s="40"/>
       <c r="J248" s="40"/>
@@ -9794,7 +9841,7 @@
     </row>
     <row r="249" spans="2:17">
       <c r="B249" s="27" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C249" s="4">
         <v>416</v>
@@ -9820,7 +9867,7 @@
     </row>
     <row r="250" spans="2:17">
       <c r="B250" s="27" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C250" s="4">
         <v>75</v>
@@ -9830,7 +9877,7 @@
       </c>
       <c r="E250" s="4"/>
       <c r="H250" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
@@ -9848,7 +9895,7 @@
     </row>
     <row r="251" spans="2:17">
       <c r="B251" s="27" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C251" s="4">
         <v>1052</v>
@@ -9874,7 +9921,7 @@
     </row>
     <row r="252" spans="2:17">
       <c r="B252" s="27" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C252" s="4">
         <v>1320</v>
@@ -9900,7 +9947,7 @@
     </row>
     <row r="253" spans="2:17">
       <c r="B253" s="27" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C253" s="4">
         <v>10514</v>
@@ -9913,7 +9960,7 @@
         <v>112</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="J253" s="4"/>
       <c r="L253" s="4" t="s">
@@ -9930,7 +9977,7 @@
     </row>
     <row r="254" spans="2:17">
       <c r="B254" s="27" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C254" s="4">
         <v>10451</v>
@@ -9943,7 +9990,7 @@
         <v>105</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="J254" s="4"/>
       <c r="L254" s="4" t="s">
@@ -9960,7 +10007,7 @@
     </row>
     <row r="255" spans="2:17">
       <c r="B255" s="27" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C255" s="4">
         <v>1032</v>
@@ -9986,7 +10033,7 @@
     </row>
     <row r="256" spans="2:17">
       <c r="B256" s="27" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C256" s="4">
         <v>740</v>
@@ -9996,7 +10043,7 @@
       </c>
       <c r="E256" s="4"/>
       <c r="H256" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I256" s="4" t="s">
         <v>253</v>
@@ -10016,7 +10063,7 @@
     </row>
     <row r="257" spans="2:17">
       <c r="B257" s="27" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C257" s="4">
         <v>46</v>
@@ -10026,7 +10073,7 @@
       </c>
       <c r="E257" s="4"/>
       <c r="H257" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>256</v>
@@ -10046,7 +10093,7 @@
     </row>
     <row r="258" spans="2:17" ht="15" thickBot="1">
       <c r="B258" s="27" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C258" s="4">
         <v>40</v>
@@ -10056,14 +10103,14 @@
       </c>
       <c r="E258" s="4"/>
       <c r="H258" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I258" s="4" t="s">
         <v>258</v>
       </c>
       <c r="J258" s="4"/>
       <c r="L258" s="4" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="M258" s="4"/>
       <c r="N258" s="4">
@@ -10076,7 +10123,7 @@
     </row>
     <row r="259" spans="2:17" ht="15" thickBot="1">
       <c r="B259" s="27" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C259" s="4">
         <v>521</v>
@@ -10086,7 +10133,7 @@
       </c>
       <c r="E259" s="4"/>
       <c r="H259" s="39" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="I259" s="40"/>
       <c r="J259" s="40"/>
@@ -10102,7 +10149,7 @@
     </row>
     <row r="260" spans="2:17">
       <c r="B260" s="27" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C260" s="4">
         <v>408</v>
@@ -10117,7 +10164,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
       <c r="L260" s="4" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="M260" s="4"/>
       <c r="N260" s="4">
@@ -10127,12 +10174,12 @@
         <v>79</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="261" spans="2:17">
       <c r="B261" s="27" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C261" s="4">
         <v>1151</v>
@@ -10142,7 +10189,7 @@
       </c>
       <c r="E261" s="4"/>
       <c r="H261" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
@@ -10157,12 +10204,12 @@
         <v>429</v>
       </c>
       <c r="P261" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="262" spans="2:17">
       <c r="B262" s="27" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C262" s="4">
         <v>469</v>
@@ -10172,10 +10219,10 @@
       </c>
       <c r="E262" s="4"/>
       <c r="H262" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="J262" s="4"/>
       <c r="L262" s="4"/>
@@ -10186,7 +10233,7 @@
     </row>
     <row r="263" spans="2:17">
       <c r="B263" s="27" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C263" s="4">
         <v>805</v>
@@ -10196,7 +10243,7 @@
       </c>
       <c r="E263" s="4"/>
       <c r="H263" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I263" s="4" t="s">
         <v>375</v>
@@ -10210,7 +10257,7 @@
     </row>
     <row r="264" spans="2:17">
       <c r="B264" s="27" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C264" s="4">
         <v>3927</v>
@@ -10220,7 +10267,7 @@
       </c>
       <c r="E264" s="4"/>
       <c r="H264" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I264" s="4" t="s">
         <v>377</v>
@@ -10234,7 +10281,7 @@
     </row>
     <row r="265" spans="2:17">
       <c r="B265" s="27" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C265" s="4">
         <v>1395</v>
@@ -10247,7 +10294,7 @@
         <v>105</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="J265" s="4"/>
       <c r="L265" s="4"/>
@@ -10258,7 +10305,7 @@
     </row>
     <row r="266" spans="2:17" ht="15" thickBot="1">
       <c r="B266" s="27" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C266" s="4">
         <v>6700</v>
@@ -10278,7 +10325,7 @@
     </row>
     <row r="267" spans="2:17" ht="15" thickBot="1">
       <c r="B267" s="27" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C267" s="4">
         <v>2</v>
@@ -10288,7 +10335,7 @@
       </c>
       <c r="E267" s="4"/>
       <c r="H267" s="39" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="I267" s="40"/>
       <c r="J267" s="40"/>
@@ -10304,7 +10351,7 @@
     </row>
     <row r="268" spans="2:17">
       <c r="B268" s="27" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C268" s="4">
         <v>364</v>
@@ -10329,12 +10376,12 @@
         <v>79</v>
       </c>
       <c r="P268" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="269" spans="2:17">
       <c r="B269" s="27" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="C269" s="4">
         <v>128</v>
@@ -10344,7 +10391,7 @@
       </c>
       <c r="E269" s="4"/>
       <c r="H269" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
@@ -10359,12 +10406,12 @@
         <v>79</v>
       </c>
       <c r="P269" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="270" spans="2:17">
       <c r="B270" s="27" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C270" s="4">
         <v>473</v>
@@ -10374,14 +10421,14 @@
       </c>
       <c r="E270" s="4"/>
       <c r="H270" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I270" s="4" t="s">
         <v>317</v>
       </c>
       <c r="J270" s="4"/>
       <c r="L270" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M270" s="4">
         <v>0.95</v>
@@ -10394,7 +10441,7 @@
     </row>
     <row r="271" spans="2:17">
       <c r="B271" s="27" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C271" s="4">
         <v>4253</v>
@@ -10403,10 +10450,10 @@
         <v>30</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I271" s="4" t="s">
         <v>319</v>
@@ -10420,7 +10467,7 @@
     </row>
     <row r="272" spans="2:17">
       <c r="B272" s="27" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C272" s="4">
         <v>330</v>
@@ -10430,7 +10477,7 @@
       </c>
       <c r="E272" s="4"/>
       <c r="H272" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I272" s="4" t="s">
         <v>321</v>
@@ -10444,7 +10491,7 @@
     </row>
     <row r="273" spans="2:17">
       <c r="B273" s="27" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C273" s="4">
         <v>50</v>
@@ -10457,7 +10504,7 @@
         <v>112</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J273" s="4"/>
       <c r="L273" s="4"/>
@@ -10468,7 +10515,7 @@
     </row>
     <row r="274" spans="2:17" ht="15" thickBot="1">
       <c r="B274" s="27" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C274" s="4">
         <v>460</v>
@@ -10481,7 +10528,7 @@
         <v>105</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="J274" s="4"/>
       <c r="L274" s="4"/>
@@ -10492,7 +10539,7 @@
     </row>
     <row r="275" spans="2:17" ht="15" thickBot="1">
       <c r="B275" s="27" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C275" s="4">
         <v>920</v>
@@ -10502,7 +10549,7 @@
       </c>
       <c r="E275" s="4"/>
       <c r="H275" s="39" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="I275" s="40"/>
       <c r="J275" s="40"/>
@@ -10518,7 +10565,7 @@
     </row>
     <row r="276" spans="2:17">
       <c r="B276" s="27" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C276" s="4">
         <v>241</v>
@@ -10527,7 +10574,7 @@
         <v>30</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="H276" s="4" t="s">
         <v>361</v>
@@ -10545,7 +10592,7 @@
         <v>79</v>
       </c>
       <c r="P276" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="277" spans="2:17">
@@ -10554,7 +10601,7 @@
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="H277" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
@@ -10569,7 +10616,7 @@
         <v>79</v>
       </c>
       <c r="P277" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="278" spans="2:17">
@@ -10578,14 +10625,14 @@
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="H278" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I278" s="4" t="s">
         <v>306</v>
       </c>
       <c r="J278" s="4"/>
       <c r="L278" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M278" s="4">
         <v>0.95</v>
@@ -10602,7 +10649,7 @@
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="H279" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I279" s="4" t="s">
         <v>308</v>
@@ -10620,7 +10667,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="H280" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I280" s="4" t="s">
         <v>310</v>
@@ -10641,7 +10688,7 @@
         <v>112</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J281" s="4"/>
       <c r="L281" s="4"/>
@@ -10652,7 +10699,7 @@
     </row>
     <row r="282" spans="2:17" ht="15" thickBot="1">
       <c r="B282" s="4" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C282" s="4">
         <v>0.39</v>
@@ -10661,13 +10708,13 @@
         <v>50</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H282" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="J282" s="4"/>
       <c r="L282" s="4"/>
@@ -10678,7 +10725,7 @@
     </row>
     <row r="283" spans="2:17" ht="15" thickBot="1">
       <c r="B283" s="4" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C283" s="4">
         <v>0.03</v>
@@ -10687,10 +10734,10 @@
         <v>50</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H283" s="39" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="I283" s="40"/>
       <c r="J283" s="40"/>
@@ -10715,7 +10762,7 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
       <c r="L284" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M284" s="4">
         <v>0.95</v>
@@ -10728,7 +10775,7 @@
     </row>
     <row r="285" spans="2:17">
       <c r="B285" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C285" s="4">
         <v>1.21</v>
@@ -10737,10 +10784,10 @@
         <v>20</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
@@ -10756,7 +10803,7 @@
     </row>
     <row r="286" spans="2:17">
       <c r="B286" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C286" s="4">
         <v>4.3099999999999996</v>
@@ -10765,10 +10812,10 @@
         <v>20</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I286" s="4" t="s">
         <v>286</v>
@@ -10782,7 +10829,7 @@
     </row>
     <row r="287" spans="2:17">
       <c r="B287" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="C287" s="4">
         <v>5.58</v>
@@ -10791,10 +10838,10 @@
         <v>14</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I287" s="4" t="s">
         <v>289</v>
@@ -10808,7 +10855,7 @@
     </row>
     <row r="288" spans="2:17">
       <c r="B288" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C288" s="4">
         <v>5.12</v>
@@ -10817,10 +10864,10 @@
         <v>18</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I288" s="4" t="s">
         <v>291</v>
@@ -10834,7 +10881,7 @@
     </row>
     <row r="289" spans="2:17">
       <c r="B289" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="C289" s="4">
         <v>15.69</v>
@@ -10843,13 +10890,13 @@
         <v>16</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H289" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="J289" s="4"/>
       <c r="L289" s="4"/>
@@ -10860,7 +10907,7 @@
     </row>
     <row r="290" spans="2:17" ht="15" thickBot="1">
       <c r="B290" s="4" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C290" s="4">
         <v>22.04</v>
@@ -10869,7 +10916,7 @@
         <v>20</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
@@ -10882,7 +10929,7 @@
     </row>
     <row r="291" spans="2:17" ht="15" thickBot="1">
       <c r="B291" s="4" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="C291" s="5">
         <v>40</v>
@@ -10891,10 +10938,10 @@
         <v>0</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H291" s="39" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I291" s="40"/>
       <c r="J291" s="40"/>
@@ -10929,12 +10976,12 @@
         <v>79</v>
       </c>
       <c r="P292" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="293" spans="2:17">
       <c r="B293" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C293" s="4">
         <v>4.5</v>
@@ -10943,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
@@ -10961,12 +11008,12 @@
         <v>79</v>
       </c>
       <c r="P293" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="294" spans="2:17">
       <c r="B294" s="4" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C294" s="4">
         <v>4.5999999999999996</v>
@@ -10975,17 +11022,17 @@
         <v>0</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I294" s="4" t="s">
         <v>297</v>
       </c>
       <c r="J294" s="4"/>
       <c r="L294" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M294" s="4">
         <v>0.9</v>
@@ -10998,7 +11045,7 @@
     </row>
     <row r="295" spans="2:17">
       <c r="B295" s="4" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C295" s="4">
         <v>3.2</v>
@@ -11007,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I295" s="4" t="s">
         <v>299</v>
@@ -11028,7 +11075,7 @@
     </row>
     <row r="296" spans="2:17">
       <c r="B296" s="4" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C296" s="4">
         <v>6.5</v>
@@ -11037,10 +11084,10 @@
         <v>0</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I296" s="4" t="s">
         <v>301</v>
@@ -11054,7 +11101,7 @@
     </row>
     <row r="297" spans="2:17">
       <c r="B297" s="4" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C297" s="4">
         <v>6.8</v>
@@ -11063,13 +11110,13 @@
         <v>0</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H297" s="4" t="s">
         <v>112</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J297" s="4"/>
       <c r="L297" s="4"/>
@@ -11087,7 +11134,7 @@
         <v>105</v>
       </c>
       <c r="I298" s="4" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="J298" s="4"/>
       <c r="L298" s="4"/>
@@ -11098,7 +11145,7 @@
     </row>
     <row r="299" spans="2:17" ht="15" thickBot="1">
       <c r="B299" s="4" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C299" s="4">
         <v>1.6500000000000001E-2</v>
@@ -11107,10 +11154,10 @@
         <v>15</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H299" s="39" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="I299" s="40"/>
       <c r="J299" s="40"/>
@@ -11126,7 +11173,7 @@
     </row>
     <row r="300" spans="2:17">
       <c r="B300" s="4" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C300" s="4">
         <v>5.9999999999999995E-4</v>
@@ -11135,7 +11182,7 @@
         <v>50</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H300" s="4" t="s">
         <v>361</v>
@@ -11153,12 +11200,12 @@
         <v>79</v>
       </c>
       <c r="P300" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="301" spans="2:17">
       <c r="B301" s="4" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C301" s="4">
         <v>0</v>
@@ -11167,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
@@ -11185,7 +11232,7 @@
         <v>79</v>
       </c>
       <c r="P301" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="302" spans="2:17">
@@ -11194,14 +11241,14 @@
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="H302" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I302" s="4" t="s">
         <v>332</v>
       </c>
       <c r="J302" s="4"/>
       <c r="L302" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M302" s="4">
         <v>0.85</v>
@@ -11214,7 +11261,7 @@
     </row>
     <row r="303" spans="2:17">
       <c r="B303" s="4" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C303" s="4">
         <v>2.0000000000000001E-4</v>
@@ -11223,10 +11270,10 @@
         <v>30</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I303" s="4" t="s">
         <v>337</v>
@@ -11244,7 +11291,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="H304" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I304" s="4" t="s">
         <v>340</v>
@@ -11265,7 +11312,7 @@
         <v>112</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J305" s="4"/>
       <c r="L305" s="4"/>
@@ -11283,7 +11330,7 @@
         <v>105</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="J306" s="4"/>
       <c r="L306" s="4"/>
@@ -11312,7 +11359,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="H308" s="39" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="I308" s="40"/>
       <c r="J308" s="40"/>
@@ -11347,7 +11394,7 @@
         <v>79</v>
       </c>
       <c r="P309" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="310" spans="2:17">
@@ -11356,7 +11403,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="H310" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
@@ -11371,7 +11418,7 @@
         <v>79</v>
       </c>
       <c r="P310" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="311" spans="2:17">
@@ -11380,14 +11427,14 @@
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="H311" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I311" s="4" t="s">
         <v>399</v>
       </c>
       <c r="J311" s="4"/>
       <c r="L311" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M311" s="4">
         <v>0.95</v>
@@ -11404,14 +11451,14 @@
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="H312" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I312" s="4" t="s">
         <v>403</v>
       </c>
       <c r="J312" s="4"/>
       <c r="L312" s="4" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="M312" s="4">
         <v>0</v>
@@ -11421,7 +11468,7 @@
         <v>336</v>
       </c>
       <c r="P312" s="4" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="313" spans="2:17">
@@ -11430,7 +11477,7 @@
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="H313" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I313" s="4" t="s">
         <v>406</v>
@@ -11451,7 +11498,7 @@
         <v>112</v>
       </c>
       <c r="I314" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J314" s="4"/>
       <c r="L314" s="4"/>
@@ -11469,7 +11516,7 @@
         <v>105</v>
       </c>
       <c r="I315" s="4" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="J315" s="4"/>
       <c r="L315" s="4"/>
@@ -11498,7 +11545,7 @@
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="H317" s="39" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="I317" s="40"/>
       <c r="J317" s="40"/>
@@ -11533,7 +11580,7 @@
         <v>79</v>
       </c>
       <c r="P318" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="319" spans="2:17">
@@ -11542,7 +11589,7 @@
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="H319" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
@@ -11557,7 +11604,7 @@
         <v>79</v>
       </c>
       <c r="P319" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="320" spans="2:17">
@@ -11566,14 +11613,14 @@
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="H320" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I320" s="4" t="s">
         <v>392</v>
       </c>
       <c r="J320" s="4"/>
       <c r="L320" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M320" s="4">
         <v>0.95</v>
@@ -11590,7 +11637,7 @@
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="H321" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I321" s="4" t="s">
         <v>394</v>
@@ -11608,7 +11655,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="H322" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I322" s="4" t="s">
         <v>396</v>
@@ -11629,7 +11676,7 @@
         <v>112</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J323" s="4"/>
       <c r="L323" s="4"/>
@@ -11647,7 +11694,7 @@
         <v>105</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="J324" s="4"/>
       <c r="L324" s="4"/>
@@ -11676,7 +11723,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="H326" s="39" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="I326" s="40"/>
       <c r="J326" s="40"/>
@@ -11711,7 +11758,7 @@
         <v>79</v>
       </c>
       <c r="P327" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="328" spans="2:17">
@@ -11720,7 +11767,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="H328" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
@@ -11735,7 +11782,7 @@
         <v>79</v>
       </c>
       <c r="P328" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="329" spans="2:17">
@@ -11744,14 +11791,14 @@
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="H329" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I329" s="4" t="s">
         <v>380</v>
       </c>
       <c r="J329" s="4"/>
       <c r="L329" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M329" s="4">
         <v>0.98</v>
@@ -11768,7 +11815,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="H330" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I330" s="4" t="s">
         <v>382</v>
@@ -11785,7 +11832,7 @@
         <v>79</v>
       </c>
       <c r="P330" s="4" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="331" spans="2:17">
@@ -11794,7 +11841,7 @@
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="H331" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I331" s="4" t="s">
         <v>383</v>
@@ -11821,13 +11868,15 @@
         <v>112</v>
       </c>
       <c r="I332" s="4" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="J332" s="4"/>
       <c r="L332" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="M332" s="4"/>
+      <c r="M332" s="4">
+        <v>50</v>
+      </c>
       <c r="N332" s="4">
         <v>6</v>
       </c>
@@ -11845,13 +11894,15 @@
         <v>105</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="J333" s="4"/>
       <c r="L333" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="M333" s="4"/>
+      <c r="M333" s="4">
+        <v>50</v>
+      </c>
       <c r="N333" s="4">
         <v>6</v>
       </c>
@@ -11880,7 +11931,7 @@
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="H335" s="39" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="I335" s="40"/>
       <c r="J335" s="40"/>
@@ -11903,7 +11954,7 @@
         <v>404</v>
       </c>
       <c r="I336" s="4" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="J336" s="4"/>
       <c r="L336" s="4" t="s">
@@ -11927,7 +11978,7 @@
         <v>400</v>
       </c>
       <c r="I337" s="4" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="J337" s="4"/>
       <c r="L337" s="4" t="s">
@@ -11947,7 +11998,7 @@
       <c r="E338" s="4"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="J338" s="4"/>
       <c r="L338" s="4"/>
@@ -11990,7 +12041,7 @@
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="H341" s="39" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="I341" s="40"/>
       <c r="J341" s="40"/>
@@ -12015,7 +12066,7 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
       <c r="L342" s="4" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="M342" s="4"/>
       <c r="N342" s="4">
@@ -12025,7 +12076,7 @@
         <v>79</v>
       </c>
       <c r="P342" s="4" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="343" spans="2:17">
@@ -12034,12 +12085,12 @@
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="H343" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="L343" s="4" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="M343" s="4">
         <v>0.4</v>
@@ -12049,7 +12100,7 @@
         <v>79</v>
       </c>
       <c r="P343" s="4" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="344" spans="2:17">
@@ -12061,7 +12112,7 @@
         <v>62</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="J344" s="4"/>
       <c r="L344" s="4" t="s">
@@ -12080,10 +12131,10 @@
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="H345" s="4" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="I345" s="4" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J345" s="4"/>
       <c r="L345" s="4"/>
@@ -12101,7 +12152,7 @@
         <v>105</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="J346" s="4"/>
       <c r="L346" s="4"/>
@@ -12119,7 +12170,7 @@
         <v>400</v>
       </c>
       <c r="I347" s="4" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="J347" s="4"/>
       <c r="L347" s="4"/>
@@ -12162,7 +12213,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="H350" s="39" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="I350" s="40"/>
       <c r="J350" s="40"/>
@@ -12187,7 +12238,7 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="L351" s="4" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="M351" s="4">
         <v>35</v>
@@ -12204,7 +12255,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="H352" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
@@ -12224,7 +12275,7 @@
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="H353" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I353" s="4" t="s">
         <v>348</v>
@@ -12242,7 +12293,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="H354" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I354" s="4" t="s">
         <v>351</v>
@@ -12260,7 +12311,7 @@
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="H355" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I355" s="4" t="s">
         <v>352</v>
@@ -12295,7 +12346,7 @@
         <v>105</v>
       </c>
       <c r="I357" s="4" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="J357" s="4"/>
       <c r="L357" s="4"/>
@@ -12338,7 +12389,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="H360" s="39" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="I360" s="40"/>
       <c r="J360" s="40"/>
@@ -12373,7 +12424,7 @@
         <v>79</v>
       </c>
       <c r="P361" s="4" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="362" spans="2:17">
@@ -12382,7 +12433,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="H362" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
@@ -12397,7 +12448,7 @@
         <v>79</v>
       </c>
       <c r="P362" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="363" spans="2:17">
@@ -12406,14 +12457,14 @@
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="H363" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="I363" s="4" t="s">
         <v>417</v>
       </c>
       <c r="J363" s="4"/>
       <c r="L363" s="4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="M363" s="4">
         <v>1.38</v>
@@ -12423,7 +12474,7 @@
         <v>79</v>
       </c>
       <c r="P363" s="4" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="364" spans="2:17">
@@ -12432,14 +12483,14 @@
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="H364" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I364" s="4" t="s">
         <v>419</v>
       </c>
       <c r="J364" s="4"/>
       <c r="L364" s="4" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="M364" s="4">
         <v>0.28999999999999998</v>
@@ -12454,7 +12505,7 @@
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="H365" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I365" s="4" t="s">
         <v>423</v>
@@ -12475,7 +12526,7 @@
         <v>112</v>
       </c>
       <c r="I366" s="4" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="J366" s="4"/>
       <c r="L366" s="4"/>
@@ -12493,7 +12544,7 @@
         <v>105</v>
       </c>
       <c r="I367" s="4" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="J367" s="4"/>
       <c r="L367" s="4"/>
@@ -12511,7 +12562,7 @@
         <v>183</v>
       </c>
       <c r="I368" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="J368" s="4"/>
       <c r="L368" s="4"/>
@@ -12554,7 +12605,7 @@
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="H371" s="39" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="I371" s="40"/>
       <c r="J371" s="40"/>
@@ -12594,7 +12645,7 @@
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="H373" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
@@ -12613,7 +12664,7 @@
         <v>62</v>
       </c>
       <c r="I374" s="4" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="J374" s="4"/>
       <c r="L374" s="4"/>
@@ -12631,7 +12682,7 @@
         <v>400</v>
       </c>
       <c r="I375" s="4" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="J375" s="4"/>
       <c r="L375" s="4"/>
@@ -12649,7 +12700,7 @@
         <v>404</v>
       </c>
       <c r="I376" s="4" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="J376" s="4"/>
       <c r="L376" s="4"/>
@@ -12667,10 +12718,10 @@
         <v>112</v>
       </c>
       <c r="I377" s="4" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="J377" s="4" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="L377" s="4"/>
       <c r="M377" s="4"/>
@@ -12687,7 +12738,7 @@
         <v>105</v>
       </c>
       <c r="I378" s="4" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="J378" s="4"/>
       <c r="L378" s="4"/>
@@ -12704,7 +12755,7 @@
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="L379" s="4"/>
       <c r="M379" s="4"/>
@@ -12718,7 +12769,7 @@
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="H380" s="39" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="I380" s="40"/>
       <c r="J380" s="40"/>
@@ -12743,7 +12794,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
       <c r="L381" s="4" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="M381" s="4"/>
       <c r="N381" s="4">
@@ -12758,12 +12809,12 @@
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="H382" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
       <c r="L382" s="4" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="M382" s="4"/>
       <c r="N382" s="4">
@@ -12778,14 +12829,14 @@
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="H383" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I383" s="4" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="J383" s="4"/>
       <c r="L383" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="M383" s="4"/>
       <c r="N383" s="4">
@@ -12793,7 +12844,7 @@
       </c>
       <c r="O383" s="4"/>
       <c r="P383" s="4" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="384" spans="2:17">
@@ -12802,14 +12853,14 @@
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="H384" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>445</v>
       </c>
       <c r="J384" s="4"/>
       <c r="L384" s="4" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="M384" s="4">
         <v>0</v>
@@ -12819,7 +12870,7 @@
         <v>336</v>
       </c>
       <c r="P384" s="4" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="385" spans="2:17">
@@ -12828,7 +12879,7 @@
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="H385" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>446</v>
@@ -12846,10 +12897,10 @@
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="H386" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="I386" s="4" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="J386" s="4" t="s">
         <v>147</v>
@@ -12866,10 +12917,10 @@
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="H387" s="4" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="I387" s="4" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="J387" s="4"/>
       <c r="L387" s="4"/>
@@ -12886,7 +12937,7 @@
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="L388" s="4"/>
       <c r="M388" s="4"/>
@@ -12900,13 +12951,13 @@
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="H389" s="4" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="I389" s="4" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="J389" s="4" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="L389" s="4"/>
       <c r="M389" s="4"/>
@@ -12948,7 +12999,7 @@
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="H392" s="39" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="I392" s="40"/>
       <c r="J392" s="40"/>
@@ -12973,7 +13024,7 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="L393" s="4" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="M393" s="4"/>
       <c r="N393" s="4">
@@ -12988,12 +13039,12 @@
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="H394" s="4" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="L394" s="4" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="M394" s="4"/>
       <c r="N394" s="4">
@@ -13008,14 +13059,14 @@
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="H395" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I395" s="4" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="J395" s="4"/>
       <c r="L395" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="M395" s="4"/>
       <c r="N395" s="4">
@@ -13030,10 +13081,10 @@
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="H396" s="4" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I396" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="J396" s="4"/>
       <c r="L396" s="4" t="s">
@@ -13052,10 +13103,10 @@
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="H397" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="I397" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J397" s="4"/>
       <c r="L397" s="4"/>
@@ -13070,10 +13121,10 @@
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="H398" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="J398" s="4"/>
       <c r="L398" s="4"/>
@@ -13091,7 +13142,7 @@
         <v>105</v>
       </c>
       <c r="I399" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="J399" s="4"/>
       <c r="L399" s="4"/>
@@ -13120,7 +13171,7 @@
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="H401" s="39" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="I401" s="40"/>
       <c r="J401" s="40"/>
@@ -13131,7 +13182,7 @@
       <c r="O401" s="40"/>
       <c r="P401" s="41"/>
       <c r="Q401" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="402" spans="2:17">
@@ -13143,7 +13194,7 @@
         <v>62</v>
       </c>
       <c r="I402" s="4" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="J402" s="4"/>
       <c r="L402" s="4" t="s">
@@ -13155,7 +13206,7 @@
       </c>
       <c r="O402" s="4"/>
       <c r="P402" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="403" spans="2:17">
@@ -13179,7 +13230,7 @@
       </c>
       <c r="O403" s="4"/>
       <c r="P403" s="4" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="404" spans="2:17">
@@ -13199,7 +13250,7 @@
       <c r="N404" s="4"/>
       <c r="O404" s="4"/>
       <c r="P404" s="4" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="405" spans="2:17" ht="15" thickBot="1">
@@ -13211,7 +13262,7 @@
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="L405" s="4" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="M405" s="4"/>
       <c r="N405" s="4">
@@ -13228,7 +13279,7 @@
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="H406" s="39" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="I406" s="40"/>
       <c r="J406" s="40"/>
@@ -13239,7 +13290,7 @@
       <c r="O406" s="40"/>
       <c r="P406" s="41"/>
       <c r="Q406" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="407" spans="2:17">
@@ -13251,11 +13302,11 @@
         <v>62</v>
       </c>
       <c r="I407" s="4" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="J407" s="4"/>
       <c r="L407" s="4" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="M407" s="4"/>
       <c r="N407" s="4">
@@ -13263,7 +13314,7 @@
       </c>
       <c r="O407" s="4"/>
       <c r="P407" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="408" spans="2:17" ht="15" thickBot="1">
@@ -13283,7 +13334,7 @@
       <c r="N408" s="4"/>
       <c r="O408" s="4"/>
       <c r="P408" s="4" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="409" spans="2:17" ht="15" thickBot="1">
@@ -13292,7 +13343,7 @@
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="H409" s="39" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="I409" s="40"/>
       <c r="J409" s="40"/>
@@ -13303,7 +13354,7 @@
       <c r="O409" s="40"/>
       <c r="P409" s="41"/>
       <c r="Q409" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="410" spans="2:17">
@@ -13315,7 +13366,7 @@
         <v>62</v>
       </c>
       <c r="I410" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="J410" s="4"/>
       <c r="L410" s="4" t="s">
@@ -13327,7 +13378,7 @@
       </c>
       <c r="O410" s="4"/>
       <c r="P410" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="411" spans="2:17">
@@ -13336,14 +13387,14 @@
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="H411" s="4" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="I411" s="4" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="J411" s="4"/>
       <c r="L411" s="4" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="M411" s="4">
         <v>0.08</v>
@@ -13392,7 +13443,7 @@
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="H414" s="39" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I414" s="40"/>
       <c r="J414" s="40"/>
@@ -13403,7 +13454,7 @@
       <c r="O414" s="40"/>
       <c r="P414" s="41"/>
       <c r="Q414" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="415" spans="2:17">
@@ -13415,11 +13466,11 @@
         <v>62</v>
       </c>
       <c r="I415" s="4" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="J415" s="4"/>
       <c r="L415" s="4" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="M415" s="4"/>
       <c r="N415" s="4">
@@ -13438,10 +13489,14 @@
       <c r="H416" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I416" s="4"/>
-      <c r="J416" s="4"/>
+      <c r="I416" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="J416" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="L416" s="4" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="M416" s="4"/>
       <c r="N416" s="4">
@@ -13509,7 +13564,7 @@
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="L420" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="M420" s="4"/>
       <c r="N420" s="4">
@@ -13529,7 +13584,7 @@
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="L421" s="4" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="M421" s="4"/>
       <c r="N421" s="4">
@@ -13549,7 +13604,7 @@
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="L422" s="4" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="M422" s="4"/>
       <c r="N422" s="4">
@@ -13560,7 +13615,7 @@
       </c>
       <c r="P422" s="4"/>
     </row>
-    <row r="423" spans="2:17" ht="15" thickBot="1">
+    <row r="423" spans="2:17">
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -13568,30 +13623,36 @@
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="L423" s="4"/>
+      <c r="L423" s="4" t="s">
+        <v>850</v>
+      </c>
       <c r="M423" s="4"/>
-      <c r="N423" s="4"/>
+      <c r="N423" s="4">
+        <v>2</v>
+      </c>
       <c r="O423" s="4"/>
-      <c r="P423" s="4"/>
-    </row>
-    <row r="424" spans="2:17" ht="15" thickBot="1">
+      <c r="P423" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="424" spans="2:17">
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
-      <c r="H424" s="39" t="s">
-        <v>766</v>
-      </c>
-      <c r="I424" s="40"/>
-      <c r="J424" s="40"/>
-      <c r="K424" s="40"/>
-      <c r="L424" s="40"/>
-      <c r="M424" s="40"/>
-      <c r="N424" s="40"/>
-      <c r="O424" s="40"/>
-      <c r="P424" s="41"/>
-      <c r="Q424" t="s">
-        <v>16</v>
+      <c r="H424" s="4"/>
+      <c r="I424" s="4"/>
+      <c r="J424" s="4"/>
+      <c r="L424" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="M424" s="4"/>
+      <c r="N424" s="4">
+        <v>2</v>
+      </c>
+      <c r="O424" s="4"/>
+      <c r="P424" s="4" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="425" spans="2:17">
@@ -13599,51 +13660,41 @@
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
-      <c r="H425" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I425" s="4" t="s">
-        <v>767</v>
-      </c>
+      <c r="H425" s="4"/>
+      <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="L425" s="4" t="s">
-        <v>768</v>
+        <v>852</v>
       </c>
       <c r="M425" s="4"/>
       <c r="N425" s="4">
-        <v>5</v>
-      </c>
-      <c r="O425" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O425" s="4"/>
       <c r="P425" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="426" spans="2:17">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="426" spans="2:17" ht="15" thickBot="1">
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
-      <c r="H426" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I426" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="H426" s="4"/>
+      <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="L426" s="4" t="s">
-        <v>105</v>
+        <v>853</v>
       </c>
       <c r="M426" s="4"/>
       <c r="N426" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O426" s="4" t="s">
-        <v>79</v>
+        <v>858</v>
       </c>
       <c r="P426" s="4" t="s">
-        <v>770</v>
+        <v>857</v>
       </c>
     </row>
     <row r="427" spans="2:17" ht="15" thickBot="1">
@@ -13651,37 +13702,45 @@
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
-      <c r="H427" s="4"/>
-      <c r="I427" s="4"/>
-      <c r="J427" s="4"/>
-      <c r="L427" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M427" s="4">
-        <v>15</v>
-      </c>
-      <c r="N427" s="4"/>
-      <c r="O427" s="4"/>
-      <c r="P427" s="4"/>
-    </row>
-    <row r="428" spans="2:17" ht="15" thickBot="1">
+      <c r="H427" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="I427" s="40"/>
+      <c r="J427" s="40"/>
+      <c r="K427" s="40"/>
+      <c r="L427" s="40"/>
+      <c r="M427" s="40"/>
+      <c r="N427" s="40"/>
+      <c r="O427" s="40"/>
+      <c r="P427" s="41"/>
+      <c r="Q427" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="2:17">
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
-      <c r="H428" s="39" t="s">
-        <v>771</v>
-      </c>
-      <c r="I428" s="40"/>
-      <c r="J428" s="40"/>
-      <c r="K428" s="40"/>
-      <c r="L428" s="40"/>
-      <c r="M428" s="40"/>
-      <c r="N428" s="40"/>
-      <c r="O428" s="40"/>
-      <c r="P428" s="41"/>
-      <c r="Q428" t="s">
-        <v>16</v>
+      <c r="H428" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I428" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="J428" s="4"/>
+      <c r="L428" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="M428" s="4"/>
+      <c r="N428" s="4">
+        <v>5</v>
+      </c>
+      <c r="O428" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P428" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="429" spans="2:17">
@@ -13690,88 +13749,88 @@
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="H429" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="I429" s="4" t="s">
-        <v>767</v>
+        <v>113</v>
       </c>
       <c r="J429" s="4"/>
       <c r="L429" s="4" t="s">
-        <v>768</v>
+        <v>105</v>
       </c>
       <c r="M429" s="4"/>
       <c r="N429" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O429" s="4" t="s">
         <v>79</v>
       </c>
       <c r="P429" s="4" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="430" spans="2:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="430" spans="2:17" ht="15" thickBot="1">
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
-      <c r="H430" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I430" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="H430" s="4"/>
+      <c r="I430" s="4"/>
       <c r="J430" s="4"/>
       <c r="L430" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M430" s="4"/>
-      <c r="N430" s="4">
-        <v>6</v>
-      </c>
-      <c r="O430" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P430" s="4" t="s">
-        <v>770</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M430" s="4">
+        <v>15</v>
+      </c>
+      <c r="N430" s="4"/>
+      <c r="O430" s="4"/>
+      <c r="P430" s="4"/>
     </row>
     <row r="431" spans="2:17" ht="15" thickBot="1">
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
-      <c r="H431" s="4"/>
-      <c r="I431" s="4"/>
-      <c r="J431" s="4"/>
-      <c r="L431" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M431" s="4">
-        <v>15</v>
-      </c>
-      <c r="N431" s="4"/>
-      <c r="O431" s="4"/>
-      <c r="P431" s="4"/>
-    </row>
-    <row r="432" spans="2:17" ht="15" thickBot="1">
+      <c r="H431" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="I431" s="40"/>
+      <c r="J431" s="40"/>
+      <c r="K431" s="40"/>
+      <c r="L431" s="40"/>
+      <c r="M431" s="40"/>
+      <c r="N431" s="40"/>
+      <c r="O431" s="40"/>
+      <c r="P431" s="41"/>
+      <c r="Q431" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432" spans="2:17">
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
-      <c r="H432" s="39" t="s">
-        <v>772</v>
-      </c>
-      <c r="I432" s="40"/>
-      <c r="J432" s="40"/>
-      <c r="K432" s="40"/>
-      <c r="L432" s="40"/>
-      <c r="M432" s="40"/>
-      <c r="N432" s="40"/>
-      <c r="O432" s="40"/>
-      <c r="P432" s="41"/>
-      <c r="Q432" t="s">
-        <v>16</v>
+      <c r="H432" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I432" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="J432" s="4"/>
+      <c r="L432" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="M432" s="4"/>
+      <c r="N432" s="4">
+        <v>5</v>
+      </c>
+      <c r="O432" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P432" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="433" spans="2:17">
@@ -13783,228 +13842,224 @@
         <v>112</v>
       </c>
       <c r="I433" s="4" t="s">
-        <v>773</v>
+        <v>113</v>
       </c>
       <c r="J433" s="4"/>
       <c r="L433" s="4" t="s">
-        <v>774</v>
+        <v>105</v>
       </c>
       <c r="M433" s="4"/>
-      <c r="N433" s="4"/>
+      <c r="N433" s="4">
+        <v>6</v>
+      </c>
       <c r="O433" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="P433" s="4"/>
-    </row>
-    <row r="434" spans="2:17">
+        <v>79</v>
+      </c>
+      <c r="P433" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="434" spans="2:17" ht="15" thickBot="1">
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
-      <c r="H434" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="L434" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M434" s="4"/>
-      <c r="N434" s="4">
-        <v>6</v>
-      </c>
-      <c r="O434" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M434" s="4">
+        <v>15</v>
+      </c>
+      <c r="N434" s="4"/>
+      <c r="O434" s="4"/>
       <c r="P434" s="4"/>
     </row>
-    <row r="435" spans="2:17">
+    <row r="435" spans="2:17" ht="15" thickBot="1">
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
-      <c r="H435" s="4"/>
-      <c r="I435" s="4"/>
-      <c r="J435" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="L435" s="4"/>
-      <c r="M435" s="4"/>
-      <c r="N435" s="4"/>
-      <c r="O435" s="4"/>
-      <c r="P435" s="4"/>
-    </row>
-    <row r="436" spans="2:17" ht="15" thickBot="1">
+      <c r="H435" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="I435" s="40"/>
+      <c r="J435" s="40"/>
+      <c r="K435" s="40"/>
+      <c r="L435" s="40"/>
+      <c r="M435" s="40"/>
+      <c r="N435" s="40"/>
+      <c r="O435" s="40"/>
+      <c r="P435" s="41"/>
+      <c r="Q435" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436" spans="2:17">
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
-      <c r="H436" s="4"/>
-      <c r="I436" s="4"/>
+      <c r="H436" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I436" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="J436" s="4"/>
-      <c r="L436" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M436" s="4">
-        <v>30</v>
-      </c>
+      <c r="L436" s="4"/>
+      <c r="M436" s="4"/>
       <c r="N436" s="4"/>
       <c r="O436" s="4"/>
       <c r="P436" s="4"/>
     </row>
-    <row r="437" spans="2:17" ht="15" thickBot="1">
+    <row r="437" spans="2:17">
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
-      <c r="H437" s="39" t="s">
-        <v>776</v>
-      </c>
-      <c r="I437" s="40"/>
-      <c r="J437" s="40"/>
-      <c r="K437" s="40"/>
-      <c r="L437" s="40"/>
-      <c r="M437" s="40"/>
-      <c r="N437" s="40"/>
-      <c r="O437" s="40"/>
-      <c r="P437" s="41"/>
-      <c r="Q437" t="s">
-        <v>16</v>
-      </c>
+      <c r="H437" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="I437" s="4"/>
+      <c r="J437" s="4"/>
+      <c r="L437" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M437" s="4"/>
+      <c r="N437" s="4">
+        <v>6</v>
+      </c>
+      <c r="O437" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P437" s="4"/>
     </row>
     <row r="438" spans="2:17">
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
-      <c r="H438" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I438" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="J438" s="4"/>
-      <c r="L438" s="4" t="s">
-        <v>768</v>
-      </c>
+      <c r="H438" s="4"/>
+      <c r="I438" s="4"/>
+      <c r="J438" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="L438" s="4"/>
       <c r="M438" s="4"/>
-      <c r="N438" s="4">
-        <v>5</v>
-      </c>
-      <c r="O438" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="N438" s="4"/>
+      <c r="O438" s="4"/>
       <c r="P438" s="4"/>
     </row>
-    <row r="439" spans="2:17">
+    <row r="439" spans="2:17" ht="15" thickBot="1">
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
-      <c r="H439" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I439" s="4" t="s">
-        <v>773</v>
-      </c>
+      <c r="H439" s="4"/>
+      <c r="I439" s="4"/>
       <c r="J439" s="4"/>
       <c r="L439" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M439" s="4"/>
-      <c r="N439" s="4">
-        <v>5</v>
-      </c>
-      <c r="O439" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M439" s="4">
+        <v>30</v>
+      </c>
+      <c r="N439" s="4"/>
+      <c r="O439" s="4"/>
       <c r="P439" s="4"/>
     </row>
-    <row r="440" spans="2:17">
+    <row r="440" spans="2:17" ht="15" thickBot="1">
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
-      <c r="H440" s="4"/>
-      <c r="I440" s="4"/>
-      <c r="J440" s="4"/>
-      <c r="L440" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M440" s="4"/>
-      <c r="N440" s="4">
-        <v>6</v>
-      </c>
-      <c r="O440" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P440" s="4"/>
-    </row>
-    <row r="441" spans="2:17" ht="15" thickBot="1">
+      <c r="H440" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="I440" s="40"/>
+      <c r="J440" s="40"/>
+      <c r="K440" s="40"/>
+      <c r="L440" s="40"/>
+      <c r="M440" s="40"/>
+      <c r="N440" s="40"/>
+      <c r="O440" s="40"/>
+      <c r="P440" s="41"/>
+      <c r="Q440" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="441" spans="2:17">
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
-      <c r="H441" s="4"/>
-      <c r="I441" s="4"/>
+      <c r="H441" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I441" s="4" t="s">
+        <v>767</v>
+      </c>
       <c r="J441" s="4"/>
       <c r="L441" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M441" s="5">
-        <v>90</v>
-      </c>
-      <c r="N441" s="4"/>
-      <c r="O441" s="4"/>
+        <v>761</v>
+      </c>
+      <c r="M441" s="4"/>
+      <c r="N441" s="4">
+        <v>5</v>
+      </c>
+      <c r="O441" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="P441" s="4"/>
     </row>
-    <row r="442" spans="2:17" ht="15" thickBot="1">
+    <row r="442" spans="2:17">
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
-      <c r="H442" s="39" t="s">
-        <v>778</v>
-      </c>
-      <c r="I442" s="40"/>
-      <c r="J442" s="40"/>
-      <c r="K442" s="40"/>
-      <c r="L442" s="40"/>
-      <c r="M442" s="40"/>
-      <c r="N442" s="40"/>
-      <c r="O442" s="40"/>
-      <c r="P442" s="41"/>
-      <c r="Q442" t="s">
-        <v>16</v>
-      </c>
+      <c r="H442" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I442" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J442" s="4"/>
+      <c r="L442" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M442" s="4"/>
+      <c r="N442" s="4">
+        <v>5</v>
+      </c>
+      <c r="O442" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P442" s="4"/>
     </row>
     <row r="443" spans="2:17">
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
-      <c r="H443" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I443" s="4" t="s">
-        <v>541</v>
-      </c>
+      <c r="H443" s="4"/>
+      <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="L443" s="4" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="M443" s="4"/>
       <c r="N443" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O443" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="P443" s="4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="444" spans="2:17">
+      <c r="P443" s="4"/>
+    </row>
+    <row r="444" spans="2:17" ht="15" thickBot="1">
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -14016,126 +14071,122 @@
         <v>108</v>
       </c>
       <c r="M444" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N444" s="4"/>
       <c r="O444" s="4"/>
       <c r="P444" s="4"/>
     </row>
-    <row r="445" spans="2:17">
+    <row r="445" spans="2:17" ht="15" thickBot="1">
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
-      <c r="H445" s="4"/>
-      <c r="I445" s="4"/>
-      <c r="J445" s="4"/>
-      <c r="L445" s="4"/>
-      <c r="M445" s="4"/>
-      <c r="N445" s="4"/>
-      <c r="O445" s="4"/>
-      <c r="P445" s="4"/>
-    </row>
-    <row r="446" spans="2:17" ht="15" thickBot="1">
+      <c r="H445" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="I445" s="40"/>
+      <c r="J445" s="40"/>
+      <c r="K445" s="40"/>
+      <c r="L445" s="40"/>
+      <c r="M445" s="40"/>
+      <c r="N445" s="40"/>
+      <c r="O445" s="40"/>
+      <c r="P445" s="41"/>
+      <c r="Q445" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446" spans="2:17">
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
-      <c r="H446" s="4"/>
-      <c r="I446" s="4"/>
+      <c r="H446" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I446" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="J446" s="4"/>
-      <c r="L446" s="4"/>
+      <c r="L446" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="M446" s="4"/>
-      <c r="N446" s="4"/>
-      <c r="O446" s="4"/>
-      <c r="P446" s="4"/>
-    </row>
-    <row r="447" spans="2:17" ht="15" thickBot="1">
+      <c r="N446" s="4">
+        <v>5</v>
+      </c>
+      <c r="O446" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P446" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="447" spans="2:17">
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
-      <c r="H447" s="39" t="s">
-        <v>780</v>
-      </c>
-      <c r="I447" s="40"/>
-      <c r="J447" s="40"/>
-      <c r="K447" s="40"/>
-      <c r="L447" s="40"/>
-      <c r="M447" s="40"/>
-      <c r="N447" s="40"/>
-      <c r="O447" s="40"/>
-      <c r="P447" s="41"/>
-      <c r="Q447" t="s">
-        <v>750</v>
-      </c>
+      <c r="H447" s="4"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="4"/>
+      <c r="L447" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M447" s="5">
+        <v>80</v>
+      </c>
+      <c r="N447" s="4"/>
+      <c r="O447" s="4"/>
+      <c r="P447" s="4"/>
     </row>
     <row r="448" spans="2:17">
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="H448" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I448" s="4" t="s">
-        <v>781</v>
-      </c>
+      <c r="H448" s="4"/>
+      <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="L448" s="4" t="s">
-        <v>762</v>
-      </c>
+      <c r="L448" s="4"/>
       <c r="M448" s="4"/>
-      <c r="N448" s="4">
-        <v>1</v>
-      </c>
+      <c r="N448" s="4"/>
       <c r="O448" s="4"/>
       <c r="P448" s="4"/>
     </row>
-    <row r="449" spans="2:17">
+    <row r="449" spans="2:17" ht="15" thickBot="1">
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
-      <c r="H449" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I449" s="4" t="s">
-        <v>782</v>
-      </c>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="L449" s="4" t="s">
-        <v>783</v>
-      </c>
+      <c r="L449" s="4"/>
       <c r="M449" s="4"/>
-      <c r="N449" s="4">
-        <v>1</v>
-      </c>
+      <c r="N449" s="4"/>
       <c r="O449" s="4"/>
-      <c r="P449" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="450" spans="2:17">
+      <c r="P449" s="4"/>
+    </row>
+    <row r="450" spans="2:17" ht="15" thickBot="1">
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
-      <c r="H450" s="4"/>
-      <c r="I450" s="4"/>
-      <c r="J450" s="4"/>
-      <c r="L450" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="M450" s="4">
-        <v>1</v>
-      </c>
-      <c r="N450" s="4"/>
-      <c r="O450" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="P450" s="4" t="s">
-        <v>787</v>
+      <c r="H450" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="I450" s="40"/>
+      <c r="J450" s="40"/>
+      <c r="K450" s="40"/>
+      <c r="L450" s="40"/>
+      <c r="M450" s="40"/>
+      <c r="N450" s="40"/>
+      <c r="O450" s="40"/>
+      <c r="P450" s="41"/>
+      <c r="Q450" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="451" spans="2:17">
@@ -14143,51 +14194,67 @@
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
-      <c r="H451" s="4"/>
-      <c r="I451" s="4"/>
+      <c r="H451" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I451" s="4" t="s">
+        <v>771</v>
+      </c>
       <c r="J451" s="4"/>
       <c r="L451" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M451" s="5">
-        <v>30</v>
-      </c>
-      <c r="N451" s="4"/>
+        <v>755</v>
+      </c>
+      <c r="M451" s="4"/>
+      <c r="N451" s="4">
+        <v>1</v>
+      </c>
       <c r="O451" s="4"/>
       <c r="P451" s="4"/>
     </row>
-    <row r="452" spans="2:17" ht="15" thickBot="1">
+    <row r="452" spans="2:17">
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
-      <c r="H452" s="4"/>
-      <c r="I452" s="4"/>
+      <c r="H452" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I452" s="4" t="s">
+        <v>772</v>
+      </c>
       <c r="J452" s="4"/>
-      <c r="L452" s="4"/>
+      <c r="L452" s="4" t="s">
+        <v>862</v>
+      </c>
       <c r="M452" s="4"/>
-      <c r="N452" s="4"/>
+      <c r="N452" s="4">
+        <v>1</v>
+      </c>
       <c r="O452" s="4"/>
-      <c r="P452" s="4"/>
-    </row>
-    <row r="453" spans="2:17" ht="15" thickBot="1">
+      <c r="P452" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="453" spans="2:17">
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
-      <c r="H453" s="39" t="s">
-        <v>788</v>
-      </c>
-      <c r="I453" s="40"/>
-      <c r="J453" s="40"/>
-      <c r="K453" s="40"/>
-      <c r="L453" s="40"/>
-      <c r="M453" s="40"/>
-      <c r="N453" s="40"/>
-      <c r="O453" s="40"/>
-      <c r="P453" s="41"/>
-      <c r="Q453" t="s">
-        <v>745</v>
+      <c r="H453" s="4"/>
+      <c r="I453" s="4"/>
+      <c r="J453" s="4"/>
+      <c r="L453" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="M453" s="4">
+        <v>1</v>
+      </c>
+      <c r="N453" s="4"/>
+      <c r="O453" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="P453" s="4" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="454" spans="2:17">
@@ -14195,25 +14262,25 @@
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
-      <c r="H454" s="4" t="s">
-        <v>361</v>
-      </c>
+      <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="L454" s="4"/>
-      <c r="M454" s="4"/>
+      <c r="L454" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M454" s="5">
+        <v>30</v>
+      </c>
       <c r="N454" s="4"/>
       <c r="O454" s="4"/>
       <c r="P454" s="4"/>
     </row>
-    <row r="455" spans="2:17">
+    <row r="455" spans="2:17" ht="15" thickBot="1">
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-      <c r="H455" s="4" t="s">
-        <v>603</v>
-      </c>
+      <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="L455" s="4"/>
@@ -14227,34 +14294,36 @@
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
-      <c r="H456" s="4"/>
-      <c r="I456" s="4"/>
-      <c r="J456" s="4"/>
-      <c r="L456" s="4"/>
-      <c r="M456" s="4"/>
-      <c r="N456" s="4"/>
-      <c r="O456" s="4"/>
-      <c r="P456" s="4"/>
-    </row>
-    <row r="457" spans="2:17" ht="15" thickBot="1">
+      <c r="H456" s="39" t="s">
+        <v>777</v>
+      </c>
+      <c r="I456" s="40"/>
+      <c r="J456" s="40"/>
+      <c r="K456" s="40"/>
+      <c r="L456" s="40"/>
+      <c r="M456" s="40"/>
+      <c r="N456" s="40"/>
+      <c r="O456" s="40"/>
+      <c r="P456" s="41"/>
+      <c r="Q456" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="457" spans="2:17">
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
-      <c r="H457" s="39" t="s">
-        <v>789</v>
-      </c>
-      <c r="I457" s="40"/>
-      <c r="J457" s="40"/>
-      <c r="K457" s="40"/>
-      <c r="L457" s="40"/>
-      <c r="M457" s="40"/>
-      <c r="N457" s="40"/>
-      <c r="O457" s="40"/>
-      <c r="P457" s="41"/>
-      <c r="Q457" t="s">
-        <v>745</v>
-      </c>
+      <c r="H457" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I457" s="4"/>
+      <c r="J457" s="4"/>
+      <c r="L457" s="4"/>
+      <c r="M457" s="4"/>
+      <c r="N457" s="4"/>
+      <c r="O457" s="4"/>
+      <c r="P457" s="4"/>
     </row>
     <row r="458" spans="2:17">
       <c r="B458" s="4"/>
@@ -14262,68 +14331,48 @@
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="H458" s="4" t="s">
-        <v>361</v>
+        <v>596</v>
       </c>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="L458" s="4" t="s">
-        <v>790</v>
-      </c>
+      <c r="L458" s="4"/>
       <c r="M458" s="4"/>
-      <c r="N458" s="4">
-        <v>1</v>
-      </c>
-      <c r="O458" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="N458" s="4"/>
+      <c r="O458" s="4"/>
       <c r="P458" s="4"/>
     </row>
-    <row r="459" spans="2:17">
+    <row r="459" spans="2:17" ht="15" thickBot="1">
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
-      <c r="H459" s="4" t="s">
-        <v>420</v>
-      </c>
+      <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="L459" s="4" t="s">
-        <v>844</v>
-      </c>
+      <c r="L459" s="4"/>
       <c r="M459" s="4"/>
-      <c r="N459" s="4">
-        <v>3</v>
-      </c>
-      <c r="O459" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="N459" s="4"/>
+      <c r="O459" s="4"/>
       <c r="P459" s="4"/>
     </row>
-    <row r="460" spans="2:17">
+    <row r="460" spans="2:17" ht="15" thickBot="1">
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
-      <c r="H460" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I460" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="J460" s="4"/>
-      <c r="L460" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="M460" s="4"/>
-      <c r="N460" s="4">
-        <v>1</v>
-      </c>
-      <c r="O460" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="P460" s="4" t="s">
-        <v>846</v>
+      <c r="H460" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="I460" s="40"/>
+      <c r="J460" s="40"/>
+      <c r="K460" s="40"/>
+      <c r="L460" s="40"/>
+      <c r="M460" s="40"/>
+      <c r="N460" s="40"/>
+      <c r="O460" s="40"/>
+      <c r="P460" s="41"/>
+      <c r="Q460" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="461" spans="2:17">
@@ -14332,25 +14381,21 @@
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="H461" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="I461" s="4" t="s">
-        <v>847</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="I461" s="4"/>
       <c r="J461" s="4"/>
       <c r="L461" s="4" t="s">
-        <v>848</v>
+        <v>779</v>
       </c>
       <c r="M461" s="4"/>
       <c r="N461" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O461" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P461" s="4" t="s">
-        <v>849</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P461" s="4"/>
     </row>
     <row r="462" spans="2:17">
       <c r="B462" s="4"/>
@@ -14358,50 +14403,72 @@
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="H462" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="I462" s="4" t="s">
-        <v>850</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="L462" s="4"/>
+      <c r="L462" s="4" t="s">
+        <v>833</v>
+      </c>
       <c r="M462" s="4"/>
-      <c r="N462" s="4"/>
-      <c r="O462" s="4"/>
+      <c r="N462" s="4">
+        <v>3</v>
+      </c>
+      <c r="O462" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="P462" s="4"/>
     </row>
-    <row r="463" spans="2:17" ht="15" thickBot="1">
+    <row r="463" spans="2:17">
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
-      <c r="H463" s="4"/>
-      <c r="I463" s="4"/>
+      <c r="H463" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I463" s="4" t="s">
+        <v>780</v>
+      </c>
       <c r="J463" s="4"/>
-      <c r="L463" s="4"/>
+      <c r="L463" s="4" t="s">
+        <v>834</v>
+      </c>
       <c r="M463" s="4"/>
-      <c r="N463" s="4"/>
-      <c r="O463" s="4"/>
-      <c r="P463" s="4"/>
-    </row>
-    <row r="464" spans="2:17" ht="15" thickBot="1">
+      <c r="N463" s="4">
+        <v>1</v>
+      </c>
+      <c r="O463" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P463" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="464" spans="2:17">
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
-      <c r="H464" s="39" t="s">
-        <v>792</v>
-      </c>
-      <c r="I464" s="40"/>
-      <c r="J464" s="40"/>
-      <c r="K464" s="40"/>
-      <c r="L464" s="40"/>
-      <c r="M464" s="40"/>
-      <c r="N464" s="40"/>
-      <c r="O464" s="40"/>
-      <c r="P464" s="41"/>
-      <c r="Q464" t="s">
-        <v>745</v>
+      <c r="H464" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="I464" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="J464" s="4"/>
+      <c r="L464" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="M464" s="4"/>
+      <c r="N464" s="4">
+        <v>3</v>
+      </c>
+      <c r="O464" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P464" s="4" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="465" spans="2:17">
@@ -14410,37 +14477,25 @@
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="H465" s="4" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="I465" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="J465" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="L465" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="J465" s="4"/>
+      <c r="L465" s="4"/>
       <c r="M465" s="4"/>
-      <c r="N465" s="4">
-        <v>1</v>
-      </c>
-      <c r="O465" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="N465" s="4"/>
+      <c r="O465" s="4"/>
       <c r="P465" s="4"/>
     </row>
-    <row r="466" spans="2:17">
+    <row r="466" spans="2:17" ht="15" thickBot="1">
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
-      <c r="H466" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I466" s="4" t="s">
-        <v>793</v>
-      </c>
+      <c r="H466" s="4"/>
+      <c r="I466" s="4"/>
       <c r="J466" s="4"/>
       <c r="L466" s="4"/>
       <c r="M466" s="4"/>
@@ -14453,40 +14508,46 @@
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
-      <c r="H467" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="I467" s="4"/>
-      <c r="J467" s="4"/>
-      <c r="L467" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M467" s="4">
-        <v>50</v>
-      </c>
-      <c r="N467" s="4"/>
-      <c r="O467" s="4"/>
-      <c r="P467" s="4"/>
-    </row>
-    <row r="468" spans="2:17" ht="15" thickBot="1">
+      <c r="H467" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="I467" s="40"/>
+      <c r="J467" s="40"/>
+      <c r="K467" s="40"/>
+      <c r="L467" s="40"/>
+      <c r="M467" s="40"/>
+      <c r="N467" s="40"/>
+      <c r="O467" s="40"/>
+      <c r="P467" s="41"/>
+      <c r="Q467" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="468" spans="2:17">
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
-      <c r="H468" s="39" t="s">
-        <v>794</v>
-      </c>
-      <c r="I468" s="40"/>
-      <c r="J468" s="40"/>
-      <c r="K468" s="40"/>
-      <c r="L468" s="40"/>
-      <c r="M468" s="40"/>
-      <c r="N468" s="40"/>
-      <c r="O468" s="40"/>
-      <c r="P468" s="41"/>
-      <c r="Q468" t="s">
-        <v>16</v>
-      </c>
+      <c r="H468" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I468" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="J468" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="L468" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M468" s="4"/>
+      <c r="N468" s="4">
+        <v>1</v>
+      </c>
+      <c r="O468" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P468" s="4"/>
     </row>
     <row r="469" spans="2:17">
       <c r="B469" s="4"/>
@@ -14494,64 +14555,56 @@
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="H469" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="I469" s="4" t="s">
-        <v>853</v>
+        <v>782</v>
       </c>
       <c r="J469" s="4"/>
-      <c r="L469" s="4" t="s">
-        <v>795</v>
-      </c>
+      <c r="L469" s="4"/>
       <c r="M469" s="4"/>
-      <c r="N469" s="4">
-        <v>5</v>
-      </c>
-      <c r="O469" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P469" s="4" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="470" spans="2:17">
+      <c r="N469" s="4"/>
+      <c r="O469" s="4"/>
+      <c r="P469" s="4"/>
+    </row>
+    <row r="470" spans="2:17" ht="15" thickBot="1">
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
-      <c r="H470" s="4"/>
+      <c r="H470" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
       <c r="L470" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="M470" s="4"/>
-      <c r="N470" s="4">
-        <v>5</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="M470" s="4">
+        <v>50</v>
+      </c>
+      <c r="N470" s="4"/>
       <c r="O470" s="4"/>
-      <c r="P470" s="4" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="471" spans="2:17">
+      <c r="P470" s="4"/>
+    </row>
+    <row r="471" spans="2:17" ht="15" thickBot="1">
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
-      <c r="H471" s="4"/>
-      <c r="I471" s="4"/>
-      <c r="J471" s="4"/>
-      <c r="L471" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="M471" s="4"/>
-      <c r="N471" s="4">
-        <v>5</v>
-      </c>
-      <c r="O471" s="4"/>
-      <c r="P471" s="4" t="s">
-        <v>800</v>
+      <c r="H471" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="I471" s="40"/>
+      <c r="J471" s="40"/>
+      <c r="K471" s="40"/>
+      <c r="L471" s="40"/>
+      <c r="M471" s="40"/>
+      <c r="N471" s="40"/>
+      <c r="O471" s="40"/>
+      <c r="P471" s="41"/>
+      <c r="Q471" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="472" spans="2:17">
@@ -14559,19 +14612,25 @@
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
-      <c r="H472" s="4"/>
-      <c r="I472" s="4"/>
+      <c r="H472" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I472" s="4" t="s">
+        <v>842</v>
+      </c>
       <c r="J472" s="4"/>
       <c r="L472" s="4" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="M472" s="4"/>
       <c r="N472" s="4">
         <v>5</v>
       </c>
-      <c r="O472" s="4"/>
+      <c r="O472" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="P472" s="4" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
     </row>
     <row r="473" spans="2:17">
@@ -14583,14 +14642,16 @@
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
       <c r="L473" s="4" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="M473" s="4"/>
       <c r="N473" s="4">
         <v>5</v>
       </c>
       <c r="O473" s="4"/>
-      <c r="P473" s="4"/>
+      <c r="P473" s="4" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="474" spans="2:17">
       <c r="B474" s="4"/>
@@ -14601,14 +14662,16 @@
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
       <c r="L474" s="4" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="M474" s="4"/>
       <c r="N474" s="4">
         <v>5</v>
       </c>
       <c r="O474" s="4"/>
-      <c r="P474" s="4"/>
+      <c r="P474" s="4" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="475" spans="2:17">
       <c r="B475" s="4"/>
@@ -14619,22 +14682,28 @@
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
       <c r="L475" s="4" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="M475" s="4"/>
-      <c r="N475" s="4"/>
+      <c r="N475" s="4">
+        <v>5</v>
+      </c>
       <c r="O475" s="4"/>
-      <c r="P475" s="4"/>
+      <c r="P475" s="4" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="476" spans="2:17">
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
       <c r="L476" s="4" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="M476" s="4"/>
-      <c r="N476" s="4"/>
+      <c r="N476" s="4">
+        <v>5</v>
+      </c>
       <c r="O476" s="4"/>
       <c r="P476" s="4"/>
     </row>
@@ -14643,10 +14712,12 @@
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
       <c r="L477" s="4" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="M477" s="4"/>
-      <c r="N477" s="4"/>
+      <c r="N477" s="4">
+        <v>5</v>
+      </c>
       <c r="O477" s="4"/>
       <c r="P477" s="4"/>
     </row>
@@ -14655,7 +14726,7 @@
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
       <c r="L478" s="4" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="M478" s="4"/>
       <c r="N478" s="4"/>
@@ -14667,7 +14738,7 @@
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
       <c r="L479" s="4" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="M479" s="4"/>
       <c r="N479" s="4"/>
@@ -14679,7 +14750,7 @@
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
       <c r="L480" s="4" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="M480" s="4"/>
       <c r="N480" s="4"/>
@@ -14691,67 +14762,70 @@
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
       <c r="L481" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M481" s="4">
-        <v>80</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="M481" s="4"/>
       <c r="N481" s="4"/>
       <c r="O481" s="4"/>
-      <c r="P481" s="4" t="s">
-        <v>854</v>
-      </c>
+      <c r="P481" s="4"/>
     </row>
     <row r="482" spans="8:16">
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
       <c r="L482" s="4" t="s">
-        <v>39</v>
+        <v>798</v>
       </c>
       <c r="M482" s="4"/>
-      <c r="N482" s="4">
-        <v>1</v>
-      </c>
-      <c r="O482" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P482" s="4" t="s">
-        <v>811</v>
-      </c>
+      <c r="N482" s="4"/>
+      <c r="O482" s="4"/>
+      <c r="P482" s="4"/>
     </row>
     <row r="483" spans="8:16">
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
       <c r="J483" s="4"/>
-      <c r="L483" s="4"/>
+      <c r="L483" s="4" t="s">
+        <v>799</v>
+      </c>
       <c r="M483" s="4"/>
       <c r="N483" s="4"/>
       <c r="O483" s="4"/>
       <c r="P483" s="4"/>
     </row>
-    <row r="484" spans="8:16" ht="15" thickBot="1">
+    <row r="484" spans="8:16">
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
-      <c r="L484" s="4"/>
-      <c r="M484" s="4"/>
+      <c r="L484" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M484" s="4">
+        <v>80</v>
+      </c>
       <c r="N484" s="4"/>
       <c r="O484" s="4"/>
-      <c r="P484" s="4"/>
-    </row>
-    <row r="485" spans="8:16" ht="15" thickBot="1">
-      <c r="H485" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="I485" s="40"/>
-      <c r="J485" s="40"/>
-      <c r="K485" s="40"/>
-      <c r="L485" s="40"/>
-      <c r="M485" s="40"/>
-      <c r="N485" s="40"/>
-      <c r="O485" s="40"/>
-      <c r="P485" s="41"/>
+      <c r="P484" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="485" spans="8:16">
+      <c r="H485" s="4"/>
+      <c r="I485" s="4"/>
+      <c r="J485" s="4"/>
+      <c r="L485" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M485" s="4"/>
+      <c r="N485" s="4">
+        <v>1</v>
+      </c>
+      <c r="O485" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P485" s="4" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="486" spans="8:16">
       <c r="H486" s="4"/>
@@ -14763,7 +14837,7 @@
       <c r="O486" s="4"/>
       <c r="P486" s="4"/>
     </row>
-    <row r="487" spans="8:16">
+    <row r="487" spans="8:16" ht="15" thickBot="1">
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
       <c r="J487" s="4"/>
@@ -14773,15 +14847,18 @@
       <c r="O487" s="4"/>
       <c r="P487" s="4"/>
     </row>
-    <row r="488" spans="8:16">
-      <c r="H488" s="4"/>
-      <c r="I488" s="4"/>
-      <c r="J488" s="4"/>
-      <c r="L488" s="4"/>
-      <c r="M488" s="4"/>
-      <c r="N488" s="4"/>
-      <c r="O488" s="4"/>
-      <c r="P488" s="4"/>
+    <row r="488" spans="8:16" ht="15" thickBot="1">
+      <c r="H488" s="39" t="s">
+        <v>801</v>
+      </c>
+      <c r="I488" s="40"/>
+      <c r="J488" s="40"/>
+      <c r="K488" s="40"/>
+      <c r="L488" s="40"/>
+      <c r="M488" s="40"/>
+      <c r="N488" s="40"/>
+      <c r="O488" s="40"/>
+      <c r="P488" s="41"/>
     </row>
     <row r="489" spans="8:16">
       <c r="H489" s="4"/>
@@ -15453,14 +15530,54 @@
       <c r="O555" s="4"/>
       <c r="P555" s="4"/>
     </row>
+    <row r="556" spans="8:16">
+      <c r="H556" s="4"/>
+      <c r="I556" s="4"/>
+      <c r="J556" s="4"/>
+      <c r="L556" s="4"/>
+      <c r="M556" s="4"/>
+      <c r="N556" s="4"/>
+      <c r="O556" s="4"/>
+      <c r="P556" s="4"/>
+    </row>
+    <row r="557" spans="8:16">
+      <c r="H557" s="4"/>
+      <c r="I557" s="4"/>
+      <c r="J557" s="4"/>
+      <c r="L557" s="4"/>
+      <c r="M557" s="4"/>
+      <c r="N557" s="4"/>
+      <c r="O557" s="4"/>
+      <c r="P557" s="4"/>
+    </row>
+    <row r="558" spans="8:16">
+      <c r="H558" s="4"/>
+      <c r="I558" s="4"/>
+      <c r="J558" s="4"/>
+      <c r="L558" s="4"/>
+      <c r="M558" s="4"/>
+      <c r="N558" s="4"/>
+      <c r="O558" s="4"/>
+      <c r="P558" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="H464:P464"/>
+    <mergeCell ref="H467:P467"/>
     <mergeCell ref="H360:P360"/>
     <mergeCell ref="H371:P371"/>
     <mergeCell ref="H380:P380"/>
     <mergeCell ref="H392:P392"/>
     <mergeCell ref="H401:P401"/>
+    <mergeCell ref="H460:P460"/>
+    <mergeCell ref="H440:P440"/>
+    <mergeCell ref="H445:P445"/>
+    <mergeCell ref="H450:P450"/>
+    <mergeCell ref="H456:P456"/>
+    <mergeCell ref="H406:P406"/>
+    <mergeCell ref="H409:P409"/>
+    <mergeCell ref="H414:P414"/>
+    <mergeCell ref="H427:P427"/>
+    <mergeCell ref="H431:P431"/>
     <mergeCell ref="H317:P317"/>
     <mergeCell ref="H326:P326"/>
     <mergeCell ref="H335:P335"/>
@@ -15483,9 +15600,8 @@
     <mergeCell ref="H184:P184"/>
     <mergeCell ref="H190:P190"/>
     <mergeCell ref="H201:P201"/>
-    <mergeCell ref="H457:P457"/>
-    <mergeCell ref="H468:P468"/>
-    <mergeCell ref="H485:P485"/>
+    <mergeCell ref="H471:P471"/>
+    <mergeCell ref="H488:P488"/>
     <mergeCell ref="H33:P33"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:J2"/>
@@ -15499,16 +15615,7 @@
     <mergeCell ref="H144:P144"/>
     <mergeCell ref="H152:P152"/>
     <mergeCell ref="H158:P158"/>
-    <mergeCell ref="H432:P432"/>
-    <mergeCell ref="H437:P437"/>
-    <mergeCell ref="H442:P442"/>
-    <mergeCell ref="H447:P447"/>
-    <mergeCell ref="H453:P453"/>
-    <mergeCell ref="H406:P406"/>
-    <mergeCell ref="H409:P409"/>
-    <mergeCell ref="H414:P414"/>
-    <mergeCell ref="H424:P424"/>
-    <mergeCell ref="H428:P428"/>
+    <mergeCell ref="H435:P435"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://www.synteau.com/wp-content/uploads/2011/09/Etude-cemagref_ARTpretraitements-def4.pdf" xr:uid="{2CE61B96-5557-4911-9342-80810C9C6329}"/>
@@ -15536,16 +15643,16 @@
     <row r="1" spans="1:5" ht="15" thickBot="1"/>
     <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="33" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>5</v>
@@ -15557,7 +15664,7 @@
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15566,7 +15673,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15575,7 +15682,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -15584,10 +15691,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E6" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -15596,10 +15703,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="E7" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -15608,7 +15715,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -15617,10 +15724,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -15629,7 +15736,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15638,7 +15745,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15647,7 +15754,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15656,7 +15763,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -15665,7 +15772,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -15674,7 +15781,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15683,10 +15790,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="E16" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:1">
